--- a/src/dataset/wordle_data.xlsx
+++ b/src/dataset/wordle_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\03 - NYU Shanghai\8_Spring 2023\_MCM'23\MCM-23_2316597\src\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29522B2E-DFF1-48C7-8A90-511F4045F923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329CFEAD-BE9E-4ECD-B626-2E53D6408069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE11D8C7-548A-6E47-9F96-66C18673C8FF}"/>
   </bookViews>
@@ -1519,11 +1519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989317FD-0C58-6349-9F4F-FA56E36DDA65}">
-  <dimension ref="A1:L480"/>
+  <dimension ref="A1:O480"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G286" sqref="G286"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1541,7 +1541,7 @@
     <col min="13" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>356</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44926</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44925</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44924</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44923</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44922</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44921</v>
       </c>
@@ -1806,8 +1806,15 @@
       <c r="L7" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N7" s="3">
+        <v>44986</v>
+      </c>
+      <c r="O7" s="1">
+        <f>N7-A360</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44920</v>
       </c>
@@ -1845,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44919</v>
       </c>
@@ -1883,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44918</v>
       </c>
@@ -1921,7 +1928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44917</v>
       </c>
@@ -1959,7 +1966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44916</v>
       </c>
@@ -1997,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44915</v>
       </c>
@@ -2035,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44914</v>
       </c>
@@ -2073,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44913</v>
       </c>
@@ -2111,7 +2118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>44912</v>
       </c>

--- a/src/dataset/wordle_data.xlsx
+++ b/src/dataset/wordle_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\03 - NYU Shanghai\8_Spring 2023\_MCM'23\MCM-23_2316597\src\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329CFEAD-BE9E-4ECD-B626-2E53D6408069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22047B2C-343A-4158-932C-06051750A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE11D8C7-548A-6E47-9F96-66C18673C8FF}"/>
   </bookViews>
@@ -1523,7 +1523,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/src/dataset/wordle_data.xlsx
+++ b/src/dataset/wordle_data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\03 - NYU Shanghai\8_Spring 2023\_MCM'23\MCM-23_2316597\src\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCM\src\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22047B2C-343A-4158-932C-06051750A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D86D301-7657-495A-AC59-BBF8F46DB3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE11D8C7-548A-6E47-9F96-66C18673C8FF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{BE11D8C7-548A-6E47-9F96-66C18673C8FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
     <t>aphid</t>
   </si>
@@ -1027,9 +1027,6 @@
   </si>
   <si>
     <t>apply</t>
-  </si>
-  <si>
-    <t>naïve</t>
   </si>
   <si>
     <t>knock</t>
@@ -1152,6 +1149,14 @@
   </si>
   <si>
     <t>trash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1519,67 +1524,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989317FD-0C58-6349-9F4F-FA56E36DDA65}">
-  <dimension ref="A1:O480"/>
+  <dimension ref="A1:N480"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.4609375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.921875" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.08984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.07421875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.61328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.921875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44926</v>
       </c>
@@ -1587,7 +1595,7 @@
         <v>560</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D2" s="2">
         <v>20380</v>
@@ -1616,8 +1624,12 @@
       <c r="L2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M2" s="1">
+        <f xml:space="preserve"> E2/D2</f>
+        <v>9.317958783120707E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44925</v>
       </c>
@@ -1625,7 +1637,7 @@
         <v>559</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D3" s="2">
         <v>21204</v>
@@ -1654,8 +1666,12 @@
       <c r="L3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M66" si="0" xml:space="preserve"> E3/D3</f>
+        <v>9.3048481418600268E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44924</v>
       </c>
@@ -1663,7 +1679,7 @@
         <v>558</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="2">
         <v>20001</v>
@@ -1692,8 +1708,12 @@
       <c r="L4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5945202739863011E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44923</v>
       </c>
@@ -1701,7 +1721,7 @@
         <v>557</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D5" s="2">
         <v>20160</v>
@@ -1730,8 +1750,12 @@
       <c r="L5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6081349206349212E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44922</v>
       </c>
@@ -1739,7 +1763,7 @@
         <v>556</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D6" s="2">
         <v>20879</v>
@@ -1768,8 +1792,12 @@
       <c r="L6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.636476842760669E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44921</v>
       </c>
@@ -1777,7 +1805,7 @@
         <v>555</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D7" s="2">
         <v>20011</v>
@@ -1806,15 +1834,13 @@
       <c r="L7" s="1">
         <v>14</v>
       </c>
-      <c r="N7" s="3">
-        <v>44986</v>
-      </c>
-      <c r="O7" s="1">
-        <f>N7-A360</f>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10209384838338914</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44920</v>
       </c>
@@ -1822,7 +1848,7 @@
         <v>554</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D8" s="2">
         <v>15554</v>
@@ -1851,8 +1877,12 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M8" s="1">
+        <f xml:space="preserve"> E8/D8</f>
+        <v>0.10042432814710042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44919</v>
       </c>
@@ -1860,7 +1890,7 @@
         <v>553</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D9" s="2">
         <v>20281</v>
@@ -1889,8 +1919,12 @@
       <c r="L9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4226122972240034E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44918</v>
       </c>
@@ -1898,7 +1932,7 @@
         <v>552</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D10" s="2">
         <v>21937</v>
@@ -1927,8 +1961,12 @@
       <c r="L10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6275698591420891E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44917</v>
       </c>
@@ -1936,7 +1974,7 @@
         <v>551</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D11" s="2">
         <v>20490</v>
@@ -1965,8 +2003,12 @@
       <c r="L11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9267935578330899E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44916</v>
       </c>
@@ -1974,7 +2016,7 @@
         <v>550</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D12" s="2">
         <v>22180</v>
@@ -2003,8 +2045,12 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1794409377817854E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>44915</v>
       </c>
@@ -2012,7 +2058,7 @@
         <v>549</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D13" s="1">
         <v>24137</v>
@@ -2041,8 +2087,12 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3673613125077687E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>44914</v>
       </c>
@@ -2079,8 +2129,12 @@
       <c r="L14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>9.311803152633602E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>44913</v>
       </c>
@@ -2117,8 +2171,12 @@
       <c r="L15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5100604529459537E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>44912</v>
       </c>
@@ -2155,8 +2213,12 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3481375358166183E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>44911</v>
       </c>
@@ -2164,7 +2226,7 @@
         <v>545</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D17" s="2">
         <v>22853</v>
@@ -2193,8 +2255,12 @@
       <c r="L17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4517131230035439E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>44910</v>
       </c>
@@ -2231,8 +2297,12 @@
       <c r="L18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5914502164502161E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>44909</v>
       </c>
@@ -2269,8 +2339,12 @@
       <c r="L19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8348059930849024E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>44908</v>
       </c>
@@ -2307,8 +2381,12 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2278328700053938E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>44907</v>
       </c>
@@ -2345,8 +2423,12 @@
       <c r="L21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3997289380492288E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>44906</v>
       </c>
@@ -2354,7 +2436,7 @@
         <v>540</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="D22" s="2">
         <v>21947</v>
@@ -2383,8 +2465,12 @@
       <c r="L22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4545951610698495E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>44905</v>
       </c>
@@ -2392,7 +2478,7 @@
         <v>539</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D23" s="2">
         <v>21157</v>
@@ -2421,8 +2507,12 @@
       <c r="L23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6469253674906649E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>44904</v>
       </c>
@@ -2430,7 +2520,7 @@
         <v>538</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D24" s="2">
         <v>23640</v>
@@ -2459,8 +2549,12 @@
       <c r="L24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1582064297800345E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>44903</v>
       </c>
@@ -2468,7 +2562,7 @@
         <v>537</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D25" s="2">
         <v>21199</v>
@@ -2497,8 +2591,12 @@
       <c r="L25" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7881503844520967E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>44902</v>
       </c>
@@ -2506,7 +2604,7 @@
         <v>536</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D26" s="2">
         <v>24899</v>
@@ -2535,8 +2633,12 @@
       <c r="L26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5907466163299732E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>44901</v>
       </c>
@@ -2544,7 +2646,7 @@
         <v>535</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D27" s="2">
         <v>23509</v>
@@ -2573,8 +2675,12 @@
       <c r="L27" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6175932621549193E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>44900</v>
       </c>
@@ -2582,7 +2688,7 @@
         <v>534</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D28" s="2">
         <v>23153</v>
@@ -2611,8 +2717,12 @@
       <c r="L28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5020083790437526E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>44899</v>
       </c>
@@ -2620,7 +2730,7 @@
         <v>533</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D29" s="2">
         <v>25577</v>
@@ -2649,8 +2759,12 @@
       <c r="L29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3756109004183449E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>44898</v>
       </c>
@@ -2658,7 +2772,7 @@
         <v>532</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D30" s="2">
         <v>23873</v>
@@ -2687,8 +2801,12 @@
       <c r="L30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4667616135383062E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>44897</v>
       </c>
@@ -2696,7 +2814,7 @@
         <v>531</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D31" s="2">
         <v>24646</v>
@@ -2725,8 +2843,12 @@
       <c r="L31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5066136492737152E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>44896</v>
       </c>
@@ -2763,8 +2885,12 @@
       <c r="L32" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="1">
+        <f t="shared" si="0"/>
+        <v>9.72246773908432E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>44895</v>
       </c>
@@ -2801,8 +2927,12 @@
       <c r="L33" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4059212327427741E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>44894</v>
       </c>
@@ -2839,8 +2969,12 @@
       <c r="L34" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7560975609756101E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>44893</v>
       </c>
@@ -2877,8 +3011,12 @@
       <c r="L35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5351426048904078E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>44892</v>
       </c>
@@ -2915,8 +3053,12 @@
       <c r="L36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3469808775688334E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>44891</v>
       </c>
@@ -2924,7 +3066,7 @@
         <v>525</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D37" s="2">
         <v>26381</v>
@@ -2953,8 +3095,12 @@
       <c r="L37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1884310678139569E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>44890</v>
       </c>
@@ -2991,8 +3137,12 @@
       <c r="L38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="1">
+        <f t="shared" si="0"/>
+        <v>9.625160143819482E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>44889</v>
       </c>
@@ -3029,8 +3179,12 @@
       <c r="L39" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8357697166576427E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>44888</v>
       </c>
@@ -3067,8 +3221,12 @@
       <c r="L40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1925139706709666E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>44887</v>
       </c>
@@ -3105,8 +3263,12 @@
       <c r="L41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2357036119109226E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>44886</v>
       </c>
@@ -3143,8 +3305,12 @@
       <c r="L42" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8073122529644272E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>44885</v>
       </c>
@@ -3181,8 +3347,12 @@
       <c r="L43" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5874514825337126E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>44884</v>
       </c>
@@ -3219,8 +3389,12 @@
       <c r="L44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6973615095559421E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44883</v>
       </c>
@@ -3257,8 +3431,12 @@
       <c r="L45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9253629142700625E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>44882</v>
       </c>
@@ -3295,8 +3473,12 @@
       <c r="L46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2117240123793923E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>44881</v>
       </c>
@@ -3333,8 +3515,12 @@
       <c r="L47" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9350954019393187E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>44880</v>
       </c>
@@ -3371,8 +3557,12 @@
       <c r="L48" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6451319381255687E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>44879</v>
       </c>
@@ -3409,8 +3599,12 @@
       <c r="L49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2968043412722343E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>44878</v>
       </c>
@@ -3447,8 +3641,12 @@
       <c r="L50" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10025911899541559</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>44877</v>
       </c>
@@ -3485,8 +3683,12 @@
       <c r="L51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5539334955393351E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>44876</v>
       </c>
@@ -3523,8 +3725,12 @@
       <c r="L52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3794483130073478E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>44875</v>
       </c>
@@ -3561,8 +3767,12 @@
       <c r="L53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3748862271088945E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>44874</v>
       </c>
@@ -3599,8 +3809,12 @@
       <c r="L54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2395804581838256E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>44873</v>
       </c>
@@ -3637,8 +3851,12 @@
       <c r="L55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3007018704295744E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>44872</v>
       </c>
@@ -3675,8 +3893,12 @@
       <c r="L56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3462599632127524E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>44871</v>
       </c>
@@ -3713,8 +3935,12 @@
       <c r="L57" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6980816273979656E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>44870</v>
       </c>
@@ -3751,8 +3977,12 @@
       <c r="L58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2492351141445051E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>44869</v>
       </c>
@@ -3789,8 +4019,12 @@
       <c r="L59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3852908891328204E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>44868</v>
       </c>
@@ -3827,8 +4061,12 @@
       <c r="L60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="1">
+        <f t="shared" si="0"/>
+        <v>9.538471949651485E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>44867</v>
       </c>
@@ -3865,8 +4103,12 @@
       <c r="L61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="1">
+        <f t="shared" si="0"/>
+        <v>9.541019154318757E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>44866</v>
       </c>
@@ -3903,8 +4145,12 @@
       <c r="L62" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13333575739946185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>44865</v>
       </c>
@@ -3941,8 +4187,12 @@
       <c r="L63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7063929353158732E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>44864</v>
       </c>
@@ -3979,8 +4229,12 @@
       <c r="L64" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10116731517509728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>44863</v>
       </c>
@@ -4017,8 +4271,12 @@
       <c r="L65" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10081093973604707</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>44862</v>
       </c>
@@ -4055,8 +4313,12 @@
       <c r="L66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4463357821178998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>44861</v>
       </c>
@@ -4093,8 +4355,12 @@
       <c r="L67" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="1">
+        <f t="shared" ref="M67:M130" si="1" xml:space="preserve"> E67/D67</f>
+        <v>9.4715491325292472E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>44860</v>
       </c>
@@ -4131,8 +4397,12 @@
       <c r="L68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6597145993413833E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>44859</v>
       </c>
@@ -4169,8 +4439,12 @@
       <c r="L69" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7295617034504192E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>44858</v>
       </c>
@@ -4207,8 +4481,12 @@
       <c r="L70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5623035202266213E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>44857</v>
       </c>
@@ -4245,8 +4523,12 @@
       <c r="L71" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10317975340687865</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>44856</v>
       </c>
@@ -4283,8 +4565,12 @@
       <c r="L72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6616696465410531E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>44855</v>
       </c>
@@ -4321,8 +4607,12 @@
       <c r="L73" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7566085833013239E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>44854</v>
       </c>
@@ -4359,8 +4649,12 @@
       <c r="L74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6343203089662849E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>44853</v>
       </c>
@@ -4397,8 +4691,12 @@
       <c r="L75" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="1">
+        <f t="shared" si="1"/>
+        <v>9.8651225195960743E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>44852</v>
       </c>
@@ -4435,8 +4733,12 @@
       <c r="L76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="1">
+        <f t="shared" si="1"/>
+        <v>9.8035789179365299E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>44851</v>
       </c>
@@ -4473,8 +4775,12 @@
       <c r="L77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="1">
+        <f t="shared" si="1"/>
+        <v>9.482234801240845E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>44850</v>
       </c>
@@ -4511,8 +4817,12 @@
       <c r="L78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3699727502544405E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>44849</v>
       </c>
@@ -4549,8 +4859,12 @@
       <c r="L79" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10272012630332533</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>44848</v>
       </c>
@@ -4587,8 +4901,12 @@
       <c r="L80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5205147720196504E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>44847</v>
       </c>
@@ -4625,8 +4943,12 @@
       <c r="L81" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="1">
+        <f t="shared" si="1"/>
+        <v>9.8429973894179498E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>44846</v>
       </c>
@@ -4663,8 +4985,12 @@
       <c r="L82" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10109430208226133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>44845</v>
       </c>
@@ -4701,8 +5027,12 @@
       <c r="L83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6307961504811898E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>44844</v>
       </c>
@@ -4739,8 +5069,12 @@
       <c r="L84" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="1">
+        <f t="shared" si="1"/>
+        <v>9.8742465957288486E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>44843</v>
       </c>
@@ -4777,8 +5111,12 @@
       <c r="L85" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3917206420726554E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>44842</v>
       </c>
@@ -4815,8 +5153,12 @@
       <c r="L86" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="1">
+        <f t="shared" si="1"/>
+        <v>9.8197361085300125E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>44841</v>
       </c>
@@ -4853,8 +5195,12 @@
       <c r="L87" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7843312891890036E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>44840</v>
       </c>
@@ -4891,8 +5237,12 @@
       <c r="L88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="1">
+        <f t="shared" si="1"/>
+        <v>9.184551995572228E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>44839</v>
       </c>
@@ -4929,8 +5279,12 @@
       <c r="L89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3260061419104576E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>44838</v>
       </c>
@@ -4967,8 +5321,12 @@
       <c r="L90" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5583182357718496E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>44837</v>
       </c>
@@ -5005,8 +5363,12 @@
       <c r="L91" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1953666997026756E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>44836</v>
       </c>
@@ -5043,8 +5405,12 @@
       <c r="L92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="1">
+        <f t="shared" si="1"/>
+        <v>9.2229460249933531E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>44835</v>
       </c>
@@ -5081,8 +5447,12 @@
       <c r="L93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5596057017232824E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>44834</v>
       </c>
@@ -5119,8 +5489,12 @@
       <c r="L94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1567113986484316E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>44833</v>
       </c>
@@ -5157,8 +5531,12 @@
       <c r="L95" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="1">
+        <f t="shared" si="1"/>
+        <v>9.2824096859927152E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>44832</v>
       </c>
@@ -5195,8 +5573,12 @@
       <c r="L96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5901770052623181E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>44831</v>
       </c>
@@ -5233,8 +5615,12 @@
       <c r="L97" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="1">
+        <f t="shared" si="1"/>
+        <v>9.320639018880103E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>44830</v>
       </c>
@@ -5271,8 +5657,12 @@
       <c r="L98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0960701444521536E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>44829</v>
       </c>
@@ -5309,8 +5699,12 @@
       <c r="L99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="1">
+        <f t="shared" si="1"/>
+        <v>9.232944747189073E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>44828</v>
       </c>
@@ -5347,8 +5741,12 @@
       <c r="L100" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3876803856362698E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>44827</v>
       </c>
@@ -5385,8 +5783,12 @@
       <c r="L101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1815036973563108E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>44826</v>
       </c>
@@ -5423,8 +5825,12 @@
       <c r="L102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M102" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0523871716731971E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>44825</v>
       </c>
@@ -5461,8 +5867,12 @@
       <c r="L103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0693019764823621E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>44824</v>
       </c>
@@ -5499,8 +5909,12 @@
       <c r="L104" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M104" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0897464590593724E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>44823</v>
       </c>
@@ -5537,8 +5951,12 @@
       <c r="L105" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M105" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7860199714693299E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>44822</v>
       </c>
@@ -5575,8 +5993,12 @@
       <c r="L106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M106" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1776931907437617E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>44821</v>
       </c>
@@ -5613,8 +6035,12 @@
       <c r="L107" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M107" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1956430666108091E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>44820</v>
       </c>
@@ -5651,8 +6077,12 @@
       <c r="L108" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M108" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1106971508215176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>44819</v>
       </c>
@@ -5689,8 +6119,12 @@
       <c r="L109" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M109" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0301103646833011E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>44818</v>
       </c>
@@ -5727,8 +6161,12 @@
       <c r="L110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M110" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1406881961296746E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>44817</v>
       </c>
@@ -5765,8 +6203,12 @@
       <c r="L111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M111" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1738142861985963E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>44816</v>
       </c>
@@ -5803,8 +6245,12 @@
       <c r="L112" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M112" s="1">
+        <f t="shared" si="1"/>
+        <v>9.8912409510412733E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>44815</v>
       </c>
@@ -5841,8 +6287,12 @@
       <c r="L113" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M113" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5922831426829711E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>44814</v>
       </c>
@@ -5879,8 +6329,12 @@
       <c r="L114" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M114" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4982385333652566E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>44813</v>
       </c>
@@ -5917,8 +6371,12 @@
       <c r="L115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M115" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0420241203531024E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>44812</v>
       </c>
@@ -5955,8 +6413,12 @@
       <c r="L116" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M116" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3892747637819907E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>44811</v>
       </c>
@@ -5993,8 +6455,12 @@
       <c r="L117" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M117" s="1">
+        <f t="shared" si="1"/>
+        <v>9.2701342281879193E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>44810</v>
       </c>
@@ -6031,8 +6497,12 @@
       <c r="L118" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M118" s="1">
+        <f t="shared" si="1"/>
+        <v>9.2319912018085176E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>44809</v>
       </c>
@@ -6069,8 +6539,12 @@
       <c r="L119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M119" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0734121528732475E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>44808</v>
       </c>
@@ -6107,8 +6581,12 @@
       <c r="L120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M120" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0230495346367665E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>44807</v>
       </c>
@@ -6145,8 +6623,12 @@
       <c r="L121" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M121" s="1">
+        <f t="shared" si="1"/>
+        <v>9.2238145618928541E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>44806</v>
       </c>
@@ -6183,8 +6665,12 @@
       <c r="L122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M122" s="1">
+        <f t="shared" si="1"/>
+        <v>8.8148023737543393E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>44805</v>
       </c>
@@ -6221,8 +6707,12 @@
       <c r="L123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M123" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1778202676864248E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>44804</v>
       </c>
@@ -6259,8 +6749,12 @@
       <c r="L124" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M124" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9579266049854292E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>44803</v>
       </c>
@@ -6297,8 +6791,12 @@
       <c r="L125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M125" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9393939393939401E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>44802</v>
       </c>
@@ -6335,8 +6833,12 @@
       <c r="L126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M126" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9612321694232958E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>44801</v>
       </c>
@@ -6373,8 +6875,12 @@
       <c r="L127" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4856688952141388E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>44800</v>
       </c>
@@ -6411,8 +6917,12 @@
       <c r="L128" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M128" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9113664735443812E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>44799</v>
       </c>
@@ -6449,8 +6959,12 @@
       <c r="L129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M129" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7740523101739826E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>44798</v>
       </c>
@@ -6487,8 +7001,12 @@
       <c r="L130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M130" s="1">
+        <f t="shared" si="1"/>
+        <v>8.642512997795139E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>44797</v>
       </c>
@@ -6525,8 +7043,12 @@
       <c r="L131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M131" s="1">
+        <f t="shared" ref="M131:M194" si="2" xml:space="preserve"> E131/D131</f>
+        <v>8.6854599406528191E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>44796</v>
       </c>
@@ -6563,8 +7085,12 @@
       <c r="L132" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M132" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7424364362574142E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>44795</v>
       </c>
@@ -6601,8 +7127,12 @@
       <c r="L133" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M133" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7020731163620149E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>44794</v>
       </c>
@@ -6639,8 +7169,12 @@
       <c r="L134" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9451666339107727E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>44793</v>
       </c>
@@ -6677,8 +7211,12 @@
       <c r="L135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M135" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4952281343966526E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>44792</v>
       </c>
@@ -6715,8 +7253,12 @@
       <c r="L136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7943471220373909E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>44791</v>
       </c>
@@ -6753,8 +7295,12 @@
       <c r="L137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M137" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0789398362814133E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>44790</v>
       </c>
@@ -6791,8 +7337,12 @@
       <c r="L138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8594164456233415E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>44789</v>
       </c>
@@ -6829,8 +7379,12 @@
       <c r="L139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M139" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7936191425722829E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>44788</v>
       </c>
@@ -6867,8 +7421,12 @@
       <c r="L140" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M140" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9891451831750332E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>44787</v>
       </c>
@@ -6905,8 +7463,12 @@
       <c r="L141" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M141" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3769745987615311E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>44786</v>
       </c>
@@ -6943,8 +7505,12 @@
       <c r="L142" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M142" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0288014514117249E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>44785</v>
       </c>
@@ -6981,8 +7547,12 @@
       <c r="L143" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M143" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9946780513480318E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>44784</v>
       </c>
@@ -7019,8 +7589,12 @@
       <c r="L144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M144" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6941368864105514E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>44783</v>
       </c>
@@ -7057,8 +7631,12 @@
       <c r="L145" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M145" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7958782599458218E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>44782</v>
       </c>
@@ -7095,8 +7673,12 @@
       <c r="L146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M146" s="1">
+        <f t="shared" si="2"/>
+        <v>8.3344836153824917E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>44781</v>
       </c>
@@ -7133,8 +7715,12 @@
       <c r="L147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M147" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9734204302286291E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>44780</v>
       </c>
@@ -7171,8 +7757,12 @@
       <c r="L148" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M148" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8065593683571211E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>44779</v>
       </c>
@@ -7209,8 +7799,12 @@
       <c r="L149" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M149" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7407636260652399E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>44778</v>
       </c>
@@ -7247,8 +7841,12 @@
       <c r="L150" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M150" s="1">
+        <f t="shared" si="2"/>
+        <v>9.1780455153949128E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>44777</v>
       </c>
@@ -7285,8 +7883,12 @@
       <c r="L151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M151" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9607563995809714E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>44776</v>
       </c>
@@ -7323,8 +7925,12 @@
       <c r="L152" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M152" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6683515280998408E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>44775</v>
       </c>
@@ -7361,8 +7967,12 @@
       <c r="L153" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M153" s="1">
+        <f t="shared" si="2"/>
+        <v>9.6823168810335439E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>44774</v>
       </c>
@@ -7399,8 +8009,12 @@
       <c r="L154" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M154" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0093284599858159E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>44773</v>
       </c>
@@ -7437,8 +8051,12 @@
       <c r="L155" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M155" s="1">
+        <f t="shared" si="2"/>
+        <v>8.58343949044586E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>44772</v>
       </c>
@@ -7475,8 +8093,12 @@
       <c r="L156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M156" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4892779696409931E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>44771</v>
       </c>
@@ -7513,8 +8135,12 @@
       <c r="L157" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M157" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5020242914979755E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>44770</v>
       </c>
@@ -7551,8 +8177,12 @@
       <c r="L158" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M158" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5854858548585489E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>44769</v>
       </c>
@@ -7589,8 +8219,12 @@
       <c r="L159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M159" s="1">
+        <f t="shared" si="2"/>
+        <v>8.558253438932889E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>44768</v>
       </c>
@@ -7627,8 +8261,12 @@
       <c r="L160" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M160" s="1">
+        <f t="shared" si="2"/>
+        <v>8.953052002757142E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>44767</v>
       </c>
@@ -7665,8 +8303,12 @@
       <c r="L161" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M161" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5117773019271953E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>44766</v>
       </c>
@@ -7703,8 +8345,12 @@
       <c r="L162" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M162" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5424358877753501E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>44765</v>
       </c>
@@ -7741,8 +8387,12 @@
       <c r="L163" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M163" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4609317631700612E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>44764</v>
       </c>
@@ -7779,8 +8429,12 @@
       <c r="L164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M164" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5036775795262073E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>44763</v>
       </c>
@@ -7817,8 +8471,12 @@
       <c r="L165" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M165" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6143376144911216E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>44762</v>
       </c>
@@ -7855,8 +8513,12 @@
       <c r="L166" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M166" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7245779766555384E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>44761</v>
       </c>
@@ -7893,8 +8555,12 @@
       <c r="L167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M167" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4654750800413445E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>44760</v>
       </c>
@@ -7931,8 +8597,12 @@
       <c r="L168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M168" s="1">
+        <f t="shared" si="2"/>
+        <v>8.33372480856861E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>44759</v>
       </c>
@@ -7969,8 +8639,12 @@
       <c r="L169" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M169" s="1">
+        <f t="shared" si="2"/>
+        <v>8.444623968089672E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>44758</v>
       </c>
@@ -8007,8 +8681,12 @@
       <c r="L170" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M170" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4603678196497195E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>44757</v>
       </c>
@@ -8045,8 +8723,12 @@
       <c r="L171" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M171" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5461589437732577E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>44756</v>
       </c>
@@ -8083,8 +8765,12 @@
       <c r="L172" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M172" s="1">
+        <f t="shared" si="2"/>
+        <v>8.3553231892278479E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>44755</v>
       </c>
@@ -8121,8 +8807,12 @@
       <c r="L173" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M173" s="1">
+        <f t="shared" si="2"/>
+        <v>8.0590753794922809E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>44754</v>
       </c>
@@ -8159,8 +8849,12 @@
       <c r="L174" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M174" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2498401193775314E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>44753</v>
       </c>
@@ -8197,8 +8891,12 @@
       <c r="L175" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M175" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4597360956961395E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>44752</v>
       </c>
@@ -8235,8 +8933,12 @@
       <c r="L176" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M176" s="1">
+        <f t="shared" si="2"/>
+        <v>8.361852339356228E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>44751</v>
       </c>
@@ -8273,8 +8975,12 @@
       <c r="L177" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M177" s="1">
+        <f t="shared" si="2"/>
+        <v>8.35138234169958E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>44750</v>
       </c>
@@ -8311,8 +9017,12 @@
       <c r="L178" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M178" s="1">
+        <f t="shared" si="2"/>
+        <v>8.1390459281409144E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>44749</v>
       </c>
@@ -8349,8 +9059,12 @@
       <c r="L179" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M179" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4571612873499666E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>44748</v>
       </c>
@@ -8387,8 +9101,12 @@
       <c r="L180" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M180" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5522980736735379E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>44747</v>
       </c>
@@ -8425,8 +9143,12 @@
       <c r="L181" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M181" s="1">
+        <f t="shared" si="2"/>
+        <v>8.0847054600924229E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>44746</v>
       </c>
@@ -8463,8 +9185,12 @@
       <c r="L182" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M182" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4206823777699613E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>44745</v>
       </c>
@@ -8501,8 +9227,12 @@
       <c r="L183" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M183" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5486340957367984E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>44744</v>
       </c>
@@ -8539,8 +9269,12 @@
       <c r="L184" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M184" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4161379145217291E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>44743</v>
       </c>
@@ -8577,8 +9311,12 @@
       <c r="L185" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M185" s="1">
+        <f t="shared" si="2"/>
+        <v>8.0257365391127669E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>44742</v>
       </c>
@@ -8615,8 +9353,12 @@
       <c r="L186" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M186" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4999547634126482E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>44741</v>
       </c>
@@ -8653,8 +9395,12 @@
       <c r="L187" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M187" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6690765691751562E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>44740</v>
       </c>
@@ -8691,8 +9437,12 @@
       <c r="L188" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M188" s="1">
+        <f t="shared" si="2"/>
+        <v>8.1247886371322284E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>44739</v>
       </c>
@@ -8729,8 +9479,12 @@
       <c r="L189" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M189" s="1">
+        <f t="shared" si="2"/>
+        <v>8.019005543283457E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>44738</v>
       </c>
@@ -8767,8 +9521,12 @@
       <c r="L190" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M190" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8374628344895933E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>44737</v>
       </c>
@@ -8805,8 +9563,12 @@
       <c r="L191" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M191" s="1">
+        <f t="shared" si="2"/>
+        <v>7.962854477207143E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>44736</v>
       </c>
@@ -8843,8 +9605,12 @@
       <c r="L192" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M192" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8847027678447951E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>44735</v>
       </c>
@@ -8881,8 +9647,12 @@
       <c r="L193" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M193" s="1">
+        <f t="shared" si="2"/>
+        <v>7.7535727062190501E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>44734</v>
       </c>
@@ -8919,8 +9689,12 @@
       <c r="L194" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M194" s="1">
+        <f t="shared" si="2"/>
+        <v>8.1036834924965898E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>44733</v>
       </c>
@@ -8957,8 +9731,12 @@
       <c r="L195" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M195" s="1">
+        <f t="shared" ref="M195:M258" si="3" xml:space="preserve"> E195/D195</f>
+        <v>7.86247234824341E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>44732</v>
       </c>
@@ -8995,8 +9773,12 @@
       <c r="L196" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M196" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8242611520481731E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>44731</v>
       </c>
@@ -9033,8 +9815,12 @@
       <c r="L197" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M197" s="1">
+        <f t="shared" si="3"/>
+        <v>7.9463140591412421E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>44730</v>
       </c>
@@ -9071,8 +9857,12 @@
       <c r="L198" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M198" s="1">
+        <f t="shared" si="3"/>
+        <v>8.6876390212901181E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>44729</v>
       </c>
@@ -9109,8 +9899,12 @@
       <c r="L199" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M199" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7764565992865631E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>44728</v>
       </c>
@@ -9147,8 +9941,12 @@
       <c r="L200" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M200" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6960509077297401E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>44727</v>
       </c>
@@ -9185,8 +9983,12 @@
       <c r="L201" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M201" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8426119416313916E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>44726</v>
       </c>
@@ -9223,8 +10025,12 @@
       <c r="L202" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M202" s="1">
+        <f t="shared" si="3"/>
+        <v>7.9409018143009602E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>44725</v>
       </c>
@@ -9261,8 +10067,12 @@
       <c r="L203" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M203" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6985985651091035E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>44724</v>
       </c>
@@ -9299,8 +10109,12 @@
       <c r="L204" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M204" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6264907204854987E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>44723</v>
       </c>
@@ -9337,8 +10151,12 @@
       <c r="L205" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M205" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8659686670002699E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>44722</v>
       </c>
@@ -9375,8 +10193,12 @@
       <c r="L206" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M206" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8084368679572372E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>44721</v>
       </c>
@@ -9413,8 +10235,12 @@
       <c r="L207" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M207" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7724091969343559E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>44720</v>
       </c>
@@ -9451,8 +10277,12 @@
       <c r="L208" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M208" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5492413069839087E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>44719</v>
       </c>
@@ -9489,8 +10319,12 @@
       <c r="L209" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M209" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5265718499432116E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>44718</v>
       </c>
@@ -9527,8 +10361,12 @@
       <c r="L210" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M210" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7772837648346388E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>44717</v>
       </c>
@@ -9565,8 +10403,12 @@
       <c r="L211" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M211" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6298071838979173E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>44716</v>
       </c>
@@ -9603,8 +10445,12 @@
       <c r="L212" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M212" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6068860168546082E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>44715</v>
       </c>
@@ -9641,8 +10487,12 @@
       <c r="L213" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M213" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5759196711039103E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>44714</v>
       </c>
@@ -9679,8 +10529,12 @@
       <c r="L214" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M214" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7841966121609707E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>44713</v>
       </c>
@@ -9717,8 +10571,12 @@
       <c r="L215" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M215" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5852690501415215E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>44712</v>
       </c>
@@ -9755,8 +10613,12 @@
       <c r="L216" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M216" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6503951057863881E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>44711</v>
       </c>
@@ -9793,8 +10655,12 @@
       <c r="L217" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M217" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7760829273893287E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>44710</v>
       </c>
@@ -9831,8 +10697,12 @@
       <c r="L218" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M218" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8027410756698751E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>44709</v>
       </c>
@@ -9869,8 +10739,12 @@
       <c r="L219" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M219" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5945995438578967E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>44708</v>
       </c>
@@ -9907,8 +10781,12 @@
       <c r="L220" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M220" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5838736960811948E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>44707</v>
       </c>
@@ -9945,8 +10823,12 @@
       <c r="L221" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M221" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4903462682787872E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>44706</v>
       </c>
@@ -9983,8 +10865,12 @@
       <c r="L222" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M222" s="1">
+        <f t="shared" si="3"/>
+        <v>7.708496085965276E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>44705</v>
       </c>
@@ -10021,8 +10907,12 @@
       <c r="L223" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M223" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5875670558535821E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>44704</v>
       </c>
@@ -10059,8 +10949,12 @@
       <c r="L224" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M224" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3851063509506099E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>44703</v>
       </c>
@@ -10097,8 +10991,12 @@
       <c r="L225" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M225" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2567700893843234E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>44702</v>
       </c>
@@ -10135,8 +11033,12 @@
       <c r="L226" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M226" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4430508576046939E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>44701</v>
       </c>
@@ -10173,8 +11075,12 @@
       <c r="L227" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M227" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4952778890733221E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>44700</v>
       </c>
@@ -10211,8 +11117,12 @@
       <c r="L228" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M228" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2786238014664412E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>44699</v>
       </c>
@@ -10249,8 +11159,12 @@
       <c r="L229" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M229" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4986812384185683E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>44698</v>
       </c>
@@ -10287,8 +11201,12 @@
       <c r="L230" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M230" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2707219818444052E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>44697</v>
       </c>
@@ -10325,8 +11243,12 @@
       <c r="L231" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M231" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5772871585538928E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>44696</v>
       </c>
@@ -10363,8 +11285,12 @@
       <c r="L232" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M232" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3947701706026964E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>44695</v>
       </c>
@@ -10401,8 +11327,12 @@
       <c r="L233" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M233" s="1">
+        <f t="shared" si="3"/>
+        <v>7.224308637760328E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>44694</v>
       </c>
@@ -10439,8 +11369,12 @@
       <c r="L234" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M234" s="1">
+        <f t="shared" si="3"/>
+        <v>7.1173551588580269E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>44693</v>
       </c>
@@ -10477,8 +11411,12 @@
       <c r="L235" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M235" s="1">
+        <f t="shared" si="3"/>
+        <v>7.1610746237099093E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>44692</v>
       </c>
@@ -10515,8 +11453,12 @@
       <c r="L236" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M236" s="1">
+        <f t="shared" si="3"/>
+        <v>7.1595800921380556E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>44691</v>
       </c>
@@ -10553,8 +11495,12 @@
       <c r="L237" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M237" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3764984142342629E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>44690</v>
       </c>
@@ -10591,8 +11537,12 @@
       <c r="L238" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M238" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9108982143660319E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>44689</v>
       </c>
@@ -10629,8 +11579,12 @@
       <c r="L239" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M239" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2478557047905345E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>44688</v>
       </c>
@@ -10667,8 +11621,12 @@
       <c r="L240" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M240" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0281232372612745E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>44687</v>
       </c>
@@ -10705,8 +11663,12 @@
       <c r="L241" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M241" s="1">
+        <f t="shared" si="3"/>
+        <v>7.1855502542861632E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>44686</v>
       </c>
@@ -10743,8 +11705,12 @@
       <c r="L242" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M242" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3424906081717631E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>44685</v>
       </c>
@@ -10781,8 +11747,12 @@
       <c r="L243" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M243" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7220417633410676E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>44684</v>
       </c>
@@ -10819,8 +11789,12 @@
       <c r="L244" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M244" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9228707598727526E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>44683</v>
       </c>
@@ -10857,8 +11831,12 @@
       <c r="L245" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M245" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8274729985466784E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>44682</v>
       </c>
@@ -10895,8 +11873,12 @@
       <c r="L246" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M246" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3385871384789719E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>44681</v>
       </c>
@@ -10933,8 +11915,12 @@
       <c r="L247" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M247" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3713633624392552E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>44680</v>
       </c>
@@ -10942,7 +11928,7 @@
         <v>314</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D248" s="1">
         <v>106652</v>
@@ -10971,8 +11957,12 @@
       <c r="L248" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M248" s="1">
+        <f t="shared" si="3"/>
+        <v>6.5643400967633048E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>44679</v>
       </c>
@@ -11009,8 +11999,12 @@
       <c r="L249" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M249" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0975790680423492E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>44678</v>
       </c>
@@ -11047,8 +12041,12 @@
       <c r="L250" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M250" s="1">
+        <f t="shared" si="3"/>
+        <v>6.632513868259117E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>44677</v>
       </c>
@@ -11085,8 +12083,12 @@
       <c r="L251" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M251" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6212325380745105E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>44676</v>
       </c>
@@ -11123,8 +12125,12 @@
       <c r="L252" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M252" s="1">
+        <f t="shared" si="3"/>
+        <v>7.1536243282212614E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>44675</v>
       </c>
@@ -11161,8 +12167,12 @@
       <c r="L253" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M253" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9193038624143166E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>44674</v>
       </c>
@@ -11199,8 +12209,12 @@
       <c r="L254" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M254" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7830309118687343E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>44673</v>
       </c>
@@ -11237,8 +12251,12 @@
       <c r="L255" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M255" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4839975845410625E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>44672</v>
       </c>
@@ -11275,8 +12293,12 @@
       <c r="L256" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M256" s="1">
+        <f t="shared" si="3"/>
+        <v>7.1053034556684186E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>44671</v>
       </c>
@@ -11313,8 +12335,12 @@
       <c r="L257" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M257" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6622878822041626E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>44670</v>
       </c>
@@ -11351,8 +12377,12 @@
       <c r="L258" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M258" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5280764745314463E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>44669</v>
       </c>
@@ -11389,8 +12419,12 @@
       <c r="L259" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M259" s="1">
+        <f t="shared" ref="M259:M322" si="4" xml:space="preserve"> E259/D259</f>
+        <v>6.5321267451482881E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>44668</v>
       </c>
@@ -11427,8 +12461,12 @@
       <c r="L260" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M260" s="1">
+        <f t="shared" si="4"/>
+        <v>6.5691172748661902E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>44667</v>
       </c>
@@ -11465,8 +12503,12 @@
       <c r="L261" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M261" s="1">
+        <f t="shared" si="4"/>
+        <v>6.5146730624982635E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>44666</v>
       </c>
@@ -11503,8 +12545,12 @@
       <c r="L262" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M262" s="1">
+        <f t="shared" si="4"/>
+        <v>6.5558384811256171E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>44665</v>
       </c>
@@ -11541,8 +12587,12 @@
       <c r="L263" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M263" s="1">
+        <f t="shared" si="4"/>
+        <v>6.4840279246879629E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>44664</v>
       </c>
@@ -11579,8 +12629,12 @@
       <c r="L264" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M264" s="1">
+        <f t="shared" si="4"/>
+        <v>6.3567400916798508E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>44663</v>
       </c>
@@ -11617,8 +12671,12 @@
       <c r="L265" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M265" s="1">
+        <f t="shared" si="4"/>
+        <v>6.3312069760763048E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>44662</v>
       </c>
@@ -11655,8 +12713,12 @@
       <c r="L266" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M266" s="1">
+        <f t="shared" si="4"/>
+        <v>6.5884838110500055E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>44661</v>
       </c>
@@ -11693,8 +12755,12 @@
       <c r="L267" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M267" s="1">
+        <f t="shared" si="4"/>
+        <v>6.2531190342281828E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>44660</v>
       </c>
@@ -11731,8 +12797,12 @@
       <c r="L268" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M268" s="1">
+        <f t="shared" si="4"/>
+        <v>6.3609269055957082E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>44659</v>
       </c>
@@ -11769,8 +12839,12 @@
       <c r="L269" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M269" s="1">
+        <f t="shared" si="4"/>
+        <v>6.3829184318281648E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>44658</v>
       </c>
@@ -11807,8 +12881,12 @@
       <c r="L270" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M270" s="1">
+        <f t="shared" si="4"/>
+        <v>6.4325201042790062E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>44657</v>
       </c>
@@ -11845,8 +12923,12 @@
       <c r="L271" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M271" s="1">
+        <f t="shared" si="4"/>
+        <v>6.4146076568015201E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>44656</v>
       </c>
@@ -11883,8 +12965,12 @@
       <c r="L272" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M272" s="1">
+        <f t="shared" si="4"/>
+        <v>6.3466165661359972E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>44655</v>
       </c>
@@ -11921,8 +13007,12 @@
       <c r="L273" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M273" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1264471542834223E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>44654</v>
       </c>
@@ -11959,8 +13049,12 @@
       <c r="L274" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M274" s="1">
+        <f t="shared" si="4"/>
+        <v>6.3686442038993998E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>44653</v>
       </c>
@@ -11997,8 +13091,12 @@
       <c r="L275" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M275" s="1">
+        <f t="shared" si="4"/>
+        <v>6.0066159828216587E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>44652</v>
       </c>
@@ -12035,8 +13133,12 @@
       <c r="L276" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M276" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1618549858967975E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>44651</v>
       </c>
@@ -12073,8 +13175,12 @@
       <c r="L277" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M277" s="1">
+        <f t="shared" si="4"/>
+        <v>6.2631730747897851E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>44650</v>
       </c>
@@ -12111,8 +13217,12 @@
       <c r="L278" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M278" s="1">
+        <f t="shared" si="4"/>
+        <v>5.8922846356686209E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>44649</v>
       </c>
@@ -12149,8 +13259,12 @@
       <c r="L279" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M279" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6979942308982359E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>44648</v>
       </c>
@@ -12187,8 +13301,12 @@
       <c r="L280" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M280" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1101004053058218E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>44647</v>
       </c>
@@ -12225,8 +13343,12 @@
       <c r="L281" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M281" s="1">
+        <f t="shared" si="4"/>
+        <v>6.0041820775013903E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>44646</v>
       </c>
@@ -12263,8 +13385,12 @@
       <c r="L282" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M282" s="1">
+        <f t="shared" si="4"/>
+        <v>6.2712782679071877E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>44645</v>
       </c>
@@ -12301,8 +13427,12 @@
       <c r="L283" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M283" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7005133258320739E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>44644</v>
       </c>
@@ -12339,8 +13469,12 @@
       <c r="L284" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M284" s="1">
+        <f t="shared" si="4"/>
+        <v>5.5114570641051422E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>44643</v>
       </c>
@@ -12377,8 +13511,12 @@
       <c r="L285" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M285" s="1">
+        <f t="shared" si="4"/>
+        <v>5.4565168861817136E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
         <v>44642</v>
       </c>
@@ -12415,8 +13553,12 @@
       <c r="L286" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M286" s="1">
+        <f t="shared" si="4"/>
+        <v>5.4988417904483611E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>44641</v>
       </c>
@@ -12453,8 +13595,12 @@
       <c r="L287" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M287" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2984404155820224E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>44640</v>
       </c>
@@ -12491,8 +13637,12 @@
       <c r="L288" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M288" s="1">
+        <f t="shared" si="4"/>
+        <v>5.4307780652570858E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>44639</v>
       </c>
@@ -12529,8 +13679,12 @@
       <c r="L289" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M289" s="1">
+        <f t="shared" si="4"/>
+        <v>5.4474733064211731E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
         <v>44638</v>
       </c>
@@ -12567,8 +13721,12 @@
       <c r="L290" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M290" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1737752321637104E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>44637</v>
       </c>
@@ -12605,8 +13763,12 @@
       <c r="L291" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M291" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2327128839363343E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>44636</v>
       </c>
@@ -12643,8 +13805,12 @@
       <c r="L292" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M292" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1566172150411281E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>44635</v>
       </c>
@@ -12681,8 +13847,12 @@
       <c r="L293" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M293" s="1">
+        <f t="shared" si="4"/>
+        <v>4.94146064923221E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
         <v>44634</v>
       </c>
@@ -12719,8 +13889,12 @@
       <c r="L294" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M294" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0553919506380593E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>44633</v>
       </c>
@@ -12757,8 +13931,12 @@
       <c r="L295" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M295" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9806058984819102E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
         <v>44632</v>
       </c>
@@ -12795,8 +13973,12 @@
       <c r="L296" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M296" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8701112736853618E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>44631</v>
       </c>
@@ -12833,8 +14015,12 @@
       <c r="L297" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M297" s="1">
+        <f t="shared" si="4"/>
+        <v>5.4782658637767344E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>44630</v>
       </c>
@@ -12871,8 +14057,12 @@
       <c r="L298" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M298" s="1">
+        <f t="shared" si="4"/>
+        <v>4.7681967024760151E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>44629</v>
       </c>
@@ -12909,8 +14099,12 @@
       <c r="L299" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M299" s="1">
+        <f t="shared" si="4"/>
+        <v>4.6754443778214957E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
         <v>44628</v>
       </c>
@@ -12947,8 +14141,12 @@
       <c r="L300" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M300" s="1">
+        <f t="shared" si="4"/>
+        <v>4.7076005070539301E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>44627</v>
       </c>
@@ -12985,8 +14183,12 @@
       <c r="L301" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M301" s="1">
+        <f t="shared" si="4"/>
+        <v>4.493698392003477E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
         <v>44626</v>
       </c>
@@ -13023,8 +14225,12 @@
       <c r="L302" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M302" s="1">
+        <f t="shared" si="4"/>
+        <v>4.533955488460395E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>44625</v>
       </c>
@@ -13061,8 +14267,12 @@
       <c r="L303" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M303" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5259792513973773E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
         <v>44624</v>
       </c>
@@ -13099,8 +14309,12 @@
       <c r="L304" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M304" s="1">
+        <f t="shared" si="4"/>
+        <v>4.6119864526579298E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>44623</v>
       </c>
@@ -13137,8 +14351,12 @@
       <c r="L305" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M305" s="1">
+        <f t="shared" si="4"/>
+        <v>4.3600896599421707E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
         <v>44622</v>
       </c>
@@ -13175,8 +14393,12 @@
       <c r="L306" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M306" s="1">
+        <f t="shared" si="4"/>
+        <v>4.2024220377452355E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>44621</v>
       </c>
@@ -13213,8 +14435,12 @@
       <c r="L307" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M307" s="1">
+        <f t="shared" si="4"/>
+        <v>4.4045690584957754E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
         <v>44620</v>
       </c>
@@ -13251,8 +14477,12 @@
       <c r="L308" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M308" s="1">
+        <f t="shared" si="4"/>
+        <v>4.1900642787163371E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>44619</v>
       </c>
@@ -13289,8 +14519,12 @@
       <c r="L309" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M309" s="1">
+        <f t="shared" si="4"/>
+        <v>4.1683139453622613E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
         <v>44618</v>
       </c>
@@ -13327,8 +14561,12 @@
       <c r="L310" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M310" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0613940079641496E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>44617</v>
       </c>
@@ -13365,8 +14603,12 @@
       <c r="L311" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M311" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5668934417581387E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
         <v>44616</v>
       </c>
@@ -13403,8 +14645,12 @@
       <c r="L312" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M312" s="1">
+        <f t="shared" si="4"/>
+        <v>4.1508094178095853E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
         <v>44615</v>
       </c>
@@ -13441,8 +14687,12 @@
       <c r="L313" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M313" s="1">
+        <f t="shared" si="4"/>
+        <v>4.1109461913133701E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
         <v>44614</v>
       </c>
@@ -13479,8 +14729,12 @@
       <c r="L314" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M314" s="1">
+        <f t="shared" si="4"/>
+        <v>3.856297901787463E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <v>44613</v>
       </c>
@@ -13517,8 +14771,12 @@
       <c r="L315" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M315" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9059164570858639E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A316" s="3">
         <v>44612</v>
       </c>
@@ -13555,8 +14813,12 @@
       <c r="L316" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M316" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0591864064455224E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
         <v>44611</v>
       </c>
@@ -13593,8 +14855,12 @@
       <c r="L317" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M317" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9815533052099158E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A318" s="3">
         <v>44610</v>
       </c>
@@ -13631,8 +14897,12 @@
       <c r="L318" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M318" s="1">
+        <f t="shared" si="4"/>
+        <v>3.853143214773147E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
         <v>44609</v>
       </c>
@@ -13669,8 +14939,12 @@
       <c r="L319" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M319" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7330081899866377E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A320" s="3">
         <v>44608</v>
       </c>
@@ -13707,8 +14981,12 @@
       <c r="L320" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M320" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7070146796400673E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
         <v>44607</v>
       </c>
@@ -13745,8 +15023,12 @@
       <c r="L321" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M321" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5933656665601242E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322" s="3">
         <v>44606</v>
       </c>
@@ -13783,8 +15065,12 @@
       <c r="L322" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M322" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9549405210289039E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
         <v>44605</v>
       </c>
@@ -13821,8 +15107,12 @@
       <c r="L323" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M323" s="1">
+        <f t="shared" ref="M323:M360" si="5" xml:space="preserve"> E323/D323</f>
+        <v>1.1709331786024485E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A324" s="3">
         <v>44604</v>
       </c>
@@ -13859,8 +15149,12 @@
       <c r="L324" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M324" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4496174296459604E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
         <v>44603</v>
       </c>
@@ -13897,8 +15191,12 @@
       <c r="L325" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M325" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8127721231162086E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326" s="3">
         <v>44602</v>
       </c>
@@ -13935,8 +15233,12 @@
       <c r="L326" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M326" s="1">
+        <f t="shared" si="5"/>
+        <v>4.422136928779976E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
         <v>44601</v>
       </c>
@@ -13973,8 +15275,12 @@
       <c r="L327" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M327" s="1">
+        <f t="shared" si="5"/>
+        <v>4.5341419645547068E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328" s="3">
         <v>44600</v>
       </c>
@@ -14011,8 +15317,12 @@
       <c r="L328" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M328" s="1">
+        <f t="shared" si="5"/>
+        <v>4.5708966321274344E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
         <v>44599</v>
       </c>
@@ -14049,8 +15359,12 @@
       <c r="L329" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M329" s="1">
+        <f t="shared" si="5"/>
+        <v>4.6282803891363779E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" s="3">
         <v>44598</v>
       </c>
@@ -14087,8 +15401,12 @@
       <c r="L330" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M330" s="1">
+        <f t="shared" si="5"/>
+        <v>4.4100341459336757E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
         <v>44597</v>
       </c>
@@ -14125,8 +15443,12 @@
       <c r="L331" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M331" s="1">
+        <f t="shared" si="5"/>
+        <v>4.287796608048846E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332" s="3">
         <v>44596</v>
       </c>
@@ -14163,8 +15485,12 @@
       <c r="L332" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M332" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1183944572799634E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
         <v>44595</v>
       </c>
@@ -14201,8 +15527,12 @@
       <c r="L333" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M333" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0787210756722952E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
         <v>44594</v>
       </c>
@@ -14239,8 +15569,12 @@
       <c r="L334" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M334" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9250306707782089E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
         <v>44593</v>
       </c>
@@ -14277,8 +15611,12 @@
       <c r="L335" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M335" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8690450800908827E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336" s="3">
         <v>44592</v>
       </c>
@@ -14315,8 +15653,12 @@
       <c r="L336" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M336" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9104753980205909E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
         <v>44591</v>
       </c>
@@ -14353,8 +15695,12 @@
       <c r="L337" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M337" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9105898801100832E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A338" s="3">
         <v>44590</v>
       </c>
@@ -14391,8 +15737,12 @@
       <c r="L338" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M338" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7009130962262944E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
         <v>44589</v>
       </c>
@@ -14429,8 +15779,12 @@
       <c r="L339" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M339" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7539398184316154E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A340" s="3">
         <v>44588</v>
       </c>
@@ -14467,8 +15821,12 @@
       <c r="L340" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M340" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4507178071624019E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
         <v>44587</v>
       </c>
@@ -14505,8 +15863,12 @@
       <c r="L341" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M341" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3613584346514611E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A342" s="3">
         <v>44586</v>
       </c>
@@ -14543,8 +15905,12 @@
       <c r="L342" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M342" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1504609195235962E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
         <v>44585</v>
       </c>
@@ -14581,8 +15947,12 @@
       <c r="L343" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M343" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2231686805819296E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A344" s="3">
         <v>44584</v>
       </c>
@@ -14619,8 +15989,12 @@
       <c r="L344" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M344" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8266692352433419E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
         <v>44583</v>
       </c>
@@ -14657,8 +16031,12 @@
       <c r="L345" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M345" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8365681252562228E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A346" s="3">
         <v>44582</v>
       </c>
@@ -14695,8 +16073,12 @@
       <c r="L346" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M346" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7067114314627348E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
         <v>44581</v>
       </c>
@@ -14733,8 +16115,12 @@
       <c r="L347" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M347" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7008083159810462E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A348" s="3">
         <v>44580</v>
       </c>
@@ -14771,8 +16157,12 @@
       <c r="L348" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M348" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5279557554290111E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
         <v>44579</v>
       </c>
@@ -14809,8 +16199,12 @@
       <c r="L349" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M349" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8087802670287397E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A350" s="3">
         <v>44578</v>
       </c>
@@ -14847,8 +16241,12 @@
       <c r="L350" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M350" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5382880956988617E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
         <v>44577</v>
       </c>
@@ -14885,8 +16283,12 @@
       <c r="L351" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M351" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3639252131349323E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A352" s="3">
         <v>44576</v>
       </c>
@@ -14923,8 +16325,12 @@
       <c r="L352" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M352" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2610258402953175E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
         <v>44575</v>
       </c>
@@ -14961,8 +16367,12 @@
       <c r="L353" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M353" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3512543956951688E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A354" s="3">
         <v>44574</v>
       </c>
@@ -14999,8 +16409,12 @@
       <c r="L354" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M354" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5202296460377017E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
         <v>44573</v>
       </c>
@@ -15037,8 +16451,12 @@
       <c r="L355" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M355" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2335121305946826E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A356" s="3">
         <v>44572</v>
       </c>
@@ -15075,8 +16493,12 @@
       <c r="L356" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M356" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9606186638939434E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
         <v>44571</v>
       </c>
@@ -15113,8 +16535,12 @@
       <c r="L357" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M357" s="1">
+        <f t="shared" si="5"/>
+        <v>2.092706330389979E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A358" s="3">
         <v>44570</v>
       </c>
@@ -15151,8 +16577,12 @@
       <c r="L358" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M358" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0912360484056102E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
         <v>44569</v>
       </c>
@@ -15189,8 +16619,12 @@
       <c r="L359" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M359" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7368944760253392E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A360" s="3">
         <v>44568</v>
       </c>
@@ -15227,365 +16661,369 @@
       <c r="L360" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M360" s="1">
+        <f t="shared" si="5"/>
+        <v>1.689197569142999E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A361" s="3"/>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A362" s="3"/>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A363" s="3"/>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A364" s="3"/>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A365" s="3"/>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A366" s="3"/>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A367" s="3"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A368" s="3"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369" s="3"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370" s="3"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371" s="3"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372" s="3"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373" s="3"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374" s="3"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375" s="3"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376" s="3"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377" s="3"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378" s="3"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379" s="3"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380" s="3"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381" s="3"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382" s="3"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383" s="3"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384" s="3"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385" s="3"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386" s="3"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387" s="3"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388" s="3"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389" s="3"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390" s="3"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391" s="3"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392" s="3"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393" s="3"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394" s="3"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395" s="3"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396" s="3"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397" s="3"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398" s="3"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399" s="3"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400" s="3"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401" s="3"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A402" s="3"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A403" s="3"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A404" s="3"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A405" s="3"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A406" s="3"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A407" s="3"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A408" s="3"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A409" s="3"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A410" s="3"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A411" s="3"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A412" s="3"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A413" s="3"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A414" s="3"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A415" s="3"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A416" s="3"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A417" s="3"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A418" s="3"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A419" s="3"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A420" s="3"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A421" s="3"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A422" s="3"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A423" s="3"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A424" s="3"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A425" s="3"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A426" s="3"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A427" s="3"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A428" s="3"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A429" s="3"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A430" s="3"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A431" s="3"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A432" s="3"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A433" s="3"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A434" s="3"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A435" s="3"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A436" s="3"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A437" s="3"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A438" s="3"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A439" s="3"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A440" s="3"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A441" s="3"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A442" s="3"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A443" s="3"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A444" s="3"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A445" s="3"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A446" s="3"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A447" s="3"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A448" s="3"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A449" s="3"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A450" s="3"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A451" s="3"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A452" s="3"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A453" s="3"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A454" s="3"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A455" s="3"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A456" s="3"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A457" s="3"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A458" s="3"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A459" s="3"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A460" s="3"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A461" s="3"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A462" s="3"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A463" s="3"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A464" s="3"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A465" s="3"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A466" s="3"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A467" s="3"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A468" s="3"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A469" s="3"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A470" s="3"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A471" s="3"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A472" s="3"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A473" s="3"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A474" s="3"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A475" s="3"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A476" s="3"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A477" s="3"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A478" s="3"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A479" s="3"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A480" s="3"/>
     </row>
   </sheetData>

--- a/src/dataset/wordle_data.xlsx
+++ b/src/dataset/wordle_data.xlsx
@@ -1111,7 +1111,7 @@
     <t>abbey</t>
   </si>
   <si>
-    <t xml:space="preserve">favor </t>
+    <t>favor</t>
   </si>
   <si>
     <t>drink</t>
@@ -1134,7 +1134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1145,6 +1145,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1193,8 +1199,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>

--- a/src/dataset/wordle_data.xlsx
+++ b/src/dataset/wordle_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\03 - NYU Shanghai\8_Spring 2023\_MCM'23\MCM-23_2316597\src\dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A97CC3-C972-4A65-812D-7C54A94C7E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1132,13 +1138,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1153,6 +1158,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1182,44 +1194,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1230,10 +1237,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1271,71 +1278,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1363,7 +1370,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1386,11 +1393,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1399,13 +1406,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1415,7 +1422,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1424,7 +1431,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1433,7 +1440,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1441,10 +1448,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1509,36 +1516,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O480"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="6.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1575,11 +1581,8 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    </row>
+    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44926</v>
       </c>
@@ -1616,11 +1619,12 @@
       <c r="L2" s="2">
         <v>2</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="M2">
+        <f>1*F2+2*G2+3*H2+4*I2+5*J2+6*K2+7*L2</f>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44925</v>
       </c>
@@ -1657,11 +1661,8 @@
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    </row>
+    <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44924</v>
       </c>
@@ -1698,11 +1699,8 @@
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    </row>
+    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44923</v>
       </c>
@@ -1739,11 +1737,8 @@
       <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    </row>
+    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44922</v>
       </c>
@@ -1780,11 +1775,8 @@
       <c r="L6" s="2">
         <v>3</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    </row>
+    <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44921</v>
       </c>
@@ -1821,11 +1813,10 @@
       <c r="L7" s="2">
         <v>14</v>
       </c>
-      <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44920</v>
       </c>
@@ -1862,11 +1853,8 @@
       <c r="L8" s="2">
         <v>1</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    </row>
+    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44919</v>
       </c>
@@ -1903,11 +1891,8 @@
       <c r="L9" s="2">
         <v>1</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    </row>
+    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44918</v>
       </c>
@@ -1944,11 +1929,8 @@
       <c r="L10" s="2">
         <v>3</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    </row>
+    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44917</v>
       </c>
@@ -1985,11 +1967,8 @@
       <c r="L11" s="2">
         <v>2</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    </row>
+    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44916</v>
       </c>
@@ -2026,11 +2005,8 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    </row>
+    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44915</v>
       </c>
@@ -2067,11 +2043,8 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    </row>
+    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44914</v>
       </c>
@@ -2108,11 +2081,8 @@
       <c r="L14" s="2">
         <v>1</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    </row>
+    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44913</v>
       </c>
@@ -2149,11 +2119,8 @@
       <c r="L15" s="2">
         <v>3</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    </row>
+    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44912</v>
       </c>
@@ -2190,11 +2157,8 @@
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    </row>
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44911</v>
       </c>
@@ -2231,11 +2195,8 @@
       <c r="L17" s="2">
         <v>3</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44910</v>
       </c>
@@ -2272,11 +2233,8 @@
       <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    </row>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44909</v>
       </c>
@@ -2313,11 +2271,8 @@
       <c r="L19" s="2">
         <v>1</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    </row>
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44908</v>
       </c>
@@ -2354,11 +2309,8 @@
       <c r="L20" s="2">
         <v>0</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    </row>
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44907</v>
       </c>
@@ -2395,11 +2347,8 @@
       <c r="L21" s="2">
         <v>1</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    </row>
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44906</v>
       </c>
@@ -2436,11 +2385,8 @@
       <c r="L22" s="2">
         <v>1</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    </row>
+    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44905</v>
       </c>
@@ -2477,11 +2423,8 @@
       <c r="L23" s="2">
         <v>1</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    </row>
+    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44904</v>
       </c>
@@ -2518,11 +2461,8 @@
       <c r="L24" s="2">
         <v>0</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    </row>
+    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44903</v>
       </c>
@@ -2559,11 +2499,8 @@
       <c r="L25" s="2">
         <v>3</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    </row>
+    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44902</v>
       </c>
@@ -2600,11 +2537,8 @@
       <c r="L26" s="2">
         <v>2</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    </row>
+    <row r="27" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44901</v>
       </c>
@@ -2641,11 +2575,8 @@
       <c r="L27" s="2">
         <v>3</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    </row>
+    <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44900</v>
       </c>
@@ -2682,11 +2613,8 @@
       <c r="L28" s="2">
         <v>4</v>
       </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    </row>
+    <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44899</v>
       </c>
@@ -2723,11 +2651,8 @@
       <c r="L29" s="2">
         <v>1</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    </row>
+    <row r="30" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44898</v>
       </c>
@@ -2764,11 +2689,8 @@
       <c r="L30" s="2">
         <v>1</v>
       </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    </row>
+    <row r="31" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44897</v>
       </c>
@@ -2805,11 +2727,8 @@
       <c r="L31" s="2">
         <v>2</v>
       </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    </row>
+    <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44896</v>
       </c>
@@ -2846,11 +2765,8 @@
       <c r="L32" s="2">
         <v>2</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    </row>
+    <row r="33" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44895</v>
       </c>
@@ -2887,11 +2803,8 @@
       <c r="L33" s="2">
         <v>2</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    </row>
+    <row r="34" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44894</v>
       </c>
@@ -2928,11 +2841,8 @@
       <c r="L34" s="2">
         <v>2</v>
       </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    </row>
+    <row r="35" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44893</v>
       </c>
@@ -2969,11 +2879,8 @@
       <c r="L35" s="2">
         <v>0</v>
       </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    </row>
+    <row r="36" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44892</v>
       </c>
@@ -3010,11 +2917,8 @@
       <c r="L36" s="2">
         <v>1</v>
       </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    </row>
+    <row r="37" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44891</v>
       </c>
@@ -3051,11 +2955,8 @@
       <c r="L37" s="2">
         <v>0</v>
       </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    </row>
+    <row r="38" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44890</v>
       </c>
@@ -3092,11 +2993,8 @@
       <c r="L38" s="2">
         <v>1</v>
       </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    </row>
+    <row r="39" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44889</v>
       </c>
@@ -3133,11 +3031,8 @@
       <c r="L39" s="2">
         <v>2</v>
       </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    </row>
+    <row r="40" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44888</v>
       </c>
@@ -3174,11 +3069,8 @@
       <c r="L40" s="2">
         <v>1</v>
       </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    </row>
+    <row r="41" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44887</v>
       </c>
@@ -3215,11 +3107,8 @@
       <c r="L41" s="2">
         <v>1</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    </row>
+    <row r="42" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44886</v>
       </c>
@@ -3256,11 +3145,8 @@
       <c r="L42" s="2">
         <v>3</v>
       </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    </row>
+    <row r="43" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44885</v>
       </c>
@@ -3297,11 +3183,8 @@
       <c r="L43" s="2">
         <v>5</v>
       </c>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    </row>
+    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44884</v>
       </c>
@@ -3338,11 +3221,8 @@
       <c r="L44" s="2">
         <v>1</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    </row>
+    <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44883</v>
       </c>
@@ -3379,11 +3259,8 @@
       <c r="L45" s="2">
         <v>1</v>
       </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    </row>
+    <row r="46" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44882</v>
       </c>
@@ -3420,11 +3297,8 @@
       <c r="L46" s="2">
         <v>0</v>
       </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    </row>
+    <row r="47" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44881</v>
       </c>
@@ -3461,11 +3335,8 @@
       <c r="L47" s="2">
         <v>10</v>
       </c>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    </row>
+    <row r="48" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44880</v>
       </c>
@@ -3502,11 +3373,8 @@
       <c r="L48" s="2">
         <v>4</v>
       </c>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    </row>
+    <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44879</v>
       </c>
@@ -3543,11 +3411,8 @@
       <c r="L49" s="2">
         <v>1</v>
       </c>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    </row>
+    <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44878</v>
       </c>
@@ -3584,11 +3449,8 @@
       <c r="L50" s="2">
         <v>3</v>
       </c>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    </row>
+    <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44877</v>
       </c>
@@ -3625,11 +3487,8 @@
       <c r="L51" s="2">
         <v>1</v>
       </c>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    </row>
+    <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44876</v>
       </c>
@@ -3666,11 +3525,8 @@
       <c r="L52" s="2">
         <v>1</v>
       </c>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    </row>
+    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44875</v>
       </c>
@@ -3707,11 +3563,8 @@
       <c r="L53" s="2">
         <v>1</v>
       </c>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    </row>
+    <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44874</v>
       </c>
@@ -3748,11 +3601,8 @@
       <c r="L54" s="2">
         <v>1</v>
       </c>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    </row>
+    <row r="55" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44873</v>
       </c>
@@ -3789,11 +3639,8 @@
       <c r="L55" s="2">
         <v>1</v>
       </c>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    </row>
+    <row r="56" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44872</v>
       </c>
@@ -3830,11 +3677,8 @@
       <c r="L56" s="2">
         <v>1</v>
       </c>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    </row>
+    <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44871</v>
       </c>
@@ -3871,11 +3715,8 @@
       <c r="L57" s="2">
         <v>2</v>
       </c>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    </row>
+    <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44870</v>
       </c>
@@ -3912,11 +3753,8 @@
       <c r="L58" s="2">
         <v>1</v>
       </c>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    </row>
+    <row r="59" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44869</v>
       </c>
@@ -3953,11 +3791,8 @@
       <c r="L59" s="2">
         <v>0</v>
       </c>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    </row>
+    <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44868</v>
       </c>
@@ -3994,11 +3829,8 @@
       <c r="L60" s="2">
         <v>1</v>
       </c>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    </row>
+    <row r="61" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44867</v>
       </c>
@@ -4035,11 +3867,8 @@
       <c r="L61" s="2">
         <v>1</v>
       </c>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    </row>
+    <row r="62" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44866</v>
       </c>
@@ -4076,11 +3905,8 @@
       <c r="L62" s="2">
         <v>2</v>
       </c>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    </row>
+    <row r="63" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44865</v>
       </c>
@@ -4117,11 +3943,8 @@
       <c r="L63" s="2">
         <v>1</v>
       </c>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    </row>
+    <row r="64" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44864</v>
       </c>
@@ -4158,11 +3981,8 @@
       <c r="L64" s="2">
         <v>3</v>
       </c>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    </row>
+    <row r="65" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44863</v>
       </c>
@@ -4199,11 +4019,8 @@
       <c r="L65" s="2">
         <v>2</v>
       </c>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    </row>
+    <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44862</v>
       </c>
@@ -4240,11 +4057,8 @@
       <c r="L66" s="2">
         <v>1</v>
       </c>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    </row>
+    <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44861</v>
       </c>
@@ -4281,11 +4095,8 @@
       <c r="L67" s="2">
         <v>3</v>
       </c>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    </row>
+    <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44860</v>
       </c>
@@ -4322,11 +4133,8 @@
       <c r="L68" s="2">
         <v>1</v>
       </c>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    </row>
+    <row r="69" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44859</v>
       </c>
@@ -4363,11 +4171,8 @@
       <c r="L69" s="2">
         <v>3</v>
       </c>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    </row>
+    <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44858</v>
       </c>
@@ -4404,11 +4209,8 @@
       <c r="L70" s="2">
         <v>1</v>
       </c>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    </row>
+    <row r="71" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44857</v>
       </c>
@@ -4445,11 +4247,8 @@
       <c r="L71" s="2">
         <v>18</v>
       </c>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    </row>
+    <row r="72" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44856</v>
       </c>
@@ -4486,11 +4285,8 @@
       <c r="L72" s="2">
         <v>1</v>
       </c>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    </row>
+    <row r="73" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44855</v>
       </c>
@@ -4527,11 +4323,8 @@
       <c r="L73" s="2">
         <v>3</v>
       </c>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    </row>
+    <row r="74" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44854</v>
       </c>
@@ -4568,11 +4361,8 @@
       <c r="L74" s="2">
         <v>0</v>
       </c>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    </row>
+    <row r="75" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44853</v>
       </c>
@@ -4609,11 +4399,8 @@
       <c r="L75" s="2">
         <v>2</v>
       </c>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    </row>
+    <row r="76" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44852</v>
       </c>
@@ -4650,11 +4437,8 @@
       <c r="L76" s="2">
         <v>1</v>
       </c>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+    </row>
+    <row r="77" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44851</v>
       </c>
@@ -4691,11 +4475,8 @@
       <c r="L77" s="2">
         <v>1</v>
       </c>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+    </row>
+    <row r="78" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44850</v>
       </c>
@@ -4732,11 +4513,8 @@
       <c r="L78" s="2">
         <v>1</v>
       </c>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+    </row>
+    <row r="79" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44849</v>
       </c>
@@ -4773,11 +4551,8 @@
       <c r="L79" s="2">
         <v>23</v>
       </c>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+    </row>
+    <row r="80" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44848</v>
       </c>
@@ -4814,11 +4589,8 @@
       <c r="L80" s="2">
         <v>0</v>
       </c>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+    </row>
+    <row r="81" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44847</v>
       </c>
@@ -4855,11 +4627,8 @@
       <c r="L81" s="2">
         <v>2</v>
       </c>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+    </row>
+    <row r="82" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44846</v>
       </c>
@@ -4896,11 +4665,8 @@
       <c r="L82" s="2">
         <v>11</v>
       </c>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+    </row>
+    <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44845</v>
       </c>
@@ -4937,11 +4703,8 @@
       <c r="L83" s="2">
         <v>1</v>
       </c>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+    </row>
+    <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44844</v>
       </c>
@@ -4978,11 +4741,8 @@
       <c r="L84" s="2">
         <v>3</v>
       </c>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    </row>
+    <row r="85" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44843</v>
       </c>
@@ -5019,11 +4779,8 @@
       <c r="L85" s="2">
         <v>4</v>
       </c>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+    </row>
+    <row r="86" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44842</v>
       </c>
@@ -5060,11 +4817,8 @@
       <c r="L86" s="2">
         <v>2</v>
       </c>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    </row>
+    <row r="87" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44841</v>
       </c>
@@ -5101,11 +4855,8 @@
       <c r="L87" s="2">
         <v>11</v>
       </c>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    </row>
+    <row r="88" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44840</v>
       </c>
@@ -5142,11 +4893,8 @@
       <c r="L88" s="2">
         <v>0</v>
       </c>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+    </row>
+    <row r="89" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44839</v>
       </c>
@@ -5183,11 +4931,8 @@
       <c r="L89" s="2">
         <v>1</v>
       </c>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+    </row>
+    <row r="90" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44838</v>
       </c>
@@ -5224,11 +4969,8 @@
       <c r="L90" s="2">
         <v>3</v>
       </c>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    </row>
+    <row r="91" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44837</v>
       </c>
@@ -5265,11 +5007,8 @@
       <c r="L91" s="2">
         <v>2</v>
       </c>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+    </row>
+    <row r="92" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44836</v>
       </c>
@@ -5306,11 +5045,8 @@
       <c r="L92" s="2">
         <v>1</v>
       </c>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+    </row>
+    <row r="93" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44835</v>
       </c>
@@ -5347,11 +5083,8 @@
       <c r="L93" s="2">
         <v>1</v>
       </c>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+    </row>
+    <row r="94" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44834</v>
       </c>
@@ -5388,11 +5121,8 @@
       <c r="L94" s="2">
         <v>1</v>
       </c>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+    </row>
+    <row r="95" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44833</v>
       </c>
@@ -5429,11 +5159,8 @@
       <c r="L95" s="2">
         <v>2</v>
       </c>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+    </row>
+    <row r="96" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44832</v>
       </c>
@@ -5470,11 +5197,8 @@
       <c r="L96" s="2">
         <v>1</v>
       </c>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+    </row>
+    <row r="97" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44831</v>
       </c>
@@ -5511,11 +5235,8 @@
       <c r="L97" s="2">
         <v>2</v>
       </c>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+    </row>
+    <row r="98" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44830</v>
       </c>
@@ -5552,11 +5273,8 @@
       <c r="L98" s="2">
         <v>1</v>
       </c>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+    </row>
+    <row r="99" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44829</v>
       </c>
@@ -5593,11 +5311,8 @@
       <c r="L99" s="2">
         <v>1</v>
       </c>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+    </row>
+    <row r="100" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44828</v>
       </c>
@@ -5634,11 +5349,8 @@
       <c r="L100" s="2">
         <v>3</v>
       </c>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+    </row>
+    <row r="101" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44827</v>
       </c>
@@ -5675,11 +5387,8 @@
       <c r="L101" s="2">
         <v>0</v>
       </c>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+    </row>
+    <row r="102" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44826</v>
       </c>
@@ -5716,11 +5425,8 @@
       <c r="L102" s="2">
         <v>1</v>
       </c>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+    </row>
+    <row r="103" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44825</v>
       </c>
@@ -5757,11 +5463,8 @@
       <c r="L103" s="2">
         <v>1</v>
       </c>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+    </row>
+    <row r="104" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44824</v>
       </c>
@@ -5798,11 +5501,8 @@
       <c r="L104" s="2">
         <v>2</v>
       </c>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+    </row>
+    <row r="105" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44823</v>
       </c>
@@ -5839,11 +5539,8 @@
       <c r="L105" s="2">
         <v>11</v>
       </c>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+    </row>
+    <row r="106" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44822</v>
       </c>
@@ -5880,11 +5577,8 @@
       <c r="L106" s="2">
         <v>0</v>
       </c>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+    </row>
+    <row r="107" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44821</v>
       </c>
@@ -5921,11 +5615,8 @@
       <c r="L107" s="2">
         <v>0</v>
       </c>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+    </row>
+    <row r="108" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44820</v>
       </c>
@@ -5962,11 +5653,8 @@
       <c r="L108" s="2">
         <v>48</v>
       </c>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+    </row>
+    <row r="109" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44819</v>
       </c>
@@ -6003,11 +5691,8 @@
       <c r="L109" s="2">
         <v>0</v>
       </c>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+    </row>
+    <row r="110" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44818</v>
       </c>
@@ -6044,11 +5729,8 @@
       <c r="L110" s="2">
         <v>0</v>
       </c>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+    </row>
+    <row r="111" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44817</v>
       </c>
@@ -6085,11 +5767,8 @@
       <c r="L111" s="2">
         <v>1</v>
       </c>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+    </row>
+    <row r="112" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44816</v>
       </c>
@@ -6126,11 +5805,8 @@
       <c r="L112" s="2">
         <v>4</v>
       </c>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+    </row>
+    <row r="113" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44815</v>
       </c>
@@ -6167,11 +5843,8 @@
       <c r="L113" s="2">
         <v>2</v>
       </c>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+    </row>
+    <row r="114" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44814</v>
       </c>
@@ -6208,11 +5881,8 @@
       <c r="L114" s="2">
         <v>3</v>
       </c>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+    </row>
+    <row r="115" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44813</v>
       </c>
@@ -6249,11 +5919,8 @@
       <c r="L115" s="2">
         <v>0</v>
       </c>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+    </row>
+    <row r="116" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44812</v>
       </c>
@@ -6290,11 +5957,8 @@
       <c r="L116" s="2">
         <v>7</v>
       </c>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+    </row>
+    <row r="117" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44811</v>
       </c>
@@ -6331,11 +5995,8 @@
       <c r="L117" s="2">
         <v>2</v>
       </c>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+    </row>
+    <row r="118" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44810</v>
       </c>
@@ -6372,11 +6033,8 @@
       <c r="L118" s="2">
         <v>13</v>
       </c>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+    </row>
+    <row r="119" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44809</v>
       </c>
@@ -6413,11 +6071,8 @@
       <c r="L119" s="2">
         <v>1</v>
       </c>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+    </row>
+    <row r="120" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44808</v>
       </c>
@@ -6454,11 +6109,8 @@
       <c r="L120" s="2">
         <v>1</v>
       </c>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+    </row>
+    <row r="121" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44807</v>
       </c>
@@ -6495,11 +6147,8 @@
       <c r="L121" s="2">
         <v>7</v>
       </c>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+    </row>
+    <row r="122" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44806</v>
       </c>
@@ -6536,11 +6185,8 @@
       <c r="L122" s="2">
         <v>1</v>
       </c>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+    </row>
+    <row r="123" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44805</v>
       </c>
@@ -6577,11 +6223,8 @@
       <c r="L123" s="2">
         <v>1</v>
       </c>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+    </row>
+    <row r="124" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44804</v>
       </c>
@@ -6618,11 +6261,8 @@
       <c r="L124" s="2">
         <v>5</v>
       </c>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
-      <c r="O124" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
+    </row>
+    <row r="125" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44803</v>
       </c>
@@ -6659,11 +6299,8 @@
       <c r="L125" s="2">
         <v>1</v>
       </c>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
-      <c r="O125" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
+    </row>
+    <row r="126" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44802</v>
       </c>
@@ -6700,11 +6337,8 @@
       <c r="L126" s="2">
         <v>0</v>
       </c>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+    </row>
+    <row r="127" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44801</v>
       </c>
@@ -6741,11 +6375,8 @@
       <c r="L127" s="2">
         <v>8</v>
       </c>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
-      <c r="O127" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+    </row>
+    <row r="128" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44800</v>
       </c>
@@ -6782,11 +6413,8 @@
       <c r="L128" s="2">
         <v>4</v>
       </c>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+    </row>
+    <row r="129" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44799</v>
       </c>
@@ -6823,11 +6451,8 @@
       <c r="L129" s="2">
         <v>1</v>
       </c>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
-      <c r="O129" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+    </row>
+    <row r="130" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44798</v>
       </c>
@@ -6864,11 +6489,8 @@
       <c r="L130" s="2">
         <v>1</v>
       </c>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+    </row>
+    <row r="131" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44797</v>
       </c>
@@ -6905,11 +6527,8 @@
       <c r="L131" s="2">
         <v>1</v>
       </c>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
-      <c r="O131" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+    </row>
+    <row r="132" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44796</v>
       </c>
@@ -6946,11 +6565,8 @@
       <c r="L132" s="2">
         <v>3</v>
       </c>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
-      <c r="O132" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+    </row>
+    <row r="133" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44795</v>
       </c>
@@ -6987,11 +6603,8 @@
       <c r="L133" s="2">
         <v>0</v>
       </c>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5"/>
-      <c r="O133" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+    </row>
+    <row r="134" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44794</v>
       </c>
@@ -7028,11 +6641,8 @@
       <c r="L134" s="2">
         <v>5</v>
       </c>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
-      <c r="O134" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+    </row>
+    <row r="135" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44793</v>
       </c>
@@ -7069,11 +6679,8 @@
       <c r="L135" s="2">
         <v>1</v>
       </c>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
+    </row>
+    <row r="136" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44792</v>
       </c>
@@ -7110,11 +6717,8 @@
       <c r="L136" s="2">
         <v>1</v>
       </c>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
-      <c r="O136" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+    </row>
+    <row r="137" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44791</v>
       </c>
@@ -7151,11 +6755,8 @@
       <c r="L137" s="2">
         <v>1</v>
       </c>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
-      <c r="O137" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+    </row>
+    <row r="138" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44790</v>
       </c>
@@ -7192,11 +6793,8 @@
       <c r="L138" s="2">
         <v>1</v>
       </c>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
-      <c r="O138" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+    </row>
+    <row r="139" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44789</v>
       </c>
@@ -7233,11 +6831,8 @@
       <c r="L139" s="2">
         <v>1</v>
       </c>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
-      <c r="O139" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+    </row>
+    <row r="140" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44788</v>
       </c>
@@ -7274,11 +6869,8 @@
       <c r="L140" s="2">
         <v>5</v>
       </c>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
-      <c r="O140" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+    </row>
+    <row r="141" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44787</v>
       </c>
@@ -7315,11 +6907,8 @@
       <c r="L141" s="2">
         <v>4</v>
       </c>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+    </row>
+    <row r="142" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44786</v>
       </c>
@@ -7356,11 +6945,8 @@
       <c r="L142" s="2">
         <v>7</v>
       </c>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+    </row>
+    <row r="143" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44785</v>
       </c>
@@ -7397,11 +6983,8 @@
       <c r="L143" s="2">
         <v>2</v>
       </c>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+    </row>
+    <row r="144" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44784</v>
       </c>
@@ -7438,11 +7021,8 @@
       <c r="L144" s="2">
         <v>1</v>
       </c>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+    </row>
+    <row r="145" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44783</v>
       </c>
@@ -7479,11 +7059,8 @@
       <c r="L145" s="2">
         <v>2</v>
       </c>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+    </row>
+    <row r="146" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44782</v>
       </c>
@@ -7520,11 +7097,8 @@
       <c r="L146" s="2">
         <v>1</v>
       </c>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+    </row>
+    <row r="147" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44781</v>
       </c>
@@ -7561,11 +7135,8 @@
       <c r="L147" s="2">
         <v>1</v>
       </c>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
-      <c r="O147" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+    </row>
+    <row r="148" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44780</v>
       </c>
@@ -7602,11 +7173,8 @@
       <c r="L148" s="2">
         <v>2</v>
       </c>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
+    </row>
+    <row r="149" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44779</v>
       </c>
@@ -7643,11 +7211,8 @@
       <c r="L149" s="2">
         <v>0</v>
       </c>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
-      <c r="O149" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+    </row>
+    <row r="150" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44778</v>
       </c>
@@ -7684,11 +7249,8 @@
       <c r="L150" s="2">
         <v>5</v>
       </c>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+    </row>
+    <row r="151" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44777</v>
       </c>
@@ -7725,11 +7287,8 @@
       <c r="L151" s="2">
         <v>1</v>
       </c>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
-      <c r="O151" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
+    </row>
+    <row r="152" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44776</v>
       </c>
@@ -7766,11 +7325,8 @@
       <c r="L152" s="2">
         <v>3</v>
       </c>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
-      <c r="O152" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+    </row>
+    <row r="153" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44775</v>
       </c>
@@ -7807,11 +7363,8 @@
       <c r="L153" s="2">
         <v>15</v>
       </c>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+    </row>
+    <row r="154" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44774</v>
       </c>
@@ -7848,11 +7401,8 @@
       <c r="L154" s="2">
         <v>2</v>
       </c>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+    </row>
+    <row r="155" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44773</v>
       </c>
@@ -7889,11 +7439,8 @@
       <c r="L155" s="2">
         <v>2</v>
       </c>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
-      <c r="O155" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+    </row>
+    <row r="156" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44772</v>
       </c>
@@ -7930,11 +7477,8 @@
       <c r="L156" s="2">
         <v>1</v>
       </c>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
-      <c r="O156" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+    </row>
+    <row r="157" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44771</v>
       </c>
@@ -7971,11 +7515,8 @@
       <c r="L157" s="2">
         <v>1</v>
       </c>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
-      <c r="O157" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+    </row>
+    <row r="158" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44770</v>
       </c>
@@ -8012,11 +7553,8 @@
       <c r="L158" s="2">
         <v>2</v>
       </c>
-      <c r="M158" s="5"/>
-      <c r="N158" s="5"/>
-      <c r="O158" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+    </row>
+    <row r="159" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44769</v>
       </c>
@@ -8053,11 +7591,8 @@
       <c r="L159" s="2">
         <v>1</v>
       </c>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
-      <c r="O159" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+    </row>
+    <row r="160" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44768</v>
       </c>
@@ -8094,11 +7629,8 @@
       <c r="L160" s="2">
         <v>13</v>
       </c>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
-      <c r="O160" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+    </row>
+    <row r="161" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44767</v>
       </c>
@@ -8135,11 +7667,8 @@
       <c r="L161" s="2">
         <v>2</v>
       </c>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
-      <c r="O161" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
+    </row>
+    <row r="162" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44766</v>
       </c>
@@ -8176,11 +7705,8 @@
       <c r="L162" s="2">
         <v>4</v>
       </c>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
-      <c r="O162" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+    </row>
+    <row r="163" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44765</v>
       </c>
@@ -8217,11 +7743,8 @@
       <c r="L163" s="2">
         <v>2</v>
       </c>
-      <c r="M163" s="5"/>
-      <c r="N163" s="5"/>
-      <c r="O163" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
+    </row>
+    <row r="164" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44764</v>
       </c>
@@ -8258,11 +7781,8 @@
       <c r="L164" s="2">
         <v>1</v>
       </c>
-      <c r="M164" s="5"/>
-      <c r="N164" s="5"/>
-      <c r="O164" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
+    </row>
+    <row r="165" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44763</v>
       </c>
@@ -8299,11 +7819,8 @@
       <c r="L165" s="2">
         <v>2</v>
       </c>
-      <c r="M165" s="5"/>
-      <c r="N165" s="5"/>
-      <c r="O165" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
+    </row>
+    <row r="166" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44762</v>
       </c>
@@ -8340,11 +7857,8 @@
       <c r="L166" s="2">
         <v>15</v>
       </c>
-      <c r="M166" s="5"/>
-      <c r="N166" s="5"/>
-      <c r="O166" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
+    </row>
+    <row r="167" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44761</v>
       </c>
@@ -8381,11 +7895,8 @@
       <c r="L167" s="2">
         <v>1</v>
       </c>
-      <c r="M167" s="5"/>
-      <c r="N167" s="5"/>
-      <c r="O167" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
+    </row>
+    <row r="168" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44760</v>
       </c>
@@ -8422,11 +7933,8 @@
       <c r="L168" s="2">
         <v>1</v>
       </c>
-      <c r="M168" s="5"/>
-      <c r="N168" s="5"/>
-      <c r="O168" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
+    </row>
+    <row r="169" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44759</v>
       </c>
@@ -8463,11 +7971,8 @@
       <c r="L169" s="2">
         <v>2</v>
       </c>
-      <c r="M169" s="5"/>
-      <c r="N169" s="5"/>
-      <c r="O169" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
+    </row>
+    <row r="170" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44758</v>
       </c>
@@ -8504,11 +8009,8 @@
       <c r="L170" s="2">
         <v>2</v>
       </c>
-      <c r="M170" s="5"/>
-      <c r="N170" s="5"/>
-      <c r="O170" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
+    </row>
+    <row r="171" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44757</v>
       </c>
@@ -8545,11 +8047,8 @@
       <c r="L171" s="2">
         <v>2</v>
       </c>
-      <c r="M171" s="5"/>
-      <c r="N171" s="5"/>
-      <c r="O171" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
+    </row>
+    <row r="172" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44756</v>
       </c>
@@ -8586,11 +8085,8 @@
       <c r="L172" s="2">
         <v>8</v>
       </c>
-      <c r="M172" s="5"/>
-      <c r="N172" s="5"/>
-      <c r="O172" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
+    </row>
+    <row r="173" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44755</v>
       </c>
@@ -8627,11 +8123,8 @@
       <c r="L173" s="2">
         <v>0</v>
       </c>
-      <c r="M173" s="5"/>
-      <c r="N173" s="5"/>
-      <c r="O173" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
+    </row>
+    <row r="174" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44754</v>
       </c>
@@ -8668,11 +8161,8 @@
       <c r="L174" s="2">
         <v>7</v>
       </c>
-      <c r="M174" s="5"/>
-      <c r="N174" s="5"/>
-      <c r="O174" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
+    </row>
+    <row r="175" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44753</v>
       </c>
@@ -8709,11 +8199,8 @@
       <c r="L175" s="2">
         <v>2</v>
       </c>
-      <c r="M175" s="5"/>
-      <c r="N175" s="5"/>
-      <c r="O175" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
+    </row>
+    <row r="176" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44752</v>
       </c>
@@ -8750,11 +8237,8 @@
       <c r="L176" s="2">
         <v>1</v>
       </c>
-      <c r="M176" s="5"/>
-      <c r="N176" s="5"/>
-      <c r="O176" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
+    </row>
+    <row r="177" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44751</v>
       </c>
@@ -8791,11 +8275,8 @@
       <c r="L177" s="2">
         <v>3</v>
       </c>
-      <c r="M177" s="5"/>
-      <c r="N177" s="5"/>
-      <c r="O177" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
+    </row>
+    <row r="178" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44750</v>
       </c>
@@ -8832,11 +8313,8 @@
       <c r="L178" s="2">
         <v>1</v>
       </c>
-      <c r="M178" s="5"/>
-      <c r="N178" s="5"/>
-      <c r="O178" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
+    </row>
+    <row r="179" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44749</v>
       </c>
@@ -8873,11 +8351,8 @@
       <c r="L179" s="2">
         <v>3</v>
       </c>
-      <c r="M179" s="5"/>
-      <c r="N179" s="5"/>
-      <c r="O179" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
+    </row>
+    <row r="180" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44748</v>
       </c>
@@ -8914,11 +8389,8 @@
       <c r="L180" s="2">
         <v>4</v>
       </c>
-      <c r="M180" s="5"/>
-      <c r="N180" s="5"/>
-      <c r="O180" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
+    </row>
+    <row r="181" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44747</v>
       </c>
@@ -8955,11 +8427,8 @@
       <c r="L181" s="2">
         <v>1</v>
       </c>
-      <c r="M181" s="5"/>
-      <c r="N181" s="5"/>
-      <c r="O181" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
+    </row>
+    <row r="182" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44746</v>
       </c>
@@ -8996,11 +8465,8 @@
       <c r="L182" s="2">
         <v>7</v>
       </c>
-      <c r="M182" s="5"/>
-      <c r="N182" s="5"/>
-      <c r="O182" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
+    </row>
+    <row r="183" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44745</v>
       </c>
@@ -9037,11 +8503,8 @@
       <c r="L183" s="2">
         <v>1</v>
       </c>
-      <c r="M183" s="5"/>
-      <c r="N183" s="5"/>
-      <c r="O183" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
+    </row>
+    <row r="184" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44744</v>
       </c>
@@ -9078,11 +8541,8 @@
       <c r="L184" s="2">
         <v>2</v>
       </c>
-      <c r="M184" s="5"/>
-      <c r="N184" s="5"/>
-      <c r="O184" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
+    </row>
+    <row r="185" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44743</v>
       </c>
@@ -9119,11 +8579,8 @@
       <c r="L185" s="2">
         <v>1</v>
       </c>
-      <c r="M185" s="5"/>
-      <c r="N185" s="5"/>
-      <c r="O185" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
+    </row>
+    <row r="186" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44742</v>
       </c>
@@ -9160,11 +8617,8 @@
       <c r="L186" s="2">
         <v>9</v>
       </c>
-      <c r="M186" s="5"/>
-      <c r="N186" s="5"/>
-      <c r="O186" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
+    </row>
+    <row r="187" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44741</v>
       </c>
@@ -9201,11 +8655,8 @@
       <c r="L187" s="2">
         <v>10</v>
       </c>
-      <c r="M187" s="5"/>
-      <c r="N187" s="5"/>
-      <c r="O187" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
+    </row>
+    <row r="188" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44740</v>
       </c>
@@ -9242,11 +8693,8 @@
       <c r="L188" s="2">
         <v>3</v>
       </c>
-      <c r="M188" s="5"/>
-      <c r="N188" s="5"/>
-      <c r="O188" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
+    </row>
+    <row r="189" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44739</v>
       </c>
@@ -9283,11 +8731,8 @@
       <c r="L189" s="2">
         <v>1</v>
       </c>
-      <c r="M189" s="5"/>
-      <c r="N189" s="5"/>
-      <c r="O189" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
+    </row>
+    <row r="190" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44738</v>
       </c>
@@ -9324,11 +8769,8 @@
       <c r="L190" s="2">
         <v>1</v>
       </c>
-      <c r="M190" s="5"/>
-      <c r="N190" s="5"/>
-      <c r="O190" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
+    </row>
+    <row r="191" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44737</v>
       </c>
@@ -9365,11 +8807,8 @@
       <c r="L191" s="2">
         <v>1</v>
       </c>
-      <c r="M191" s="5"/>
-      <c r="N191" s="5"/>
-      <c r="O191" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
+    </row>
+    <row r="192" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44736</v>
       </c>
@@ -9406,11 +8845,8 @@
       <c r="L192" s="2">
         <v>2</v>
       </c>
-      <c r="M192" s="5"/>
-      <c r="N192" s="5"/>
-      <c r="O192" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
+    </row>
+    <row r="193" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44735</v>
       </c>
@@ -9447,11 +8883,8 @@
       <c r="L193" s="2">
         <v>1</v>
       </c>
-      <c r="M193" s="5"/>
-      <c r="N193" s="5"/>
-      <c r="O193" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
+    </row>
+    <row r="194" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44734</v>
       </c>
@@ -9488,11 +8921,8 @@
       <c r="L194" s="2">
         <v>2</v>
       </c>
-      <c r="M194" s="5"/>
-      <c r="N194" s="5"/>
-      <c r="O194" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
+    </row>
+    <row r="195" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44733</v>
       </c>
@@ -9529,11 +8959,8 @@
       <c r="L195" s="2">
         <v>2</v>
       </c>
-      <c r="M195" s="5"/>
-      <c r="N195" s="5"/>
-      <c r="O195" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
+    </row>
+    <row r="196" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44732</v>
       </c>
@@ -9570,11 +8997,8 @@
       <c r="L196" s="2">
         <v>1</v>
       </c>
-      <c r="M196" s="5"/>
-      <c r="N196" s="5"/>
-      <c r="O196" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
+    </row>
+    <row r="197" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44731</v>
       </c>
@@ -9611,11 +9035,8 @@
       <c r="L197" s="2">
         <v>2</v>
       </c>
-      <c r="M197" s="5"/>
-      <c r="N197" s="5"/>
-      <c r="O197" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
+    </row>
+    <row r="198" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44730</v>
       </c>
@@ -9652,11 +9073,8 @@
       <c r="L198" s="2">
         <v>4</v>
       </c>
-      <c r="M198" s="5"/>
-      <c r="N198" s="5"/>
-      <c r="O198" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
+    </row>
+    <row r="199" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44729</v>
       </c>
@@ -9693,11 +9111,8 @@
       <c r="L199" s="2">
         <v>1</v>
       </c>
-      <c r="M199" s="5"/>
-      <c r="N199" s="5"/>
-      <c r="O199" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
+    </row>
+    <row r="200" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44728</v>
       </c>
@@ -9734,11 +9149,8 @@
       <c r="L200" s="2">
         <v>1</v>
       </c>
-      <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
-      <c r="O200" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
+    </row>
+    <row r="201" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44727</v>
       </c>
@@ -9775,11 +9187,8 @@
       <c r="L201" s="2">
         <v>2</v>
       </c>
-      <c r="M201" s="5"/>
-      <c r="N201" s="5"/>
-      <c r="O201" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
+    </row>
+    <row r="202" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44726</v>
       </c>
@@ -9816,11 +9225,8 @@
       <c r="L202" s="2">
         <v>1</v>
       </c>
-      <c r="M202" s="5"/>
-      <c r="N202" s="5"/>
-      <c r="O202" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
+    </row>
+    <row r="203" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44725</v>
       </c>
@@ -9857,11 +9263,8 @@
       <c r="L203" s="2">
         <v>1</v>
       </c>
-      <c r="M203" s="5"/>
-      <c r="N203" s="5"/>
-      <c r="O203" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
+    </row>
+    <row r="204" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44724</v>
       </c>
@@ -9898,11 +9301,8 @@
       <c r="L204" s="2">
         <v>1</v>
       </c>
-      <c r="M204" s="5"/>
-      <c r="N204" s="5"/>
-      <c r="O204" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
+    </row>
+    <row r="205" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44723</v>
       </c>
@@ -9939,11 +9339,8 @@
       <c r="L205" s="2">
         <v>5</v>
       </c>
-      <c r="M205" s="5"/>
-      <c r="N205" s="5"/>
-      <c r="O205" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
+    </row>
+    <row r="206" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44722</v>
       </c>
@@ -9980,11 +9377,8 @@
       <c r="L206" s="2">
         <v>1</v>
       </c>
-      <c r="M206" s="5"/>
-      <c r="N206" s="5"/>
-      <c r="O206" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
+    </row>
+    <row r="207" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44721</v>
       </c>
@@ -10021,11 +9415,8 @@
       <c r="L207" s="2">
         <v>3</v>
       </c>
-      <c r="M207" s="5"/>
-      <c r="N207" s="5"/>
-      <c r="O207" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
+    </row>
+    <row r="208" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44720</v>
       </c>
@@ -10062,11 +9453,8 @@
       <c r="L208" s="2">
         <v>2</v>
       </c>
-      <c r="M208" s="5"/>
-      <c r="N208" s="5"/>
-      <c r="O208" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
+    </row>
+    <row r="209" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44719</v>
       </c>
@@ -10103,11 +9491,8 @@
       <c r="L209" s="2">
         <v>1</v>
       </c>
-      <c r="M209" s="5"/>
-      <c r="N209" s="5"/>
-      <c r="O209" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
+    </row>
+    <row r="210" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44718</v>
       </c>
@@ -10144,11 +9529,8 @@
       <c r="L210" s="2">
         <v>1</v>
       </c>
-      <c r="M210" s="5"/>
-      <c r="N210" s="5"/>
-      <c r="O210" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
+    </row>
+    <row r="211" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44717</v>
       </c>
@@ -10185,11 +9567,8 @@
       <c r="L211" s="2">
         <v>1</v>
       </c>
-      <c r="M211" s="5"/>
-      <c r="N211" s="5"/>
-      <c r="O211" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
+    </row>
+    <row r="212" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44716</v>
       </c>
@@ -10226,11 +9605,8 @@
       <c r="L212" s="2">
         <v>1</v>
       </c>
-      <c r="M212" s="5"/>
-      <c r="N212" s="5"/>
-      <c r="O212" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
+    </row>
+    <row r="213" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44715</v>
       </c>
@@ -10267,11 +9643,8 @@
       <c r="L213" s="2">
         <v>0</v>
       </c>
-      <c r="M213" s="5"/>
-      <c r="N213" s="5"/>
-      <c r="O213" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
+    </row>
+    <row r="214" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44714</v>
       </c>
@@ -10308,11 +9681,8 @@
       <c r="L214" s="2">
         <v>2</v>
       </c>
-      <c r="M214" s="5"/>
-      <c r="N214" s="5"/>
-      <c r="O214" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
+    </row>
+    <row r="215" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44713</v>
       </c>
@@ -10349,11 +9719,8 @@
       <c r="L215" s="2">
         <v>3</v>
       </c>
-      <c r="M215" s="5"/>
-      <c r="N215" s="5"/>
-      <c r="O215" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
+    </row>
+    <row r="216" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44712</v>
       </c>
@@ -10390,11 +9757,8 @@
       <c r="L216" s="2">
         <v>2</v>
       </c>
-      <c r="M216" s="5"/>
-      <c r="N216" s="5"/>
-      <c r="O216" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
+    </row>
+    <row r="217" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44711</v>
       </c>
@@ -10431,11 +9795,8 @@
       <c r="L217" s="2">
         <v>1</v>
       </c>
-      <c r="M217" s="5"/>
-      <c r="N217" s="5"/>
-      <c r="O217" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
+    </row>
+    <row r="218" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44710</v>
       </c>
@@ -10472,11 +9833,8 @@
       <c r="L218" s="2">
         <v>2</v>
       </c>
-      <c r="M218" s="5"/>
-      <c r="N218" s="5"/>
-      <c r="O218" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
+    </row>
+    <row r="219" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44709</v>
       </c>
@@ -10513,11 +9871,8 @@
       <c r="L219" s="2">
         <v>1</v>
       </c>
-      <c r="M219" s="5"/>
-      <c r="N219" s="5"/>
-      <c r="O219" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
+    </row>
+    <row r="220" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44708</v>
       </c>
@@ -10554,11 +9909,8 @@
       <c r="L220" s="2">
         <v>1</v>
       </c>
-      <c r="M220" s="5"/>
-      <c r="N220" s="5"/>
-      <c r="O220" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
+    </row>
+    <row r="221" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44707</v>
       </c>
@@ -10595,11 +9947,8 @@
       <c r="L221" s="2">
         <v>1</v>
       </c>
-      <c r="M221" s="5"/>
-      <c r="N221" s="5"/>
-      <c r="O221" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
+    </row>
+    <row r="222" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44706</v>
       </c>
@@ -10636,11 +9985,8 @@
       <c r="L222" s="2">
         <v>6</v>
       </c>
-      <c r="M222" s="5"/>
-      <c r="N222" s="5"/>
-      <c r="O222" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
+    </row>
+    <row r="223" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44705</v>
       </c>
@@ -10677,11 +10023,8 @@
       <c r="L223" s="2">
         <v>1</v>
       </c>
-      <c r="M223" s="5"/>
-      <c r="N223" s="5"/>
-      <c r="O223" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
+    </row>
+    <row r="224" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44704</v>
       </c>
@@ -10718,11 +10061,8 @@
       <c r="L224" s="2">
         <v>2</v>
       </c>
-      <c r="M224" s="5"/>
-      <c r="N224" s="5"/>
-      <c r="O224" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
+    </row>
+    <row r="225" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44703</v>
       </c>
@@ -10759,11 +10099,8 @@
       <c r="L225" s="2">
         <v>1</v>
       </c>
-      <c r="M225" s="5"/>
-      <c r="N225" s="5"/>
-      <c r="O225" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
+    </row>
+    <row r="226" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44702</v>
       </c>
@@ -10800,11 +10137,8 @@
       <c r="L226" s="2">
         <v>1</v>
       </c>
-      <c r="M226" s="5"/>
-      <c r="N226" s="5"/>
-      <c r="O226" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
+    </row>
+    <row r="227" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44701</v>
       </c>
@@ -10841,11 +10175,8 @@
       <c r="L227" s="2">
         <v>6</v>
       </c>
-      <c r="M227" s="5"/>
-      <c r="N227" s="5"/>
-      <c r="O227" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
+    </row>
+    <row r="228" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44700</v>
       </c>
@@ -10882,11 +10213,8 @@
       <c r="L228" s="2">
         <v>3</v>
       </c>
-      <c r="M228" s="5"/>
-      <c r="N228" s="5"/>
-      <c r="O228" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
+    </row>
+    <row r="229" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44699</v>
       </c>
@@ -10923,11 +10251,8 @@
       <c r="L229" s="2">
         <v>1</v>
       </c>
-      <c r="M229" s="5"/>
-      <c r="N229" s="5"/>
-      <c r="O229" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
+    </row>
+    <row r="230" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44698</v>
       </c>
@@ -10964,11 +10289,8 @@
       <c r="L230" s="2">
         <v>1</v>
       </c>
-      <c r="M230" s="5"/>
-      <c r="N230" s="5"/>
-      <c r="O230" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5">
+    </row>
+    <row r="231" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44697</v>
       </c>
@@ -11005,11 +10327,8 @@
       <c r="L231" s="2">
         <v>2</v>
       </c>
-      <c r="M231" s="5"/>
-      <c r="N231" s="5"/>
-      <c r="O231" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5">
+    </row>
+    <row r="232" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44696</v>
       </c>
@@ -11046,11 +10365,8 @@
       <c r="L232" s="2">
         <v>4</v>
       </c>
-      <c r="M232" s="5"/>
-      <c r="N232" s="5"/>
-      <c r="O232" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5">
+    </row>
+    <row r="233" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44695</v>
       </c>
@@ -11087,11 +10403,8 @@
       <c r="L233" s="2">
         <v>1</v>
       </c>
-      <c r="M233" s="5"/>
-      <c r="N233" s="5"/>
-      <c r="O233" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5">
+    </row>
+    <row r="234" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44694</v>
       </c>
@@ -11128,11 +10441,8 @@
       <c r="L234" s="2">
         <v>1</v>
       </c>
-      <c r="M234" s="5"/>
-      <c r="N234" s="5"/>
-      <c r="O234" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5">
+    </row>
+    <row r="235" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44693</v>
       </c>
@@ -11169,11 +10479,8 @@
       <c r="L235" s="2">
         <v>2</v>
       </c>
-      <c r="M235" s="5"/>
-      <c r="N235" s="5"/>
-      <c r="O235" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5">
+    </row>
+    <row r="236" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44692</v>
       </c>
@@ -11210,11 +10517,8 @@
       <c r="L236" s="2">
         <v>1</v>
       </c>
-      <c r="M236" s="5"/>
-      <c r="N236" s="5"/>
-      <c r="O236" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5">
+    </row>
+    <row r="237" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44691</v>
       </c>
@@ -11251,11 +10555,8 @@
       <c r="L237" s="2">
         <v>2</v>
       </c>
-      <c r="M237" s="5"/>
-      <c r="N237" s="5"/>
-      <c r="O237" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5">
+    </row>
+    <row r="238" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44690</v>
       </c>
@@ -11292,11 +10593,8 @@
       <c r="L238" s="2">
         <v>1</v>
       </c>
-      <c r="M238" s="5"/>
-      <c r="N238" s="5"/>
-      <c r="O238" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5">
+    </row>
+    <row r="239" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44689</v>
       </c>
@@ -11333,11 +10631,8 @@
       <c r="L239" s="2">
         <v>4</v>
       </c>
-      <c r="M239" s="5"/>
-      <c r="N239" s="5"/>
-      <c r="O239" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5">
+    </row>
+    <row r="240" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44688</v>
       </c>
@@ -11374,11 +10669,8 @@
       <c r="L240" s="2">
         <v>1</v>
       </c>
-      <c r="M240" s="5"/>
-      <c r="N240" s="5"/>
-      <c r="O240" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5">
+    </row>
+    <row r="241" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44687</v>
       </c>
@@ -11415,11 +10707,8 @@
       <c r="L241" s="2">
         <v>2</v>
       </c>
-      <c r="M241" s="5"/>
-      <c r="N241" s="5"/>
-      <c r="O241" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5">
+    </row>
+    <row r="242" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44686</v>
       </c>
@@ -11456,11 +10745,8 @@
       <c r="L242" s="2">
         <v>12</v>
       </c>
-      <c r="M242" s="5"/>
-      <c r="N242" s="5"/>
-      <c r="O242" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5">
+    </row>
+    <row r="243" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44685</v>
       </c>
@@ -11497,11 +10783,8 @@
       <c r="L243" s="2">
         <v>0</v>
       </c>
-      <c r="M243" s="5"/>
-      <c r="N243" s="5"/>
-      <c r="O243" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5">
+    </row>
+    <row r="244" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44684</v>
       </c>
@@ -11538,11 +10821,8 @@
       <c r="L244" s="2">
         <v>1</v>
       </c>
-      <c r="M244" s="5"/>
-      <c r="N244" s="5"/>
-      <c r="O244" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5">
+    </row>
+    <row r="245" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44683</v>
       </c>
@@ -11579,11 +10859,8 @@
       <c r="L245" s="2">
         <v>2</v>
       </c>
-      <c r="M245" s="5"/>
-      <c r="N245" s="5"/>
-      <c r="O245" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5">
+    </row>
+    <row r="246" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44682</v>
       </c>
@@ -11620,11 +10897,8 @@
       <c r="L246" s="2">
         <v>3</v>
       </c>
-      <c r="M246" s="5"/>
-      <c r="N246" s="5"/>
-      <c r="O246" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5">
+    </row>
+    <row r="247" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44681</v>
       </c>
@@ -11661,11 +10935,8 @@
       <c r="L247" s="2">
         <v>4</v>
       </c>
-      <c r="M247" s="5"/>
-      <c r="N247" s="5"/>
-      <c r="O247" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5">
+    </row>
+    <row r="248" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44680</v>
       </c>
@@ -11702,11 +10973,8 @@
       <c r="L248" s="2">
         <v>1</v>
       </c>
-      <c r="M248" s="5"/>
-      <c r="N248" s="5"/>
-      <c r="O248" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5">
+    </row>
+    <row r="249" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44679</v>
       </c>
@@ -11743,11 +11011,8 @@
       <c r="L249" s="2">
         <v>7</v>
       </c>
-      <c r="M249" s="5"/>
-      <c r="N249" s="5"/>
-      <c r="O249" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5">
+    </row>
+    <row r="250" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44678</v>
       </c>
@@ -11784,11 +11049,8 @@
       <c r="L250" s="2">
         <v>1</v>
       </c>
-      <c r="M250" s="5"/>
-      <c r="N250" s="5"/>
-      <c r="O250" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5">
+    </row>
+    <row r="251" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44677</v>
       </c>
@@ -11825,11 +11087,8 @@
       <c r="L251" s="2">
         <v>1</v>
       </c>
-      <c r="M251" s="5"/>
-      <c r="N251" s="5"/>
-      <c r="O251" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5">
+    </row>
+    <row r="252" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44676</v>
       </c>
@@ -11866,11 +11125,8 @@
       <c r="L252" s="2">
         <v>4</v>
       </c>
-      <c r="M252" s="5"/>
-      <c r="N252" s="5"/>
-      <c r="O252" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5">
+    </row>
+    <row r="253" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44675</v>
       </c>
@@ -11907,11 +11163,8 @@
       <c r="L253" s="2">
         <v>1</v>
       </c>
-      <c r="M253" s="5"/>
-      <c r="N253" s="5"/>
-      <c r="O253" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5">
+    </row>
+    <row r="254" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44674</v>
       </c>
@@ -11948,11 +11201,8 @@
       <c r="L254" s="2">
         <v>1</v>
       </c>
-      <c r="M254" s="5"/>
-      <c r="N254" s="5"/>
-      <c r="O254" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5">
+    </row>
+    <row r="255" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44673</v>
       </c>
@@ -11989,11 +11239,8 @@
       <c r="L255" s="2">
         <v>0</v>
       </c>
-      <c r="M255" s="5"/>
-      <c r="N255" s="5"/>
-      <c r="O255" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5">
+    </row>
+    <row r="256" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44672</v>
       </c>
@@ -12030,11 +11277,8 @@
       <c r="L256" s="2">
         <v>4</v>
       </c>
-      <c r="M256" s="5"/>
-      <c r="N256" s="5"/>
-      <c r="O256" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5">
+    </row>
+    <row r="257" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44671</v>
       </c>
@@ -12071,11 +11315,8 @@
       <c r="L257" s="2">
         <v>2</v>
       </c>
-      <c r="M257" s="5"/>
-      <c r="N257" s="5"/>
-      <c r="O257" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5">
+    </row>
+    <row r="258" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44670</v>
       </c>
@@ -12112,11 +11353,8 @@
       <c r="L258" s="2">
         <v>26</v>
       </c>
-      <c r="M258" s="5"/>
-      <c r="N258" s="5"/>
-      <c r="O258" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5">
+    </row>
+    <row r="259" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44669</v>
       </c>
@@ -12153,11 +11391,8 @@
       <c r="L259" s="2">
         <v>1</v>
       </c>
-      <c r="M259" s="5"/>
-      <c r="N259" s="5"/>
-      <c r="O259" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5">
+    </row>
+    <row r="260" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44668</v>
       </c>
@@ -12194,11 +11429,8 @@
       <c r="L260" s="2">
         <v>2</v>
       </c>
-      <c r="M260" s="5"/>
-      <c r="N260" s="5"/>
-      <c r="O260" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5">
+    </row>
+    <row r="261" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44667</v>
       </c>
@@ -12235,11 +11467,8 @@
       <c r="L261" s="2">
         <v>1</v>
       </c>
-      <c r="M261" s="5"/>
-      <c r="N261" s="5"/>
-      <c r="O261" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5">
+    </row>
+    <row r="262" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44666</v>
       </c>
@@ -12276,11 +11505,8 @@
       <c r="L262" s="2">
         <v>5</v>
       </c>
-      <c r="M262" s="5"/>
-      <c r="N262" s="5"/>
-      <c r="O262" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5">
+    </row>
+    <row r="263" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44665</v>
       </c>
@@ -12317,11 +11543,8 @@
       <c r="L263" s="2">
         <v>1</v>
       </c>
-      <c r="M263" s="5"/>
-      <c r="N263" s="5"/>
-      <c r="O263" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5">
+    </row>
+    <row r="264" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44664</v>
       </c>
@@ -12358,11 +11581,8 @@
       <c r="L264" s="2">
         <v>1</v>
       </c>
-      <c r="M264" s="5"/>
-      <c r="N264" s="5"/>
-      <c r="O264" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5">
+    </row>
+    <row r="265" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44663</v>
       </c>
@@ -12399,11 +11619,8 @@
       <c r="L265" s="2">
         <v>1</v>
       </c>
-      <c r="M265" s="5"/>
-      <c r="N265" s="5"/>
-      <c r="O265" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5">
+    </row>
+    <row r="266" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44662</v>
       </c>
@@ -12440,11 +11657,8 @@
       <c r="L266" s="2">
         <v>2</v>
       </c>
-      <c r="M266" s="5"/>
-      <c r="N266" s="5"/>
-      <c r="O266" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5">
+    </row>
+    <row r="267" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44661</v>
       </c>
@@ -12481,11 +11695,8 @@
       <c r="L267" s="2">
         <v>1</v>
       </c>
-      <c r="M267" s="5"/>
-      <c r="N267" s="5"/>
-      <c r="O267" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5">
+    </row>
+    <row r="268" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44660</v>
       </c>
@@ -12522,11 +11733,8 @@
       <c r="L268" s="2">
         <v>1</v>
       </c>
-      <c r="M268" s="5"/>
-      <c r="N268" s="5"/>
-      <c r="O268" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5">
+    </row>
+    <row r="269" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44659</v>
       </c>
@@ -12563,11 +11771,8 @@
       <c r="L269" s="2">
         <v>4</v>
       </c>
-      <c r="M269" s="5"/>
-      <c r="N269" s="5"/>
-      <c r="O269" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5">
+    </row>
+    <row r="270" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44658</v>
       </c>
@@ -12604,11 +11809,8 @@
       <c r="L270" s="2">
         <v>4</v>
       </c>
-      <c r="M270" s="5"/>
-      <c r="N270" s="5"/>
-      <c r="O270" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5">
+    </row>
+    <row r="271" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44657</v>
       </c>
@@ -12645,11 +11847,8 @@
       <c r="L271" s="2">
         <v>3</v>
       </c>
-      <c r="M271" s="5"/>
-      <c r="N271" s="5"/>
-      <c r="O271" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5">
+    </row>
+    <row r="272" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44656</v>
       </c>
@@ -12686,11 +11885,8 @@
       <c r="L272" s="2">
         <v>3</v>
       </c>
-      <c r="M272" s="5"/>
-      <c r="N272" s="5"/>
-      <c r="O272" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5">
+    </row>
+    <row r="273" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44655</v>
       </c>
@@ -12727,11 +11923,8 @@
       <c r="L273" s="2">
         <v>3</v>
       </c>
-      <c r="M273" s="5"/>
-      <c r="N273" s="5"/>
-      <c r="O273" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5">
+    </row>
+    <row r="274" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44654</v>
       </c>
@@ -12768,11 +11961,8 @@
       <c r="L274" s="2">
         <v>6</v>
       </c>
-      <c r="M274" s="5"/>
-      <c r="N274" s="5"/>
-      <c r="O274" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5">
+    </row>
+    <row r="275" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44653</v>
       </c>
@@ -12809,11 +11999,8 @@
       <c r="L275" s="2">
         <v>1</v>
       </c>
-      <c r="M275" s="5"/>
-      <c r="N275" s="5"/>
-      <c r="O275" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5">
+    </row>
+    <row r="276" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44652</v>
       </c>
@@ -12850,11 +12037,8 @@
       <c r="L276" s="2">
         <v>5</v>
       </c>
-      <c r="M276" s="5"/>
-      <c r="N276" s="5"/>
-      <c r="O276" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5">
+    </row>
+    <row r="277" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44651</v>
       </c>
@@ -12891,11 +12075,8 @@
       <c r="L277" s="2">
         <v>8</v>
       </c>
-      <c r="M277" s="5"/>
-      <c r="N277" s="5"/>
-      <c r="O277" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5">
+    </row>
+    <row r="278" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44650</v>
       </c>
@@ -12932,11 +12113,8 @@
       <c r="L278" s="2">
         <v>6</v>
       </c>
-      <c r="M278" s="5"/>
-      <c r="N278" s="5"/>
-      <c r="O278" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5">
+    </row>
+    <row r="279" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44649</v>
       </c>
@@ -12973,11 +12151,8 @@
       <c r="L279" s="2">
         <v>4</v>
       </c>
-      <c r="M279" s="5"/>
-      <c r="N279" s="5"/>
-      <c r="O279" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5">
+    </row>
+    <row r="280" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44648</v>
       </c>
@@ -13014,11 +12189,8 @@
       <c r="L280" s="2">
         <v>14</v>
       </c>
-      <c r="M280" s="5"/>
-      <c r="N280" s="5"/>
-      <c r="O280" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5">
+    </row>
+    <row r="281" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44647</v>
       </c>
@@ -13055,11 +12227,8 @@
       <c r="L281" s="2">
         <v>1</v>
       </c>
-      <c r="M281" s="5"/>
-      <c r="N281" s="5"/>
-      <c r="O281" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5">
+    </row>
+    <row r="282" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44646</v>
       </c>
@@ -13096,11 +12265,8 @@
       <c r="L282" s="2">
         <v>3</v>
       </c>
-      <c r="M282" s="5"/>
-      <c r="N282" s="5"/>
-      <c r="O282" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5">
+    </row>
+    <row r="283" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44645</v>
       </c>
@@ -13137,11 +12303,8 @@
       <c r="L283" s="2">
         <v>1</v>
       </c>
-      <c r="M283" s="5"/>
-      <c r="N283" s="5"/>
-      <c r="O283" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5">
+    </row>
+    <row r="284" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44644</v>
       </c>
@@ -13178,11 +12341,8 @@
       <c r="L284" s="2">
         <v>1</v>
       </c>
-      <c r="M284" s="5"/>
-      <c r="N284" s="5"/>
-      <c r="O284" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5">
+    </row>
+    <row r="285" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44643</v>
       </c>
@@ -13219,11 +12379,8 @@
       <c r="L285" s="2">
         <v>2</v>
       </c>
-      <c r="M285" s="5"/>
-      <c r="N285" s="5"/>
-      <c r="O285" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5">
+    </row>
+    <row r="286" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44642</v>
       </c>
@@ -13260,11 +12417,8 @@
       <c r="L286" s="2">
         <v>2</v>
       </c>
-      <c r="M286" s="5"/>
-      <c r="N286" s="5"/>
-      <c r="O286" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5">
+    </row>
+    <row r="287" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44641</v>
       </c>
@@ -13301,11 +12455,8 @@
       <c r="L287" s="2">
         <v>0</v>
       </c>
-      <c r="M287" s="5"/>
-      <c r="N287" s="5"/>
-      <c r="O287" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5">
+    </row>
+    <row r="288" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44640</v>
       </c>
@@ -13342,11 +12493,8 @@
       <c r="L288" s="2">
         <v>2</v>
       </c>
-      <c r="M288" s="5"/>
-      <c r="N288" s="5"/>
-      <c r="O288" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5">
+    </row>
+    <row r="289" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44639</v>
       </c>
@@ -13383,11 +12531,8 @@
       <c r="L289" s="2">
         <v>3</v>
       </c>
-      <c r="M289" s="5"/>
-      <c r="N289" s="5"/>
-      <c r="O289" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5">
+    </row>
+    <row r="290" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44638</v>
       </c>
@@ -13424,11 +12569,8 @@
       <c r="L290" s="2">
         <v>1</v>
       </c>
-      <c r="M290" s="5"/>
-      <c r="N290" s="5"/>
-      <c r="O290" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5">
+    </row>
+    <row r="291" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44637</v>
       </c>
@@ -13465,11 +12607,8 @@
       <c r="L291" s="2">
         <v>3</v>
       </c>
-      <c r="M291" s="5"/>
-      <c r="N291" s="5"/>
-      <c r="O291" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5">
+    </row>
+    <row r="292" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44636</v>
       </c>
@@ -13506,11 +12645,8 @@
       <c r="L292" s="2">
         <v>15</v>
       </c>
-      <c r="M292" s="5"/>
-      <c r="N292" s="5"/>
-      <c r="O292" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5">
+    </row>
+    <row r="293" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44635</v>
       </c>
@@ -13547,11 +12683,8 @@
       <c r="L293" s="2">
         <v>1</v>
       </c>
-      <c r="M293" s="5"/>
-      <c r="N293" s="5"/>
-      <c r="O293" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5">
+    </row>
+    <row r="294" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44634</v>
       </c>
@@ -13588,11 +12721,8 @@
       <c r="L294" s="2">
         <v>2</v>
       </c>
-      <c r="M294" s="5"/>
-      <c r="N294" s="5"/>
-      <c r="O294" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5">
+    </row>
+    <row r="295" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44633</v>
       </c>
@@ -13629,11 +12759,8 @@
       <c r="L295" s="2">
         <v>1</v>
       </c>
-      <c r="M295" s="5"/>
-      <c r="N295" s="5"/>
-      <c r="O295" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5">
+    </row>
+    <row r="296" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44632</v>
       </c>
@@ -13670,11 +12797,8 @@
       <c r="L296" s="2">
         <v>1</v>
       </c>
-      <c r="M296" s="5"/>
-      <c r="N296" s="5"/>
-      <c r="O296" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5">
+    </row>
+    <row r="297" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44631</v>
       </c>
@@ -13711,11 +12835,8 @@
       <c r="L297" s="2">
         <v>20</v>
       </c>
-      <c r="M297" s="5"/>
-      <c r="N297" s="5"/>
-      <c r="O297" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5">
+    </row>
+    <row r="298" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44630</v>
       </c>
@@ -13752,11 +12873,8 @@
       <c r="L298" s="2">
         <v>1</v>
       </c>
-      <c r="M298" s="5"/>
-      <c r="N298" s="5"/>
-      <c r="O298" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5">
+    </row>
+    <row r="299" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44629</v>
       </c>
@@ -13793,11 +12911,8 @@
       <c r="L299" s="2">
         <v>1</v>
       </c>
-      <c r="M299" s="5"/>
-      <c r="N299" s="5"/>
-      <c r="O299" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5">
+    </row>
+    <row r="300" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44628</v>
       </c>
@@ -13834,11 +12949,8 @@
       <c r="L300" s="2">
         <v>2</v>
       </c>
-      <c r="M300" s="5"/>
-      <c r="N300" s="5"/>
-      <c r="O300" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5">
+    </row>
+    <row r="301" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44627</v>
       </c>
@@ -13875,11 +12987,8 @@
       <c r="L301" s="2">
         <v>1</v>
       </c>
-      <c r="M301" s="5"/>
-      <c r="N301" s="5"/>
-      <c r="O301" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5">
+    </row>
+    <row r="302" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44626</v>
       </c>
@@ -13916,11 +13025,8 @@
       <c r="L302" s="2">
         <v>1</v>
       </c>
-      <c r="M302" s="5"/>
-      <c r="N302" s="5"/>
-      <c r="O302" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5">
+    </row>
+    <row r="303" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44625</v>
       </c>
@@ -13957,11 +13063,8 @@
       <c r="L303" s="2">
         <v>3</v>
       </c>
-      <c r="M303" s="5"/>
-      <c r="N303" s="5"/>
-      <c r="O303" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5">
+    </row>
+    <row r="304" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44624</v>
       </c>
@@ -13998,11 +13101,8 @@
       <c r="L304" s="2">
         <v>2</v>
       </c>
-      <c r="M304" s="5"/>
-      <c r="N304" s="5"/>
-      <c r="O304" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5">
+    </row>
+    <row r="305" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44623</v>
       </c>
@@ -14039,11 +13139,8 @@
       <c r="L305" s="2">
         <v>1</v>
       </c>
-      <c r="M305" s="5"/>
-      <c r="N305" s="5"/>
-      <c r="O305" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5">
+    </row>
+    <row r="306" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44622</v>
       </c>
@@ -14080,11 +13177,8 @@
       <c r="L306" s="2">
         <v>2</v>
       </c>
-      <c r="M306" s="5"/>
-      <c r="N306" s="5"/>
-      <c r="O306" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5">
+    </row>
+    <row r="307" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44621</v>
       </c>
@@ -14121,11 +13215,8 @@
       <c r="L307" s="2">
         <v>2</v>
       </c>
-      <c r="M307" s="5"/>
-      <c r="N307" s="5"/>
-      <c r="O307" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5">
+    </row>
+    <row r="308" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44620</v>
       </c>
@@ -14162,11 +13253,8 @@
       <c r="L308" s="2">
         <v>1</v>
       </c>
-      <c r="M308" s="5"/>
-      <c r="N308" s="5"/>
-      <c r="O308" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5">
+    </row>
+    <row r="309" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44619</v>
       </c>
@@ -14203,11 +13291,8 @@
       <c r="L309" s="2">
         <v>1</v>
       </c>
-      <c r="M309" s="5"/>
-      <c r="N309" s="5"/>
-      <c r="O309" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5">
+    </row>
+    <row r="310" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44618</v>
       </c>
@@ -14244,11 +13329,8 @@
       <c r="L310" s="2">
         <v>2</v>
       </c>
-      <c r="M310" s="5"/>
-      <c r="N310" s="5"/>
-      <c r="O310" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5">
+    </row>
+    <row r="311" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44617</v>
       </c>
@@ -14285,11 +13367,8 @@
       <c r="L311" s="2">
         <v>4</v>
       </c>
-      <c r="M311" s="5"/>
-      <c r="N311" s="5"/>
-      <c r="O311" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5">
+    </row>
+    <row r="312" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44616</v>
       </c>
@@ -14326,11 +13405,8 @@
       <c r="L312" s="2">
         <v>2</v>
       </c>
-      <c r="M312" s="5"/>
-      <c r="N312" s="5"/>
-      <c r="O312" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5">
+    </row>
+    <row r="313" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44615</v>
       </c>
@@ -14367,11 +13443,8 @@
       <c r="L313" s="2">
         <v>8</v>
       </c>
-      <c r="M313" s="5"/>
-      <c r="N313" s="5"/>
-      <c r="O313" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5">
+    </row>
+    <row r="314" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44614</v>
       </c>
@@ -14408,11 +13481,8 @@
       <c r="L314" s="2">
         <v>0</v>
       </c>
-      <c r="M314" s="5"/>
-      <c r="N314" s="5"/>
-      <c r="O314" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5">
+    </row>
+    <row r="315" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44613</v>
       </c>
@@ -14449,11 +13519,8 @@
       <c r="L315" s="2">
         <v>2</v>
       </c>
-      <c r="M315" s="5"/>
-      <c r="N315" s="5"/>
-      <c r="O315" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5">
+    </row>
+    <row r="316" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44612</v>
       </c>
@@ -14490,11 +13557,8 @@
       <c r="L316" s="2">
         <v>3</v>
       </c>
-      <c r="M316" s="5"/>
-      <c r="N316" s="5"/>
-      <c r="O316" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5">
+    </row>
+    <row r="317" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44611</v>
       </c>
@@ -14531,11 +13595,8 @@
       <c r="L317" s="2">
         <v>10</v>
       </c>
-      <c r="M317" s="5"/>
-      <c r="N317" s="5"/>
-      <c r="O317" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5">
+    </row>
+    <row r="318" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44610</v>
       </c>
@@ -14572,11 +13633,8 @@
       <c r="L318" s="2">
         <v>7</v>
       </c>
-      <c r="M318" s="5"/>
-      <c r="N318" s="5"/>
-      <c r="O318" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5">
+    </row>
+    <row r="319" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44609</v>
       </c>
@@ -14613,11 +13671,8 @@
       <c r="L319" s="2">
         <v>9</v>
       </c>
-      <c r="M319" s="5"/>
-      <c r="N319" s="5"/>
-      <c r="O319" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5">
+    </row>
+    <row r="320" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44608</v>
       </c>
@@ -14654,11 +13709,8 @@
       <c r="L320" s="2">
         <v>3</v>
       </c>
-      <c r="M320" s="5"/>
-      <c r="N320" s="5"/>
-      <c r="O320" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5">
+    </row>
+    <row r="321" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44607</v>
       </c>
@@ -14695,11 +13747,8 @@
       <c r="L321" s="2">
         <v>2</v>
       </c>
-      <c r="M321" s="5"/>
-      <c r="N321" s="5"/>
-      <c r="O321" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5">
+    </row>
+    <row r="322" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44606</v>
       </c>
@@ -14736,11 +13785,8 @@
       <c r="L322" s="2">
         <v>2</v>
       </c>
-      <c r="M322" s="5"/>
-      <c r="N322" s="5"/>
-      <c r="O322" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5">
+    </row>
+    <row r="323" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44605</v>
       </c>
@@ -14777,11 +13823,8 @@
       <c r="L323" s="2">
         <v>1</v>
       </c>
-      <c r="M323" s="5"/>
-      <c r="N323" s="5"/>
-      <c r="O323" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5">
+    </row>
+    <row r="324" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44604</v>
       </c>
@@ -14818,11 +13861,8 @@
       <c r="L324" s="2">
         <v>1</v>
       </c>
-      <c r="M324" s="5"/>
-      <c r="N324" s="5"/>
-      <c r="O324" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5">
+    </row>
+    <row r="325" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44603</v>
       </c>
@@ -14859,11 +13899,8 @@
       <c r="L325" s="2">
         <v>3</v>
       </c>
-      <c r="M325" s="5"/>
-      <c r="N325" s="5"/>
-      <c r="O325" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5">
+    </row>
+    <row r="326" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44602</v>
       </c>
@@ -14900,11 +13937,8 @@
       <c r="L326" s="2">
         <v>2</v>
       </c>
-      <c r="M326" s="5"/>
-      <c r="N326" s="5"/>
-      <c r="O326" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5">
+    </row>
+    <row r="327" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44601</v>
       </c>
@@ -14941,11 +13975,8 @@
       <c r="L327" s="2">
         <v>2</v>
       </c>
-      <c r="M327" s="5"/>
-      <c r="N327" s="5"/>
-      <c r="O327" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5">
+    </row>
+    <row r="328" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44600</v>
       </c>
@@ -14982,11 +14013,8 @@
       <c r="L328" s="2">
         <v>3</v>
       </c>
-      <c r="M328" s="5"/>
-      <c r="N328" s="5"/>
-      <c r="O328" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5">
+    </row>
+    <row r="329" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44599</v>
       </c>
@@ -15023,11 +14051,8 @@
       <c r="L329" s="2">
         <v>5</v>
       </c>
-      <c r="M329" s="5"/>
-      <c r="N329" s="5"/>
-      <c r="O329" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5">
+    </row>
+    <row r="330" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44598</v>
       </c>
@@ -15064,11 +14089,8 @@
       <c r="L330" s="2">
         <v>3</v>
       </c>
-      <c r="M330" s="5"/>
-      <c r="N330" s="5"/>
-      <c r="O330" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5">
+    </row>
+    <row r="331" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44597</v>
       </c>
@@ -15105,11 +14127,8 @@
       <c r="L331" s="2">
         <v>2</v>
       </c>
-      <c r="M331" s="5"/>
-      <c r="N331" s="5"/>
-      <c r="O331" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5">
+    </row>
+    <row r="332" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44596</v>
       </c>
@@ -15146,11 +14165,8 @@
       <c r="L332" s="2">
         <v>2</v>
       </c>
-      <c r="M332" s="5"/>
-      <c r="N332" s="5"/>
-      <c r="O332" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5">
+    </row>
+    <row r="333" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44595</v>
       </c>
@@ -15187,11 +14203,8 @@
       <c r="L333" s="2">
         <v>4</v>
       </c>
-      <c r="M333" s="5"/>
-      <c r="N333" s="5"/>
-      <c r="O333" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5">
+    </row>
+    <row r="334" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44594</v>
       </c>
@@ -15228,11 +14241,8 @@
       <c r="L334" s="2">
         <v>1</v>
       </c>
-      <c r="M334" s="5"/>
-      <c r="N334" s="5"/>
-      <c r="O334" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5">
+    </row>
+    <row r="335" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44593</v>
       </c>
@@ -15269,11 +14279,8 @@
       <c r="L335" s="2">
         <v>1</v>
       </c>
-      <c r="M335" s="5"/>
-      <c r="N335" s="5"/>
-      <c r="O335" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5">
+    </row>
+    <row r="336" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44592</v>
       </c>
@@ -15310,11 +14317,8 @@
       <c r="L336" s="2">
         <v>5</v>
       </c>
-      <c r="M336" s="5"/>
-      <c r="N336" s="5"/>
-      <c r="O336" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5">
+    </row>
+    <row r="337" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44591</v>
       </c>
@@ -15351,11 +14355,8 @@
       <c r="L337" s="2">
         <v>2</v>
       </c>
-      <c r="M337" s="5"/>
-      <c r="N337" s="5"/>
-      <c r="O337" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5">
+    </row>
+    <row r="338" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44590</v>
       </c>
@@ -15392,11 +14393,8 @@
       <c r="L338" s="2">
         <v>1</v>
       </c>
-      <c r="M338" s="5"/>
-      <c r="N338" s="5"/>
-      <c r="O338" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5">
+    </row>
+    <row r="339" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44589</v>
       </c>
@@ -15433,11 +14431,8 @@
       <c r="L339" s="2">
         <v>4</v>
       </c>
-      <c r="M339" s="5"/>
-      <c r="N339" s="5"/>
-      <c r="O339" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5">
+    </row>
+    <row r="340" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44588</v>
       </c>
@@ -15474,11 +14469,8 @@
       <c r="L340" s="2">
         <v>1</v>
       </c>
-      <c r="M340" s="5"/>
-      <c r="N340" s="5"/>
-      <c r="O340" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5">
+    </row>
+    <row r="341" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44587</v>
       </c>
@@ -15515,11 +14507,8 @@
       <c r="L341" s="2">
         <v>2</v>
       </c>
-      <c r="M341" s="5"/>
-      <c r="N341" s="5"/>
-      <c r="O341" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5">
+    </row>
+    <row r="342" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44586</v>
       </c>
@@ -15556,11 +14545,8 @@
       <c r="L342" s="2">
         <v>1</v>
       </c>
-      <c r="M342" s="5"/>
-      <c r="N342" s="5"/>
-      <c r="O342" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5">
+    </row>
+    <row r="343" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44585</v>
       </c>
@@ -15597,11 +14583,8 @@
       <c r="L343" s="2">
         <v>4</v>
       </c>
-      <c r="M343" s="5"/>
-      <c r="N343" s="5"/>
-      <c r="O343" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5">
+    </row>
+    <row r="344" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44584</v>
       </c>
@@ -15638,11 +14621,8 @@
       <c r="L344" s="2">
         <v>1</v>
       </c>
-      <c r="M344" s="5"/>
-      <c r="N344" s="5"/>
-      <c r="O344" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5">
+    </row>
+    <row r="345" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44583</v>
       </c>
@@ -15679,11 +14659,8 @@
       <c r="L345" s="2">
         <v>3</v>
       </c>
-      <c r="M345" s="5"/>
-      <c r="N345" s="5"/>
-      <c r="O345" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5">
+    </row>
+    <row r="346" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44582</v>
       </c>
@@ -15720,11 +14697,8 @@
       <c r="L346" s="2">
         <v>1</v>
       </c>
-      <c r="M346" s="5"/>
-      <c r="N346" s="5"/>
-      <c r="O346" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5">
+    </row>
+    <row r="347" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44581</v>
       </c>
@@ -15761,11 +14735,8 @@
       <c r="L347" s="2">
         <v>1</v>
       </c>
-      <c r="M347" s="5"/>
-      <c r="N347" s="5"/>
-      <c r="O347" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5">
+    </row>
+    <row r="348" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44580</v>
       </c>
@@ -15802,11 +14773,8 @@
       <c r="L348" s="2">
         <v>1</v>
       </c>
-      <c r="M348" s="5"/>
-      <c r="N348" s="5"/>
-      <c r="O348" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5">
+    </row>
+    <row r="349" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44579</v>
       </c>
@@ -15843,11 +14811,8 @@
       <c r="L349" s="2">
         <v>6</v>
       </c>
-      <c r="M349" s="5"/>
-      <c r="N349" s="5"/>
-      <c r="O349" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5">
+    </row>
+    <row r="350" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44578</v>
       </c>
@@ -15884,11 +14849,8 @@
       <c r="L350" s="2">
         <v>2</v>
       </c>
-      <c r="M350" s="5"/>
-      <c r="N350" s="5"/>
-      <c r="O350" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5">
+    </row>
+    <row r="351" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44577</v>
       </c>
@@ -15925,11 +14887,8 @@
       <c r="L351" s="2">
         <v>1</v>
       </c>
-      <c r="M351" s="5"/>
-      <c r="N351" s="5"/>
-      <c r="O351" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5">
+    </row>
+    <row r="352" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44576</v>
       </c>
@@ -15966,11 +14925,8 @@
       <c r="L352" s="2">
         <v>1</v>
       </c>
-      <c r="M352" s="5"/>
-      <c r="N352" s="5"/>
-      <c r="O352" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5">
+    </row>
+    <row r="353" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44575</v>
       </c>
@@ -16007,11 +14963,8 @@
       <c r="L353" s="2">
         <v>5</v>
       </c>
-      <c r="M353" s="5"/>
-      <c r="N353" s="5"/>
-      <c r="O353" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5">
+    </row>
+    <row r="354" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44574</v>
       </c>
@@ -16048,11 +15001,8 @@
       <c r="L354" s="2">
         <v>3</v>
       </c>
-      <c r="M354" s="5"/>
-      <c r="N354" s="5"/>
-      <c r="O354" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5">
+    </row>
+    <row r="355" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44573</v>
       </c>
@@ -16089,11 +15039,8 @@
       <c r="L355" s="2">
         <v>4</v>
       </c>
-      <c r="M355" s="5"/>
-      <c r="N355" s="5"/>
-      <c r="O355" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5">
+    </row>
+    <row r="356" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44572</v>
       </c>
@@ -16130,11 +15077,8 @@
       <c r="L356" s="2">
         <v>1</v>
       </c>
-      <c r="M356" s="5"/>
-      <c r="N356" s="5"/>
-      <c r="O356" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5">
+    </row>
+    <row r="357" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44571</v>
       </c>
@@ -16171,11 +15115,8 @@
       <c r="L357" s="2">
         <v>2</v>
       </c>
-      <c r="M357" s="5"/>
-      <c r="N357" s="5"/>
-      <c r="O357" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5">
+    </row>
+    <row r="358" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44570</v>
       </c>
@@ -16212,11 +15153,8 @@
       <c r="L358" s="2">
         <v>4</v>
       </c>
-      <c r="M358" s="5"/>
-      <c r="N358" s="5"/>
-      <c r="O358" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5">
+    </row>
+    <row r="359" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44569</v>
       </c>
@@ -16253,11 +15191,8 @@
       <c r="L359" s="2">
         <v>2</v>
       </c>
-      <c r="M359" s="5"/>
-      <c r="N359" s="5"/>
-      <c r="O359" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5">
+    </row>
+    <row r="360" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44568</v>
       </c>
@@ -16294,2051 +15229,1570 @@
       <c r="L360" s="2">
         <v>1</v>
       </c>
-      <c r="M360" s="5"/>
-      <c r="N360" s="5"/>
-      <c r="O360" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5">
+    </row>
+    <row r="361" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
-      <c r="B361" s="6"/>
-      <c r="C361" s="5"/>
-      <c r="D361" s="6"/>
-      <c r="E361" s="6"/>
-      <c r="F361" s="6"/>
-      <c r="G361" s="6"/>
-      <c r="H361" s="6"/>
-      <c r="I361" s="6"/>
-      <c r="J361" s="6"/>
-      <c r="K361" s="6"/>
-      <c r="L361" s="6"/>
-      <c r="M361" s="5"/>
-      <c r="N361" s="5"/>
-      <c r="O361" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5">
+      <c r="B361" s="5"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+      <c r="G361" s="5"/>
+      <c r="H361" s="5"/>
+      <c r="I361" s="5"/>
+      <c r="J361" s="5"/>
+      <c r="K361" s="5"/>
+      <c r="L361" s="5"/>
+    </row>
+    <row r="362" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
-      <c r="B362" s="6"/>
-      <c r="C362" s="5"/>
-      <c r="D362" s="6"/>
-      <c r="E362" s="6"/>
-      <c r="F362" s="6"/>
-      <c r="G362" s="6"/>
-      <c r="H362" s="6"/>
-      <c r="I362" s="6"/>
-      <c r="J362" s="6"/>
-      <c r="K362" s="6"/>
-      <c r="L362" s="6"/>
-      <c r="M362" s="5"/>
-      <c r="N362" s="5"/>
-      <c r="O362" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5">
+      <c r="B362" s="5"/>
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="5"/>
+      <c r="J362" s="5"/>
+      <c r="K362" s="5"/>
+      <c r="L362" s="5"/>
+    </row>
+    <row r="363" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
-      <c r="B363" s="6"/>
-      <c r="C363" s="5"/>
-      <c r="D363" s="6"/>
-      <c r="E363" s="6"/>
-      <c r="F363" s="6"/>
-      <c r="G363" s="6"/>
-      <c r="H363" s="6"/>
-      <c r="I363" s="6"/>
-      <c r="J363" s="6"/>
-      <c r="K363" s="6"/>
-      <c r="L363" s="6"/>
-      <c r="M363" s="5"/>
-      <c r="N363" s="5"/>
-      <c r="O363" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5">
+      <c r="B363" s="5"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="5"/>
+      <c r="J363" s="5"/>
+      <c r="K363" s="5"/>
+      <c r="L363" s="5"/>
+    </row>
+    <row r="364" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
-      <c r="B364" s="6"/>
-      <c r="C364" s="5"/>
-      <c r="D364" s="6"/>
-      <c r="E364" s="6"/>
-      <c r="F364" s="6"/>
-      <c r="G364" s="6"/>
-      <c r="H364" s="6"/>
-      <c r="I364" s="6"/>
-      <c r="J364" s="6"/>
-      <c r="K364" s="6"/>
-      <c r="L364" s="6"/>
-      <c r="M364" s="5"/>
-      <c r="N364" s="5"/>
-      <c r="O364" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5">
+      <c r="B364" s="5"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="5"/>
+      <c r="I364" s="5"/>
+      <c r="J364" s="5"/>
+      <c r="K364" s="5"/>
+      <c r="L364" s="5"/>
+    </row>
+    <row r="365" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
-      <c r="B365" s="6"/>
-      <c r="C365" s="5"/>
-      <c r="D365" s="6"/>
-      <c r="E365" s="6"/>
-      <c r="F365" s="6"/>
-      <c r="G365" s="6"/>
-      <c r="H365" s="6"/>
-      <c r="I365" s="6"/>
-      <c r="J365" s="6"/>
-      <c r="K365" s="6"/>
-      <c r="L365" s="6"/>
-      <c r="M365" s="5"/>
-      <c r="N365" s="5"/>
-      <c r="O365" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5">
+      <c r="B365" s="5"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="5"/>
+      <c r="J365" s="5"/>
+      <c r="K365" s="5"/>
+      <c r="L365" s="5"/>
+    </row>
+    <row r="366" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
-      <c r="B366" s="6"/>
-      <c r="C366" s="5"/>
-      <c r="D366" s="6"/>
-      <c r="E366" s="6"/>
-      <c r="F366" s="6"/>
-      <c r="G366" s="6"/>
-      <c r="H366" s="6"/>
-      <c r="I366" s="6"/>
-      <c r="J366" s="6"/>
-      <c r="K366" s="6"/>
-      <c r="L366" s="6"/>
-      <c r="M366" s="5"/>
-      <c r="N366" s="5"/>
-      <c r="O366" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5">
+      <c r="B366" s="5"/>
+      <c r="D366" s="5"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="5"/>
+      <c r="J366" s="5"/>
+      <c r="K366" s="5"/>
+      <c r="L366" s="5"/>
+    </row>
+    <row r="367" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
-      <c r="B367" s="6"/>
-      <c r="C367" s="5"/>
-      <c r="D367" s="6"/>
-      <c r="E367" s="6"/>
-      <c r="F367" s="6"/>
-      <c r="G367" s="6"/>
-      <c r="H367" s="6"/>
-      <c r="I367" s="6"/>
-      <c r="J367" s="6"/>
-      <c r="K367" s="6"/>
-      <c r="L367" s="6"/>
-      <c r="M367" s="5"/>
-      <c r="N367" s="5"/>
-      <c r="O367" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5">
+      <c r="B367" s="5"/>
+      <c r="D367" s="5"/>
+      <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="5"/>
+      <c r="I367" s="5"/>
+      <c r="J367" s="5"/>
+      <c r="K367" s="5"/>
+      <c r="L367" s="5"/>
+    </row>
+    <row r="368" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
-      <c r="B368" s="6"/>
-      <c r="C368" s="5"/>
-      <c r="D368" s="6"/>
-      <c r="E368" s="6"/>
-      <c r="F368" s="6"/>
-      <c r="G368" s="6"/>
-      <c r="H368" s="6"/>
-      <c r="I368" s="6"/>
-      <c r="J368" s="6"/>
-      <c r="K368" s="6"/>
-      <c r="L368" s="6"/>
-      <c r="M368" s="5"/>
-      <c r="N368" s="5"/>
-      <c r="O368" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5">
+      <c r="B368" s="5"/>
+      <c r="D368" s="5"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="5"/>
+      <c r="I368" s="5"/>
+      <c r="J368" s="5"/>
+      <c r="K368" s="5"/>
+      <c r="L368" s="5"/>
+    </row>
+    <row r="369" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
-      <c r="B369" s="6"/>
-      <c r="C369" s="5"/>
-      <c r="D369" s="6"/>
-      <c r="E369" s="6"/>
-      <c r="F369" s="6"/>
-      <c r="G369" s="6"/>
-      <c r="H369" s="6"/>
-      <c r="I369" s="6"/>
-      <c r="J369" s="6"/>
-      <c r="K369" s="6"/>
-      <c r="L369" s="6"/>
-      <c r="M369" s="5"/>
-      <c r="N369" s="5"/>
-      <c r="O369" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5">
+      <c r="B369" s="5"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="5"/>
+      <c r="I369" s="5"/>
+      <c r="J369" s="5"/>
+      <c r="K369" s="5"/>
+      <c r="L369" s="5"/>
+    </row>
+    <row r="370" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
-      <c r="B370" s="6"/>
-      <c r="C370" s="5"/>
-      <c r="D370" s="6"/>
-      <c r="E370" s="6"/>
-      <c r="F370" s="6"/>
-      <c r="G370" s="6"/>
-      <c r="H370" s="6"/>
-      <c r="I370" s="6"/>
-      <c r="J370" s="6"/>
-      <c r="K370" s="6"/>
-      <c r="L370" s="6"/>
-      <c r="M370" s="5"/>
-      <c r="N370" s="5"/>
-      <c r="O370" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5">
+      <c r="B370" s="5"/>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="5"/>
+      <c r="J370" s="5"/>
+      <c r="K370" s="5"/>
+      <c r="L370" s="5"/>
+    </row>
+    <row r="371" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
-      <c r="B371" s="6"/>
-      <c r="C371" s="5"/>
-      <c r="D371" s="6"/>
-      <c r="E371" s="6"/>
-      <c r="F371" s="6"/>
-      <c r="G371" s="6"/>
-      <c r="H371" s="6"/>
-      <c r="I371" s="6"/>
-      <c r="J371" s="6"/>
-      <c r="K371" s="6"/>
-      <c r="L371" s="6"/>
-      <c r="M371" s="5"/>
-      <c r="N371" s="5"/>
-      <c r="O371" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5">
+      <c r="B371" s="5"/>
+      <c r="D371" s="5"/>
+      <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="5"/>
+      <c r="I371" s="5"/>
+      <c r="J371" s="5"/>
+      <c r="K371" s="5"/>
+      <c r="L371" s="5"/>
+    </row>
+    <row r="372" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
-      <c r="B372" s="6"/>
-      <c r="C372" s="5"/>
-      <c r="D372" s="6"/>
-      <c r="E372" s="6"/>
-      <c r="F372" s="6"/>
-      <c r="G372" s="6"/>
-      <c r="H372" s="6"/>
-      <c r="I372" s="6"/>
-      <c r="J372" s="6"/>
-      <c r="K372" s="6"/>
-      <c r="L372" s="6"/>
-      <c r="M372" s="5"/>
-      <c r="N372" s="5"/>
-      <c r="O372" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5">
+      <c r="B372" s="5"/>
+      <c r="D372" s="5"/>
+      <c r="E372" s="5"/>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
+      <c r="H372" s="5"/>
+      <c r="I372" s="5"/>
+      <c r="J372" s="5"/>
+      <c r="K372" s="5"/>
+      <c r="L372" s="5"/>
+    </row>
+    <row r="373" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
-      <c r="B373" s="6"/>
-      <c r="C373" s="5"/>
-      <c r="D373" s="6"/>
-      <c r="E373" s="6"/>
-      <c r="F373" s="6"/>
-      <c r="G373" s="6"/>
-      <c r="H373" s="6"/>
-      <c r="I373" s="6"/>
-      <c r="J373" s="6"/>
-      <c r="K373" s="6"/>
-      <c r="L373" s="6"/>
-      <c r="M373" s="5"/>
-      <c r="N373" s="5"/>
-      <c r="O373" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5">
+      <c r="B373" s="5"/>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5"/>
+      <c r="K373" s="5"/>
+      <c r="L373" s="5"/>
+    </row>
+    <row r="374" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
-      <c r="B374" s="6"/>
-      <c r="C374" s="5"/>
-      <c r="D374" s="6"/>
-      <c r="E374" s="6"/>
-      <c r="F374" s="6"/>
-      <c r="G374" s="6"/>
-      <c r="H374" s="6"/>
-      <c r="I374" s="6"/>
-      <c r="J374" s="6"/>
-      <c r="K374" s="6"/>
-      <c r="L374" s="6"/>
-      <c r="M374" s="5"/>
-      <c r="N374" s="5"/>
-      <c r="O374" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5">
+      <c r="B374" s="5"/>
+      <c r="D374" s="5"/>
+      <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
+      <c r="H374" s="5"/>
+      <c r="I374" s="5"/>
+      <c r="J374" s="5"/>
+      <c r="K374" s="5"/>
+      <c r="L374" s="5"/>
+    </row>
+    <row r="375" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
-      <c r="B375" s="6"/>
-      <c r="C375" s="5"/>
-      <c r="D375" s="6"/>
-      <c r="E375" s="6"/>
-      <c r="F375" s="6"/>
-      <c r="G375" s="6"/>
-      <c r="H375" s="6"/>
-      <c r="I375" s="6"/>
-      <c r="J375" s="6"/>
-      <c r="K375" s="6"/>
-      <c r="L375" s="6"/>
-      <c r="M375" s="5"/>
-      <c r="N375" s="5"/>
-      <c r="O375" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5">
+      <c r="B375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
+      <c r="H375" s="5"/>
+      <c r="I375" s="5"/>
+      <c r="J375" s="5"/>
+      <c r="K375" s="5"/>
+      <c r="L375" s="5"/>
+    </row>
+    <row r="376" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
-      <c r="B376" s="6"/>
-      <c r="C376" s="5"/>
-      <c r="D376" s="6"/>
-      <c r="E376" s="6"/>
-      <c r="F376" s="6"/>
-      <c r="G376" s="6"/>
-      <c r="H376" s="6"/>
-      <c r="I376" s="6"/>
-      <c r="J376" s="6"/>
-      <c r="K376" s="6"/>
-      <c r="L376" s="6"/>
-      <c r="M376" s="5"/>
-      <c r="N376" s="5"/>
-      <c r="O376" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5">
+      <c r="B376" s="5"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="5"/>
+      <c r="J376" s="5"/>
+      <c r="K376" s="5"/>
+      <c r="L376" s="5"/>
+    </row>
+    <row r="377" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
-      <c r="B377" s="6"/>
-      <c r="C377" s="5"/>
-      <c r="D377" s="6"/>
-      <c r="E377" s="6"/>
-      <c r="F377" s="6"/>
-      <c r="G377" s="6"/>
-      <c r="H377" s="6"/>
-      <c r="I377" s="6"/>
-      <c r="J377" s="6"/>
-      <c r="K377" s="6"/>
-      <c r="L377" s="6"/>
-      <c r="M377" s="5"/>
-      <c r="N377" s="5"/>
-      <c r="O377" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5">
+      <c r="B377" s="5"/>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
+      <c r="H377" s="5"/>
+      <c r="I377" s="5"/>
+      <c r="J377" s="5"/>
+      <c r="K377" s="5"/>
+      <c r="L377" s="5"/>
+    </row>
+    <row r="378" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
-      <c r="B378" s="6"/>
-      <c r="C378" s="5"/>
-      <c r="D378" s="6"/>
-      <c r="E378" s="6"/>
-      <c r="F378" s="6"/>
-      <c r="G378" s="6"/>
-      <c r="H378" s="6"/>
-      <c r="I378" s="6"/>
-      <c r="J378" s="6"/>
-      <c r="K378" s="6"/>
-      <c r="L378" s="6"/>
-      <c r="M378" s="5"/>
-      <c r="N378" s="5"/>
-      <c r="O378" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5">
+      <c r="B378" s="5"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
+      <c r="I378" s="5"/>
+      <c r="J378" s="5"/>
+      <c r="K378" s="5"/>
+      <c r="L378" s="5"/>
+    </row>
+    <row r="379" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
-      <c r="B379" s="6"/>
-      <c r="C379" s="5"/>
-      <c r="D379" s="6"/>
-      <c r="E379" s="6"/>
-      <c r="F379" s="6"/>
-      <c r="G379" s="6"/>
-      <c r="H379" s="6"/>
-      <c r="I379" s="6"/>
-      <c r="J379" s="6"/>
-      <c r="K379" s="6"/>
-      <c r="L379" s="6"/>
-      <c r="M379" s="5"/>
-      <c r="N379" s="5"/>
-      <c r="O379" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5">
+      <c r="B379" s="5"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5"/>
+      <c r="J379" s="5"/>
+      <c r="K379" s="5"/>
+      <c r="L379" s="5"/>
+    </row>
+    <row r="380" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
-      <c r="B380" s="6"/>
-      <c r="C380" s="5"/>
-      <c r="D380" s="6"/>
-      <c r="E380" s="6"/>
-      <c r="F380" s="6"/>
-      <c r="G380" s="6"/>
-      <c r="H380" s="6"/>
-      <c r="I380" s="6"/>
-      <c r="J380" s="6"/>
-      <c r="K380" s="6"/>
-      <c r="L380" s="6"/>
-      <c r="M380" s="5"/>
-      <c r="N380" s="5"/>
-      <c r="O380" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5">
+      <c r="B380" s="5"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
+      <c r="I380" s="5"/>
+      <c r="J380" s="5"/>
+      <c r="K380" s="5"/>
+      <c r="L380" s="5"/>
+    </row>
+    <row r="381" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
-      <c r="B381" s="6"/>
-      <c r="C381" s="5"/>
-      <c r="D381" s="6"/>
-      <c r="E381" s="6"/>
-      <c r="F381" s="6"/>
-      <c r="G381" s="6"/>
-      <c r="H381" s="6"/>
-      <c r="I381" s="6"/>
-      <c r="J381" s="6"/>
-      <c r="K381" s="6"/>
-      <c r="L381" s="6"/>
-      <c r="M381" s="5"/>
-      <c r="N381" s="5"/>
-      <c r="O381" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5">
+      <c r="B381" s="5"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+      <c r="G381" s="5"/>
+      <c r="H381" s="5"/>
+      <c r="I381" s="5"/>
+      <c r="J381" s="5"/>
+      <c r="K381" s="5"/>
+      <c r="L381" s="5"/>
+    </row>
+    <row r="382" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
-      <c r="B382" s="6"/>
-      <c r="C382" s="5"/>
-      <c r="D382" s="6"/>
-      <c r="E382" s="6"/>
-      <c r="F382" s="6"/>
-      <c r="G382" s="6"/>
-      <c r="H382" s="6"/>
-      <c r="I382" s="6"/>
-      <c r="J382" s="6"/>
-      <c r="K382" s="6"/>
-      <c r="L382" s="6"/>
-      <c r="M382" s="5"/>
-      <c r="N382" s="5"/>
-      <c r="O382" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5">
+      <c r="B382" s="5"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="5"/>
+      <c r="G382" s="5"/>
+      <c r="H382" s="5"/>
+      <c r="I382" s="5"/>
+      <c r="J382" s="5"/>
+      <c r="K382" s="5"/>
+      <c r="L382" s="5"/>
+    </row>
+    <row r="383" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
-      <c r="B383" s="6"/>
-      <c r="C383" s="5"/>
-      <c r="D383" s="6"/>
-      <c r="E383" s="6"/>
-      <c r="F383" s="6"/>
-      <c r="G383" s="6"/>
-      <c r="H383" s="6"/>
-      <c r="I383" s="6"/>
-      <c r="J383" s="6"/>
-      <c r="K383" s="6"/>
-      <c r="L383" s="6"/>
-      <c r="M383" s="5"/>
-      <c r="N383" s="5"/>
-      <c r="O383" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5">
+      <c r="B383" s="5"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="5"/>
+      <c r="F383" s="5"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5"/>
+      <c r="I383" s="5"/>
+      <c r="J383" s="5"/>
+      <c r="K383" s="5"/>
+      <c r="L383" s="5"/>
+    </row>
+    <row r="384" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
-      <c r="B384" s="6"/>
-      <c r="C384" s="5"/>
-      <c r="D384" s="6"/>
-      <c r="E384" s="6"/>
-      <c r="F384" s="6"/>
-      <c r="G384" s="6"/>
-      <c r="H384" s="6"/>
-      <c r="I384" s="6"/>
-      <c r="J384" s="6"/>
-      <c r="K384" s="6"/>
-      <c r="L384" s="6"/>
-      <c r="M384" s="5"/>
-      <c r="N384" s="5"/>
-      <c r="O384" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5">
+      <c r="B384" s="5"/>
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
+      <c r="F384" s="5"/>
+      <c r="G384" s="5"/>
+      <c r="H384" s="5"/>
+      <c r="I384" s="5"/>
+      <c r="J384" s="5"/>
+      <c r="K384" s="5"/>
+      <c r="L384" s="5"/>
+    </row>
+    <row r="385" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
-      <c r="B385" s="6"/>
-      <c r="C385" s="5"/>
-      <c r="D385" s="6"/>
-      <c r="E385" s="6"/>
-      <c r="F385" s="6"/>
-      <c r="G385" s="6"/>
-      <c r="H385" s="6"/>
-      <c r="I385" s="6"/>
-      <c r="J385" s="6"/>
-      <c r="K385" s="6"/>
-      <c r="L385" s="6"/>
-      <c r="M385" s="5"/>
-      <c r="N385" s="5"/>
-      <c r="O385" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5">
+      <c r="B385" s="5"/>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="5"/>
+      <c r="J385" s="5"/>
+      <c r="K385" s="5"/>
+      <c r="L385" s="5"/>
+    </row>
+    <row r="386" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
-      <c r="B386" s="6"/>
-      <c r="C386" s="5"/>
-      <c r="D386" s="6"/>
-      <c r="E386" s="6"/>
-      <c r="F386" s="6"/>
-      <c r="G386" s="6"/>
-      <c r="H386" s="6"/>
-      <c r="I386" s="6"/>
-      <c r="J386" s="6"/>
-      <c r="K386" s="6"/>
-      <c r="L386" s="6"/>
-      <c r="M386" s="5"/>
-      <c r="N386" s="5"/>
-      <c r="O386" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5">
+      <c r="B386" s="5"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="5"/>
+      <c r="J386" s="5"/>
+      <c r="K386" s="5"/>
+      <c r="L386" s="5"/>
+    </row>
+    <row r="387" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
-      <c r="B387" s="6"/>
-      <c r="C387" s="5"/>
-      <c r="D387" s="6"/>
-      <c r="E387" s="6"/>
-      <c r="F387" s="6"/>
-      <c r="G387" s="6"/>
-      <c r="H387" s="6"/>
-      <c r="I387" s="6"/>
-      <c r="J387" s="6"/>
-      <c r="K387" s="6"/>
-      <c r="L387" s="6"/>
-      <c r="M387" s="5"/>
-      <c r="N387" s="5"/>
-      <c r="O387" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5">
+      <c r="B387" s="5"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="5"/>
+      <c r="F387" s="5"/>
+      <c r="G387" s="5"/>
+      <c r="H387" s="5"/>
+      <c r="I387" s="5"/>
+      <c r="J387" s="5"/>
+      <c r="K387" s="5"/>
+      <c r="L387" s="5"/>
+    </row>
+    <row r="388" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
-      <c r="B388" s="6"/>
-      <c r="C388" s="5"/>
-      <c r="D388" s="6"/>
-      <c r="E388" s="6"/>
-      <c r="F388" s="6"/>
-      <c r="G388" s="6"/>
-      <c r="H388" s="6"/>
-      <c r="I388" s="6"/>
-      <c r="J388" s="6"/>
-      <c r="K388" s="6"/>
-      <c r="L388" s="6"/>
-      <c r="M388" s="5"/>
-      <c r="N388" s="5"/>
-      <c r="O388" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5">
+      <c r="B388" s="5"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="5"/>
+      <c r="I388" s="5"/>
+      <c r="J388" s="5"/>
+      <c r="K388" s="5"/>
+      <c r="L388" s="5"/>
+    </row>
+    <row r="389" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
-      <c r="B389" s="6"/>
-      <c r="C389" s="5"/>
-      <c r="D389" s="6"/>
-      <c r="E389" s="6"/>
-      <c r="F389" s="6"/>
-      <c r="G389" s="6"/>
-      <c r="H389" s="6"/>
-      <c r="I389" s="6"/>
-      <c r="J389" s="6"/>
-      <c r="K389" s="6"/>
-      <c r="L389" s="6"/>
-      <c r="M389" s="5"/>
-      <c r="N389" s="5"/>
-      <c r="O389" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5">
+      <c r="B389" s="5"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
+      <c r="G389" s="5"/>
+      <c r="H389" s="5"/>
+      <c r="I389" s="5"/>
+      <c r="J389" s="5"/>
+      <c r="K389" s="5"/>
+      <c r="L389" s="5"/>
+    </row>
+    <row r="390" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
-      <c r="B390" s="6"/>
-      <c r="C390" s="5"/>
-      <c r="D390" s="6"/>
-      <c r="E390" s="6"/>
-      <c r="F390" s="6"/>
-      <c r="G390" s="6"/>
-      <c r="H390" s="6"/>
-      <c r="I390" s="6"/>
-      <c r="J390" s="6"/>
-      <c r="K390" s="6"/>
-      <c r="L390" s="6"/>
-      <c r="M390" s="5"/>
-      <c r="N390" s="5"/>
-      <c r="O390" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5">
+      <c r="B390" s="5"/>
+      <c r="D390" s="5"/>
+      <c r="E390" s="5"/>
+      <c r="F390" s="5"/>
+      <c r="G390" s="5"/>
+      <c r="H390" s="5"/>
+      <c r="I390" s="5"/>
+      <c r="J390" s="5"/>
+      <c r="K390" s="5"/>
+      <c r="L390" s="5"/>
+    </row>
+    <row r="391" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
-      <c r="B391" s="6"/>
-      <c r="C391" s="5"/>
-      <c r="D391" s="6"/>
-      <c r="E391" s="6"/>
-      <c r="F391" s="6"/>
-      <c r="G391" s="6"/>
-      <c r="H391" s="6"/>
-      <c r="I391" s="6"/>
-      <c r="J391" s="6"/>
-      <c r="K391" s="6"/>
-      <c r="L391" s="6"/>
-      <c r="M391" s="5"/>
-      <c r="N391" s="5"/>
-      <c r="O391" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5">
+      <c r="B391" s="5"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
+      <c r="G391" s="5"/>
+      <c r="H391" s="5"/>
+      <c r="I391" s="5"/>
+      <c r="J391" s="5"/>
+      <c r="K391" s="5"/>
+      <c r="L391" s="5"/>
+    </row>
+    <row r="392" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
-      <c r="B392" s="6"/>
-      <c r="C392" s="5"/>
-      <c r="D392" s="6"/>
-      <c r="E392" s="6"/>
-      <c r="F392" s="6"/>
-      <c r="G392" s="6"/>
-      <c r="H392" s="6"/>
-      <c r="I392" s="6"/>
-      <c r="J392" s="6"/>
-      <c r="K392" s="6"/>
-      <c r="L392" s="6"/>
-      <c r="M392" s="5"/>
-      <c r="N392" s="5"/>
-      <c r="O392" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5">
+      <c r="B392" s="5"/>
+      <c r="D392" s="5"/>
+      <c r="E392" s="5"/>
+      <c r="F392" s="5"/>
+      <c r="G392" s="5"/>
+      <c r="H392" s="5"/>
+      <c r="I392" s="5"/>
+      <c r="J392" s="5"/>
+      <c r="K392" s="5"/>
+      <c r="L392" s="5"/>
+    </row>
+    <row r="393" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
-      <c r="B393" s="6"/>
-      <c r="C393" s="5"/>
-      <c r="D393" s="6"/>
-      <c r="E393" s="6"/>
-      <c r="F393" s="6"/>
-      <c r="G393" s="6"/>
-      <c r="H393" s="6"/>
-      <c r="I393" s="6"/>
-      <c r="J393" s="6"/>
-      <c r="K393" s="6"/>
-      <c r="L393" s="6"/>
-      <c r="M393" s="5"/>
-      <c r="N393" s="5"/>
-      <c r="O393" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5">
+      <c r="B393" s="5"/>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
+      <c r="F393" s="5"/>
+      <c r="G393" s="5"/>
+      <c r="H393" s="5"/>
+      <c r="I393" s="5"/>
+      <c r="J393" s="5"/>
+      <c r="K393" s="5"/>
+      <c r="L393" s="5"/>
+    </row>
+    <row r="394" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
-      <c r="B394" s="6"/>
-      <c r="C394" s="5"/>
-      <c r="D394" s="6"/>
-      <c r="E394" s="6"/>
-      <c r="F394" s="6"/>
-      <c r="G394" s="6"/>
-      <c r="H394" s="6"/>
-      <c r="I394" s="6"/>
-      <c r="J394" s="6"/>
-      <c r="K394" s="6"/>
-      <c r="L394" s="6"/>
-      <c r="M394" s="5"/>
-      <c r="N394" s="5"/>
-      <c r="O394" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5">
+      <c r="B394" s="5"/>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="5"/>
+      <c r="J394" s="5"/>
+      <c r="K394" s="5"/>
+      <c r="L394" s="5"/>
+    </row>
+    <row r="395" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
-      <c r="B395" s="6"/>
-      <c r="C395" s="5"/>
-      <c r="D395" s="6"/>
-      <c r="E395" s="6"/>
-      <c r="F395" s="6"/>
-      <c r="G395" s="6"/>
-      <c r="H395" s="6"/>
-      <c r="I395" s="6"/>
-      <c r="J395" s="6"/>
-      <c r="K395" s="6"/>
-      <c r="L395" s="6"/>
-      <c r="M395" s="5"/>
-      <c r="N395" s="5"/>
-      <c r="O395" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5">
+      <c r="B395" s="5"/>
+      <c r="D395" s="5"/>
+      <c r="E395" s="5"/>
+      <c r="F395" s="5"/>
+      <c r="G395" s="5"/>
+      <c r="H395" s="5"/>
+      <c r="I395" s="5"/>
+      <c r="J395" s="5"/>
+      <c r="K395" s="5"/>
+      <c r="L395" s="5"/>
+    </row>
+    <row r="396" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
-      <c r="B396" s="6"/>
-      <c r="C396" s="5"/>
-      <c r="D396" s="6"/>
-      <c r="E396" s="6"/>
-      <c r="F396" s="6"/>
-      <c r="G396" s="6"/>
-      <c r="H396" s="6"/>
-      <c r="I396" s="6"/>
-      <c r="J396" s="6"/>
-      <c r="K396" s="6"/>
-      <c r="L396" s="6"/>
-      <c r="M396" s="5"/>
-      <c r="N396" s="5"/>
-      <c r="O396" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5">
+      <c r="B396" s="5"/>
+      <c r="D396" s="5"/>
+      <c r="E396" s="5"/>
+      <c r="F396" s="5"/>
+      <c r="G396" s="5"/>
+      <c r="H396" s="5"/>
+      <c r="I396" s="5"/>
+      <c r="J396" s="5"/>
+      <c r="K396" s="5"/>
+      <c r="L396" s="5"/>
+    </row>
+    <row r="397" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
-      <c r="B397" s="6"/>
-      <c r="C397" s="5"/>
-      <c r="D397" s="6"/>
-      <c r="E397" s="6"/>
-      <c r="F397" s="6"/>
-      <c r="G397" s="6"/>
-      <c r="H397" s="6"/>
-      <c r="I397" s="6"/>
-      <c r="J397" s="6"/>
-      <c r="K397" s="6"/>
-      <c r="L397" s="6"/>
-      <c r="M397" s="5"/>
-      <c r="N397" s="5"/>
-      <c r="O397" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5">
+      <c r="B397" s="5"/>
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+      <c r="G397" s="5"/>
+      <c r="H397" s="5"/>
+      <c r="I397" s="5"/>
+      <c r="J397" s="5"/>
+      <c r="K397" s="5"/>
+      <c r="L397" s="5"/>
+    </row>
+    <row r="398" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
-      <c r="B398" s="6"/>
-      <c r="C398" s="5"/>
-      <c r="D398" s="6"/>
-      <c r="E398" s="6"/>
-      <c r="F398" s="6"/>
-      <c r="G398" s="6"/>
-      <c r="H398" s="6"/>
-      <c r="I398" s="6"/>
-      <c r="J398" s="6"/>
-      <c r="K398" s="6"/>
-      <c r="L398" s="6"/>
-      <c r="M398" s="5"/>
-      <c r="N398" s="5"/>
-      <c r="O398" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5">
+      <c r="B398" s="5"/>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+      <c r="G398" s="5"/>
+      <c r="H398" s="5"/>
+      <c r="I398" s="5"/>
+      <c r="J398" s="5"/>
+      <c r="K398" s="5"/>
+      <c r="L398" s="5"/>
+    </row>
+    <row r="399" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
-      <c r="B399" s="6"/>
-      <c r="C399" s="5"/>
-      <c r="D399" s="6"/>
-      <c r="E399" s="6"/>
-      <c r="F399" s="6"/>
-      <c r="G399" s="6"/>
-      <c r="H399" s="6"/>
-      <c r="I399" s="6"/>
-      <c r="J399" s="6"/>
-      <c r="K399" s="6"/>
-      <c r="L399" s="6"/>
-      <c r="M399" s="5"/>
-      <c r="N399" s="5"/>
-      <c r="O399" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5">
+      <c r="B399" s="5"/>
+      <c r="D399" s="5"/>
+      <c r="E399" s="5"/>
+      <c r="F399" s="5"/>
+      <c r="G399" s="5"/>
+      <c r="H399" s="5"/>
+      <c r="I399" s="5"/>
+      <c r="J399" s="5"/>
+      <c r="K399" s="5"/>
+      <c r="L399" s="5"/>
+    </row>
+    <row r="400" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
-      <c r="B400" s="6"/>
-      <c r="C400" s="5"/>
-      <c r="D400" s="6"/>
-      <c r="E400" s="6"/>
-      <c r="F400" s="6"/>
-      <c r="G400" s="6"/>
-      <c r="H400" s="6"/>
-      <c r="I400" s="6"/>
-      <c r="J400" s="6"/>
-      <c r="K400" s="6"/>
-      <c r="L400" s="6"/>
-      <c r="M400" s="5"/>
-      <c r="N400" s="5"/>
-      <c r="O400" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5">
+      <c r="B400" s="5"/>
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="5"/>
+      <c r="J400" s="5"/>
+      <c r="K400" s="5"/>
+      <c r="L400" s="5"/>
+    </row>
+    <row r="401" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
-      <c r="B401" s="6"/>
-      <c r="C401" s="5"/>
-      <c r="D401" s="6"/>
-      <c r="E401" s="6"/>
-      <c r="F401" s="6"/>
-      <c r="G401" s="6"/>
-      <c r="H401" s="6"/>
-      <c r="I401" s="6"/>
-      <c r="J401" s="6"/>
-      <c r="K401" s="6"/>
-      <c r="L401" s="6"/>
-      <c r="M401" s="5"/>
-      <c r="N401" s="5"/>
-      <c r="O401" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5">
+      <c r="B401" s="5"/>
+      <c r="D401" s="5"/>
+      <c r="E401" s="5"/>
+      <c r="F401" s="5"/>
+      <c r="G401" s="5"/>
+      <c r="H401" s="5"/>
+      <c r="I401" s="5"/>
+      <c r="J401" s="5"/>
+      <c r="K401" s="5"/>
+      <c r="L401" s="5"/>
+    </row>
+    <row r="402" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
-      <c r="B402" s="6"/>
-      <c r="C402" s="5"/>
-      <c r="D402" s="6"/>
-      <c r="E402" s="6"/>
-      <c r="F402" s="6"/>
-      <c r="G402" s="6"/>
-      <c r="H402" s="6"/>
-      <c r="I402" s="6"/>
-      <c r="J402" s="6"/>
-      <c r="K402" s="6"/>
-      <c r="L402" s="6"/>
-      <c r="M402" s="5"/>
-      <c r="N402" s="5"/>
-      <c r="O402" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5">
+      <c r="B402" s="5"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="5"/>
+      <c r="I402" s="5"/>
+      <c r="J402" s="5"/>
+      <c r="K402" s="5"/>
+      <c r="L402" s="5"/>
+    </row>
+    <row r="403" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
-      <c r="B403" s="6"/>
-      <c r="C403" s="5"/>
-      <c r="D403" s="6"/>
-      <c r="E403" s="6"/>
-      <c r="F403" s="6"/>
-      <c r="G403" s="6"/>
-      <c r="H403" s="6"/>
-      <c r="I403" s="6"/>
-      <c r="J403" s="6"/>
-      <c r="K403" s="6"/>
-      <c r="L403" s="6"/>
-      <c r="M403" s="5"/>
-      <c r="N403" s="5"/>
-      <c r="O403" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5">
+      <c r="B403" s="5"/>
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="5"/>
+      <c r="I403" s="5"/>
+      <c r="J403" s="5"/>
+      <c r="K403" s="5"/>
+      <c r="L403" s="5"/>
+    </row>
+    <row r="404" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
-      <c r="B404" s="6"/>
-      <c r="C404" s="5"/>
-      <c r="D404" s="6"/>
-      <c r="E404" s="6"/>
-      <c r="F404" s="6"/>
-      <c r="G404" s="6"/>
-      <c r="H404" s="6"/>
-      <c r="I404" s="6"/>
-      <c r="J404" s="6"/>
-      <c r="K404" s="6"/>
-      <c r="L404" s="6"/>
-      <c r="M404" s="5"/>
-      <c r="N404" s="5"/>
-      <c r="O404" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5">
+      <c r="B404" s="5"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="5"/>
+      <c r="J404" s="5"/>
+      <c r="K404" s="5"/>
+      <c r="L404" s="5"/>
+    </row>
+    <row r="405" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
-      <c r="B405" s="6"/>
-      <c r="C405" s="5"/>
-      <c r="D405" s="6"/>
-      <c r="E405" s="6"/>
-      <c r="F405" s="6"/>
-      <c r="G405" s="6"/>
-      <c r="H405" s="6"/>
-      <c r="I405" s="6"/>
-      <c r="J405" s="6"/>
-      <c r="K405" s="6"/>
-      <c r="L405" s="6"/>
-      <c r="M405" s="5"/>
-      <c r="N405" s="5"/>
-      <c r="O405" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5">
+      <c r="B405" s="5"/>
+      <c r="D405" s="5"/>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="5"/>
+      <c r="I405" s="5"/>
+      <c r="J405" s="5"/>
+      <c r="K405" s="5"/>
+      <c r="L405" s="5"/>
+    </row>
+    <row r="406" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
-      <c r="B406" s="6"/>
-      <c r="C406" s="5"/>
-      <c r="D406" s="6"/>
-      <c r="E406" s="6"/>
-      <c r="F406" s="6"/>
-      <c r="G406" s="6"/>
-      <c r="H406" s="6"/>
-      <c r="I406" s="6"/>
-      <c r="J406" s="6"/>
-      <c r="K406" s="6"/>
-      <c r="L406" s="6"/>
-      <c r="M406" s="5"/>
-      <c r="N406" s="5"/>
-      <c r="O406" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5">
+      <c r="B406" s="5"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5"/>
+      <c r="H406" s="5"/>
+      <c r="I406" s="5"/>
+      <c r="J406" s="5"/>
+      <c r="K406" s="5"/>
+      <c r="L406" s="5"/>
+    </row>
+    <row r="407" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
-      <c r="B407" s="6"/>
-      <c r="C407" s="5"/>
-      <c r="D407" s="6"/>
-      <c r="E407" s="6"/>
-      <c r="F407" s="6"/>
-      <c r="G407" s="6"/>
-      <c r="H407" s="6"/>
-      <c r="I407" s="6"/>
-      <c r="J407" s="6"/>
-      <c r="K407" s="6"/>
-      <c r="L407" s="6"/>
-      <c r="M407" s="5"/>
-      <c r="N407" s="5"/>
-      <c r="O407" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5">
+      <c r="B407" s="5"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="5"/>
+      <c r="I407" s="5"/>
+      <c r="J407" s="5"/>
+      <c r="K407" s="5"/>
+      <c r="L407" s="5"/>
+    </row>
+    <row r="408" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
-      <c r="B408" s="6"/>
-      <c r="C408" s="5"/>
-      <c r="D408" s="6"/>
-      <c r="E408" s="6"/>
-      <c r="F408" s="6"/>
-      <c r="G408" s="6"/>
-      <c r="H408" s="6"/>
-      <c r="I408" s="6"/>
-      <c r="J408" s="6"/>
-      <c r="K408" s="6"/>
-      <c r="L408" s="6"/>
-      <c r="M408" s="5"/>
-      <c r="N408" s="5"/>
-      <c r="O408" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5">
+      <c r="B408" s="5"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="5"/>
+      <c r="F408" s="5"/>
+      <c r="G408" s="5"/>
+      <c r="H408" s="5"/>
+      <c r="I408" s="5"/>
+      <c r="J408" s="5"/>
+      <c r="K408" s="5"/>
+      <c r="L408" s="5"/>
+    </row>
+    <row r="409" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
-      <c r="B409" s="6"/>
-      <c r="C409" s="5"/>
-      <c r="D409" s="6"/>
-      <c r="E409" s="6"/>
-      <c r="F409" s="6"/>
-      <c r="G409" s="6"/>
-      <c r="H409" s="6"/>
-      <c r="I409" s="6"/>
-      <c r="J409" s="6"/>
-      <c r="K409" s="6"/>
-      <c r="L409" s="6"/>
-      <c r="M409" s="5"/>
-      <c r="N409" s="5"/>
-      <c r="O409" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5">
+      <c r="B409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
+      <c r="I409" s="5"/>
+      <c r="J409" s="5"/>
+      <c r="K409" s="5"/>
+      <c r="L409" s="5"/>
+    </row>
+    <row r="410" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
-      <c r="B410" s="6"/>
-      <c r="C410" s="5"/>
-      <c r="D410" s="6"/>
-      <c r="E410" s="6"/>
-      <c r="F410" s="6"/>
-      <c r="G410" s="6"/>
-      <c r="H410" s="6"/>
-      <c r="I410" s="6"/>
-      <c r="J410" s="6"/>
-      <c r="K410" s="6"/>
-      <c r="L410" s="6"/>
-      <c r="M410" s="5"/>
-      <c r="N410" s="5"/>
-      <c r="O410" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5">
+      <c r="B410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="5"/>
+      <c r="J410" s="5"/>
+      <c r="K410" s="5"/>
+      <c r="L410" s="5"/>
+    </row>
+    <row r="411" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
-      <c r="B411" s="6"/>
-      <c r="C411" s="5"/>
-      <c r="D411" s="6"/>
-      <c r="E411" s="6"/>
-      <c r="F411" s="6"/>
-      <c r="G411" s="6"/>
-      <c r="H411" s="6"/>
-      <c r="I411" s="6"/>
-      <c r="J411" s="6"/>
-      <c r="K411" s="6"/>
-      <c r="L411" s="6"/>
-      <c r="M411" s="5"/>
-      <c r="N411" s="5"/>
-      <c r="O411" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5">
+      <c r="B411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
+      <c r="H411" s="5"/>
+      <c r="I411" s="5"/>
+      <c r="J411" s="5"/>
+      <c r="K411" s="5"/>
+      <c r="L411" s="5"/>
+    </row>
+    <row r="412" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
-      <c r="B412" s="6"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="6"/>
-      <c r="E412" s="6"/>
-      <c r="F412" s="6"/>
-      <c r="G412" s="6"/>
-      <c r="H412" s="6"/>
-      <c r="I412" s="6"/>
-      <c r="J412" s="6"/>
-      <c r="K412" s="6"/>
-      <c r="L412" s="6"/>
-      <c r="M412" s="5"/>
-      <c r="N412" s="5"/>
-      <c r="O412" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5">
+      <c r="B412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
+      <c r="H412" s="5"/>
+      <c r="I412" s="5"/>
+      <c r="J412" s="5"/>
+      <c r="K412" s="5"/>
+      <c r="L412" s="5"/>
+    </row>
+    <row r="413" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
-      <c r="B413" s="6"/>
-      <c r="C413" s="5"/>
-      <c r="D413" s="6"/>
-      <c r="E413" s="6"/>
-      <c r="F413" s="6"/>
-      <c r="G413" s="6"/>
-      <c r="H413" s="6"/>
-      <c r="I413" s="6"/>
-      <c r="J413" s="6"/>
-      <c r="K413" s="6"/>
-      <c r="L413" s="6"/>
-      <c r="M413" s="5"/>
-      <c r="N413" s="5"/>
-      <c r="O413" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5">
+      <c r="B413" s="5"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="5"/>
+      <c r="I413" s="5"/>
+      <c r="J413" s="5"/>
+      <c r="K413" s="5"/>
+      <c r="L413" s="5"/>
+    </row>
+    <row r="414" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
-      <c r="B414" s="6"/>
-      <c r="C414" s="5"/>
-      <c r="D414" s="6"/>
-      <c r="E414" s="6"/>
-      <c r="F414" s="6"/>
-      <c r="G414" s="6"/>
-      <c r="H414" s="6"/>
-      <c r="I414" s="6"/>
-      <c r="J414" s="6"/>
-      <c r="K414" s="6"/>
-      <c r="L414" s="6"/>
-      <c r="M414" s="5"/>
-      <c r="N414" s="5"/>
-      <c r="O414" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5">
+      <c r="B414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="5"/>
+      <c r="I414" s="5"/>
+      <c r="J414" s="5"/>
+      <c r="K414" s="5"/>
+      <c r="L414" s="5"/>
+    </row>
+    <row r="415" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
-      <c r="B415" s="6"/>
-      <c r="C415" s="5"/>
-      <c r="D415" s="6"/>
-      <c r="E415" s="6"/>
-      <c r="F415" s="6"/>
-      <c r="G415" s="6"/>
-      <c r="H415" s="6"/>
-      <c r="I415" s="6"/>
-      <c r="J415" s="6"/>
-      <c r="K415" s="6"/>
-      <c r="L415" s="6"/>
-      <c r="M415" s="5"/>
-      <c r="N415" s="5"/>
-      <c r="O415" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5">
+      <c r="B415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
+      <c r="I415" s="5"/>
+      <c r="J415" s="5"/>
+      <c r="K415" s="5"/>
+      <c r="L415" s="5"/>
+    </row>
+    <row r="416" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
-      <c r="B416" s="6"/>
-      <c r="C416" s="5"/>
-      <c r="D416" s="6"/>
-      <c r="E416" s="6"/>
-      <c r="F416" s="6"/>
-      <c r="G416" s="6"/>
-      <c r="H416" s="6"/>
-      <c r="I416" s="6"/>
-      <c r="J416" s="6"/>
-      <c r="K416" s="6"/>
-      <c r="L416" s="6"/>
-      <c r="M416" s="5"/>
-      <c r="N416" s="5"/>
-      <c r="O416" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5">
+      <c r="B416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
+      <c r="I416" s="5"/>
+      <c r="J416" s="5"/>
+      <c r="K416" s="5"/>
+      <c r="L416" s="5"/>
+    </row>
+    <row r="417" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="5"/>
-      <c r="D417" s="6"/>
-      <c r="E417" s="6"/>
-      <c r="F417" s="6"/>
-      <c r="G417" s="6"/>
-      <c r="H417" s="6"/>
-      <c r="I417" s="6"/>
-      <c r="J417" s="6"/>
-      <c r="K417" s="6"/>
-      <c r="L417" s="6"/>
-      <c r="M417" s="5"/>
-      <c r="N417" s="5"/>
-      <c r="O417" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5">
+      <c r="B417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
+      <c r="H417" s="5"/>
+      <c r="I417" s="5"/>
+      <c r="J417" s="5"/>
+      <c r="K417" s="5"/>
+      <c r="L417" s="5"/>
+    </row>
+    <row r="418" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
-      <c r="B418" s="6"/>
-      <c r="C418" s="5"/>
-      <c r="D418" s="6"/>
-      <c r="E418" s="6"/>
-      <c r="F418" s="6"/>
-      <c r="G418" s="6"/>
-      <c r="H418" s="6"/>
-      <c r="I418" s="6"/>
-      <c r="J418" s="6"/>
-      <c r="K418" s="6"/>
-      <c r="L418" s="6"/>
-      <c r="M418" s="5"/>
-      <c r="N418" s="5"/>
-      <c r="O418" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5">
+      <c r="B418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
+      <c r="I418" s="5"/>
+      <c r="J418" s="5"/>
+      <c r="K418" s="5"/>
+      <c r="L418" s="5"/>
+    </row>
+    <row r="419" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
-      <c r="B419" s="6"/>
-      <c r="C419" s="5"/>
-      <c r="D419" s="6"/>
-      <c r="E419" s="6"/>
-      <c r="F419" s="6"/>
-      <c r="G419" s="6"/>
-      <c r="H419" s="6"/>
-      <c r="I419" s="6"/>
-      <c r="J419" s="6"/>
-      <c r="K419" s="6"/>
-      <c r="L419" s="6"/>
-      <c r="M419" s="5"/>
-      <c r="N419" s="5"/>
-      <c r="O419" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5">
+      <c r="B419" s="5"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
+      <c r="H419" s="5"/>
+      <c r="I419" s="5"/>
+      <c r="J419" s="5"/>
+      <c r="K419" s="5"/>
+      <c r="L419" s="5"/>
+    </row>
+    <row r="420" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
-      <c r="B420" s="6"/>
-      <c r="C420" s="5"/>
-      <c r="D420" s="6"/>
-      <c r="E420" s="6"/>
-      <c r="F420" s="6"/>
-      <c r="G420" s="6"/>
-      <c r="H420" s="6"/>
-      <c r="I420" s="6"/>
-      <c r="J420" s="6"/>
-      <c r="K420" s="6"/>
-      <c r="L420" s="6"/>
-      <c r="M420" s="5"/>
-      <c r="N420" s="5"/>
-      <c r="O420" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5">
+      <c r="B420" s="5"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
+      <c r="H420" s="5"/>
+      <c r="I420" s="5"/>
+      <c r="J420" s="5"/>
+      <c r="K420" s="5"/>
+      <c r="L420" s="5"/>
+    </row>
+    <row r="421" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
-      <c r="B421" s="6"/>
-      <c r="C421" s="5"/>
-      <c r="D421" s="6"/>
-      <c r="E421" s="6"/>
-      <c r="F421" s="6"/>
-      <c r="G421" s="6"/>
-      <c r="H421" s="6"/>
-      <c r="I421" s="6"/>
-      <c r="J421" s="6"/>
-      <c r="K421" s="6"/>
-      <c r="L421" s="6"/>
-      <c r="M421" s="5"/>
-      <c r="N421" s="5"/>
-      <c r="O421" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5">
+      <c r="B421" s="5"/>
+      <c r="D421" s="5"/>
+      <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
+      <c r="G421" s="5"/>
+      <c r="H421" s="5"/>
+      <c r="I421" s="5"/>
+      <c r="J421" s="5"/>
+      <c r="K421" s="5"/>
+      <c r="L421" s="5"/>
+    </row>
+    <row r="422" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
-      <c r="B422" s="6"/>
-      <c r="C422" s="5"/>
-      <c r="D422" s="6"/>
-      <c r="E422" s="6"/>
-      <c r="F422" s="6"/>
-      <c r="G422" s="6"/>
-      <c r="H422" s="6"/>
-      <c r="I422" s="6"/>
-      <c r="J422" s="6"/>
-      <c r="K422" s="6"/>
-      <c r="L422" s="6"/>
-      <c r="M422" s="5"/>
-      <c r="N422" s="5"/>
-      <c r="O422" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5">
+      <c r="B422" s="5"/>
+      <c r="D422" s="5"/>
+      <c r="E422" s="5"/>
+      <c r="F422" s="5"/>
+      <c r="G422" s="5"/>
+      <c r="H422" s="5"/>
+      <c r="I422" s="5"/>
+      <c r="J422" s="5"/>
+      <c r="K422" s="5"/>
+      <c r="L422" s="5"/>
+    </row>
+    <row r="423" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
-      <c r="B423" s="6"/>
-      <c r="C423" s="5"/>
-      <c r="D423" s="6"/>
-      <c r="E423" s="6"/>
-      <c r="F423" s="6"/>
-      <c r="G423" s="6"/>
-      <c r="H423" s="6"/>
-      <c r="I423" s="6"/>
-      <c r="J423" s="6"/>
-      <c r="K423" s="6"/>
-      <c r="L423" s="6"/>
-      <c r="M423" s="5"/>
-      <c r="N423" s="5"/>
-      <c r="O423" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5">
+      <c r="B423" s="5"/>
+      <c r="D423" s="5"/>
+      <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
+      <c r="G423" s="5"/>
+      <c r="H423" s="5"/>
+      <c r="I423" s="5"/>
+      <c r="J423" s="5"/>
+      <c r="K423" s="5"/>
+      <c r="L423" s="5"/>
+    </row>
+    <row r="424" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
-      <c r="B424" s="6"/>
-      <c r="C424" s="5"/>
-      <c r="D424" s="6"/>
-      <c r="E424" s="6"/>
-      <c r="F424" s="6"/>
-      <c r="G424" s="6"/>
-      <c r="H424" s="6"/>
-      <c r="I424" s="6"/>
-      <c r="J424" s="6"/>
-      <c r="K424" s="6"/>
-      <c r="L424" s="6"/>
-      <c r="M424" s="5"/>
-      <c r="N424" s="5"/>
-      <c r="O424" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5">
+      <c r="B424" s="5"/>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
+      <c r="I424" s="5"/>
+      <c r="J424" s="5"/>
+      <c r="K424" s="5"/>
+      <c r="L424" s="5"/>
+    </row>
+    <row r="425" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
-      <c r="B425" s="6"/>
-      <c r="C425" s="5"/>
-      <c r="D425" s="6"/>
-      <c r="E425" s="6"/>
-      <c r="F425" s="6"/>
-      <c r="G425" s="6"/>
-      <c r="H425" s="6"/>
-      <c r="I425" s="6"/>
-      <c r="J425" s="6"/>
-      <c r="K425" s="6"/>
-      <c r="L425" s="6"/>
-      <c r="M425" s="5"/>
-      <c r="N425" s="5"/>
-      <c r="O425" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5">
+      <c r="B425" s="5"/>
+      <c r="D425" s="5"/>
+      <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
+      <c r="G425" s="5"/>
+      <c r="H425" s="5"/>
+      <c r="I425" s="5"/>
+      <c r="J425" s="5"/>
+      <c r="K425" s="5"/>
+      <c r="L425" s="5"/>
+    </row>
+    <row r="426" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
-      <c r="B426" s="6"/>
-      <c r="C426" s="5"/>
-      <c r="D426" s="6"/>
-      <c r="E426" s="6"/>
-      <c r="F426" s="6"/>
-      <c r="G426" s="6"/>
-      <c r="H426" s="6"/>
-      <c r="I426" s="6"/>
-      <c r="J426" s="6"/>
-      <c r="K426" s="6"/>
-      <c r="L426" s="6"/>
-      <c r="M426" s="5"/>
-      <c r="N426" s="5"/>
-      <c r="O426" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5">
+      <c r="B426" s="5"/>
+      <c r="D426" s="5"/>
+      <c r="E426" s="5"/>
+      <c r="F426" s="5"/>
+      <c r="G426" s="5"/>
+      <c r="H426" s="5"/>
+      <c r="I426" s="5"/>
+      <c r="J426" s="5"/>
+      <c r="K426" s="5"/>
+      <c r="L426" s="5"/>
+    </row>
+    <row r="427" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
-      <c r="B427" s="6"/>
-      <c r="C427" s="5"/>
-      <c r="D427" s="6"/>
-      <c r="E427" s="6"/>
-      <c r="F427" s="6"/>
-      <c r="G427" s="6"/>
-      <c r="H427" s="6"/>
-      <c r="I427" s="6"/>
-      <c r="J427" s="6"/>
-      <c r="K427" s="6"/>
-      <c r="L427" s="6"/>
-      <c r="M427" s="5"/>
-      <c r="N427" s="5"/>
-      <c r="O427" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5">
+      <c r="B427" s="5"/>
+      <c r="D427" s="5"/>
+      <c r="E427" s="5"/>
+      <c r="F427" s="5"/>
+      <c r="G427" s="5"/>
+      <c r="H427" s="5"/>
+      <c r="I427" s="5"/>
+      <c r="J427" s="5"/>
+      <c r="K427" s="5"/>
+      <c r="L427" s="5"/>
+    </row>
+    <row r="428" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
-      <c r="B428" s="6"/>
-      <c r="C428" s="5"/>
-      <c r="D428" s="6"/>
-      <c r="E428" s="6"/>
-      <c r="F428" s="6"/>
-      <c r="G428" s="6"/>
-      <c r="H428" s="6"/>
-      <c r="I428" s="6"/>
-      <c r="J428" s="6"/>
-      <c r="K428" s="6"/>
-      <c r="L428" s="6"/>
-      <c r="M428" s="5"/>
-      <c r="N428" s="5"/>
-      <c r="O428" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5">
+      <c r="B428" s="5"/>
+      <c r="D428" s="5"/>
+      <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+      <c r="G428" s="5"/>
+      <c r="H428" s="5"/>
+      <c r="I428" s="5"/>
+      <c r="J428" s="5"/>
+      <c r="K428" s="5"/>
+      <c r="L428" s="5"/>
+    </row>
+    <row r="429" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
-      <c r="B429" s="6"/>
-      <c r="C429" s="5"/>
-      <c r="D429" s="6"/>
-      <c r="E429" s="6"/>
-      <c r="F429" s="6"/>
-      <c r="G429" s="6"/>
-      <c r="H429" s="6"/>
-      <c r="I429" s="6"/>
-      <c r="J429" s="6"/>
-      <c r="K429" s="6"/>
-      <c r="L429" s="6"/>
-      <c r="M429" s="5"/>
-      <c r="N429" s="5"/>
-      <c r="O429" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5">
+      <c r="B429" s="5"/>
+      <c r="D429" s="5"/>
+      <c r="E429" s="5"/>
+      <c r="F429" s="5"/>
+      <c r="G429" s="5"/>
+      <c r="H429" s="5"/>
+      <c r="I429" s="5"/>
+      <c r="J429" s="5"/>
+      <c r="K429" s="5"/>
+      <c r="L429" s="5"/>
+    </row>
+    <row r="430" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
-      <c r="B430" s="6"/>
-      <c r="C430" s="5"/>
-      <c r="D430" s="6"/>
-      <c r="E430" s="6"/>
-      <c r="F430" s="6"/>
-      <c r="G430" s="6"/>
-      <c r="H430" s="6"/>
-      <c r="I430" s="6"/>
-      <c r="J430" s="6"/>
-      <c r="K430" s="6"/>
-      <c r="L430" s="6"/>
-      <c r="M430" s="5"/>
-      <c r="N430" s="5"/>
-      <c r="O430" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5">
+      <c r="B430" s="5"/>
+      <c r="D430" s="5"/>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
+      <c r="G430" s="5"/>
+      <c r="H430" s="5"/>
+      <c r="I430" s="5"/>
+      <c r="J430" s="5"/>
+      <c r="K430" s="5"/>
+      <c r="L430" s="5"/>
+    </row>
+    <row r="431" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
-      <c r="B431" s="6"/>
-      <c r="C431" s="5"/>
-      <c r="D431" s="6"/>
-      <c r="E431" s="6"/>
-      <c r="F431" s="6"/>
-      <c r="G431" s="6"/>
-      <c r="H431" s="6"/>
-      <c r="I431" s="6"/>
-      <c r="J431" s="6"/>
-      <c r="K431" s="6"/>
-      <c r="L431" s="6"/>
-      <c r="M431" s="5"/>
-      <c r="N431" s="5"/>
-      <c r="O431" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5">
+      <c r="B431" s="5"/>
+      <c r="D431" s="5"/>
+      <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
+      <c r="G431" s="5"/>
+      <c r="H431" s="5"/>
+      <c r="I431" s="5"/>
+      <c r="J431" s="5"/>
+      <c r="K431" s="5"/>
+      <c r="L431" s="5"/>
+    </row>
+    <row r="432" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
-      <c r="B432" s="6"/>
-      <c r="C432" s="5"/>
-      <c r="D432" s="6"/>
-      <c r="E432" s="6"/>
-      <c r="F432" s="6"/>
-      <c r="G432" s="6"/>
-      <c r="H432" s="6"/>
-      <c r="I432" s="6"/>
-      <c r="J432" s="6"/>
-      <c r="K432" s="6"/>
-      <c r="L432" s="6"/>
-      <c r="M432" s="5"/>
-      <c r="N432" s="5"/>
-      <c r="O432" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5">
+      <c r="B432" s="5"/>
+      <c r="D432" s="5"/>
+      <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
+      <c r="G432" s="5"/>
+      <c r="H432" s="5"/>
+      <c r="I432" s="5"/>
+      <c r="J432" s="5"/>
+      <c r="K432" s="5"/>
+      <c r="L432" s="5"/>
+    </row>
+    <row r="433" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
-      <c r="B433" s="6"/>
-      <c r="C433" s="5"/>
-      <c r="D433" s="6"/>
-      <c r="E433" s="6"/>
-      <c r="F433" s="6"/>
-      <c r="G433" s="6"/>
-      <c r="H433" s="6"/>
-      <c r="I433" s="6"/>
-      <c r="J433" s="6"/>
-      <c r="K433" s="6"/>
-      <c r="L433" s="6"/>
-      <c r="M433" s="5"/>
-      <c r="N433" s="5"/>
-      <c r="O433" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5">
+      <c r="B433" s="5"/>
+      <c r="D433" s="5"/>
+      <c r="E433" s="5"/>
+      <c r="F433" s="5"/>
+      <c r="G433" s="5"/>
+      <c r="H433" s="5"/>
+      <c r="I433" s="5"/>
+      <c r="J433" s="5"/>
+      <c r="K433" s="5"/>
+      <c r="L433" s="5"/>
+    </row>
+    <row r="434" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
-      <c r="B434" s="6"/>
-      <c r="C434" s="5"/>
-      <c r="D434" s="6"/>
-      <c r="E434" s="6"/>
-      <c r="F434" s="6"/>
-      <c r="G434" s="6"/>
-      <c r="H434" s="6"/>
-      <c r="I434" s="6"/>
-      <c r="J434" s="6"/>
-      <c r="K434" s="6"/>
-      <c r="L434" s="6"/>
-      <c r="M434" s="5"/>
-      <c r="N434" s="5"/>
-      <c r="O434" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5">
+      <c r="B434" s="5"/>
+      <c r="D434" s="5"/>
+      <c r="E434" s="5"/>
+      <c r="F434" s="5"/>
+      <c r="G434" s="5"/>
+      <c r="H434" s="5"/>
+      <c r="I434" s="5"/>
+      <c r="J434" s="5"/>
+      <c r="K434" s="5"/>
+      <c r="L434" s="5"/>
+    </row>
+    <row r="435" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
-      <c r="B435" s="6"/>
-      <c r="C435" s="5"/>
-      <c r="D435" s="6"/>
-      <c r="E435" s="6"/>
-      <c r="F435" s="6"/>
-      <c r="G435" s="6"/>
-      <c r="H435" s="6"/>
-      <c r="I435" s="6"/>
-      <c r="J435" s="6"/>
-      <c r="K435" s="6"/>
-      <c r="L435" s="6"/>
-      <c r="M435" s="5"/>
-      <c r="N435" s="5"/>
-      <c r="O435" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5">
+      <c r="B435" s="5"/>
+      <c r="D435" s="5"/>
+      <c r="E435" s="5"/>
+      <c r="F435" s="5"/>
+      <c r="G435" s="5"/>
+      <c r="H435" s="5"/>
+      <c r="I435" s="5"/>
+      <c r="J435" s="5"/>
+      <c r="K435" s="5"/>
+      <c r="L435" s="5"/>
+    </row>
+    <row r="436" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
-      <c r="B436" s="6"/>
-      <c r="C436" s="5"/>
-      <c r="D436" s="6"/>
-      <c r="E436" s="6"/>
-      <c r="F436" s="6"/>
-      <c r="G436" s="6"/>
-      <c r="H436" s="6"/>
-      <c r="I436" s="6"/>
-      <c r="J436" s="6"/>
-      <c r="K436" s="6"/>
-      <c r="L436" s="6"/>
-      <c r="M436" s="5"/>
-      <c r="N436" s="5"/>
-      <c r="O436" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5">
+      <c r="B436" s="5"/>
+      <c r="D436" s="5"/>
+      <c r="E436" s="5"/>
+      <c r="F436" s="5"/>
+      <c r="G436" s="5"/>
+      <c r="H436" s="5"/>
+      <c r="I436" s="5"/>
+      <c r="J436" s="5"/>
+      <c r="K436" s="5"/>
+      <c r="L436" s="5"/>
+    </row>
+    <row r="437" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
-      <c r="B437" s="6"/>
-      <c r="C437" s="5"/>
-      <c r="D437" s="6"/>
-      <c r="E437" s="6"/>
-      <c r="F437" s="6"/>
-      <c r="G437" s="6"/>
-      <c r="H437" s="6"/>
-      <c r="I437" s="6"/>
-      <c r="J437" s="6"/>
-      <c r="K437" s="6"/>
-      <c r="L437" s="6"/>
-      <c r="M437" s="5"/>
-      <c r="N437" s="5"/>
-      <c r="O437" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5">
+      <c r="B437" s="5"/>
+      <c r="D437" s="5"/>
+      <c r="E437" s="5"/>
+      <c r="F437" s="5"/>
+      <c r="G437" s="5"/>
+      <c r="H437" s="5"/>
+      <c r="I437" s="5"/>
+      <c r="J437" s="5"/>
+      <c r="K437" s="5"/>
+      <c r="L437" s="5"/>
+    </row>
+    <row r="438" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
-      <c r="B438" s="6"/>
-      <c r="C438" s="5"/>
-      <c r="D438" s="6"/>
-      <c r="E438" s="6"/>
-      <c r="F438" s="6"/>
-      <c r="G438" s="6"/>
-      <c r="H438" s="6"/>
-      <c r="I438" s="6"/>
-      <c r="J438" s="6"/>
-      <c r="K438" s="6"/>
-      <c r="L438" s="6"/>
-      <c r="M438" s="5"/>
-      <c r="N438" s="5"/>
-      <c r="O438" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5">
+      <c r="B438" s="5"/>
+      <c r="D438" s="5"/>
+      <c r="E438" s="5"/>
+      <c r="F438" s="5"/>
+      <c r="G438" s="5"/>
+      <c r="H438" s="5"/>
+      <c r="I438" s="5"/>
+      <c r="J438" s="5"/>
+      <c r="K438" s="5"/>
+      <c r="L438" s="5"/>
+    </row>
+    <row r="439" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
-      <c r="B439" s="6"/>
-      <c r="C439" s="5"/>
-      <c r="D439" s="6"/>
-      <c r="E439" s="6"/>
-      <c r="F439" s="6"/>
-      <c r="G439" s="6"/>
-      <c r="H439" s="6"/>
-      <c r="I439" s="6"/>
-      <c r="J439" s="6"/>
-      <c r="K439" s="6"/>
-      <c r="L439" s="6"/>
-      <c r="M439" s="5"/>
-      <c r="N439" s="5"/>
-      <c r="O439" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5">
+      <c r="B439" s="5"/>
+      <c r="D439" s="5"/>
+      <c r="E439" s="5"/>
+      <c r="F439" s="5"/>
+      <c r="G439" s="5"/>
+      <c r="H439" s="5"/>
+      <c r="I439" s="5"/>
+      <c r="J439" s="5"/>
+      <c r="K439" s="5"/>
+      <c r="L439" s="5"/>
+    </row>
+    <row r="440" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
-      <c r="B440" s="6"/>
-      <c r="C440" s="5"/>
-      <c r="D440" s="6"/>
-      <c r="E440" s="6"/>
-      <c r="F440" s="6"/>
-      <c r="G440" s="6"/>
-      <c r="H440" s="6"/>
-      <c r="I440" s="6"/>
-      <c r="J440" s="6"/>
-      <c r="K440" s="6"/>
-      <c r="L440" s="6"/>
-      <c r="M440" s="5"/>
-      <c r="N440" s="5"/>
-      <c r="O440" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5">
+      <c r="B440" s="5"/>
+      <c r="D440" s="5"/>
+      <c r="E440" s="5"/>
+      <c r="F440" s="5"/>
+      <c r="G440" s="5"/>
+      <c r="H440" s="5"/>
+      <c r="I440" s="5"/>
+      <c r="J440" s="5"/>
+      <c r="K440" s="5"/>
+      <c r="L440" s="5"/>
+    </row>
+    <row r="441" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
-      <c r="B441" s="6"/>
-      <c r="C441" s="5"/>
-      <c r="D441" s="6"/>
-      <c r="E441" s="6"/>
-      <c r="F441" s="6"/>
-      <c r="G441" s="6"/>
-      <c r="H441" s="6"/>
-      <c r="I441" s="6"/>
-      <c r="J441" s="6"/>
-      <c r="K441" s="6"/>
-      <c r="L441" s="6"/>
-      <c r="M441" s="5"/>
-      <c r="N441" s="5"/>
-      <c r="O441" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5">
+      <c r="B441" s="5"/>
+      <c r="D441" s="5"/>
+      <c r="E441" s="5"/>
+      <c r="F441" s="5"/>
+      <c r="G441" s="5"/>
+      <c r="H441" s="5"/>
+      <c r="I441" s="5"/>
+      <c r="J441" s="5"/>
+      <c r="K441" s="5"/>
+      <c r="L441" s="5"/>
+    </row>
+    <row r="442" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
-      <c r="B442" s="6"/>
-      <c r="C442" s="5"/>
-      <c r="D442" s="6"/>
-      <c r="E442" s="6"/>
-      <c r="F442" s="6"/>
-      <c r="G442" s="6"/>
-      <c r="H442" s="6"/>
-      <c r="I442" s="6"/>
-      <c r="J442" s="6"/>
-      <c r="K442" s="6"/>
-      <c r="L442" s="6"/>
-      <c r="M442" s="5"/>
-      <c r="N442" s="5"/>
-      <c r="O442" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5">
+      <c r="B442" s="5"/>
+      <c r="D442" s="5"/>
+      <c r="E442" s="5"/>
+      <c r="F442" s="5"/>
+      <c r="G442" s="5"/>
+      <c r="H442" s="5"/>
+      <c r="I442" s="5"/>
+      <c r="J442" s="5"/>
+      <c r="K442" s="5"/>
+      <c r="L442" s="5"/>
+    </row>
+    <row r="443" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
-      <c r="B443" s="6"/>
-      <c r="C443" s="5"/>
-      <c r="D443" s="6"/>
-      <c r="E443" s="6"/>
-      <c r="F443" s="6"/>
-      <c r="G443" s="6"/>
-      <c r="H443" s="6"/>
-      <c r="I443" s="6"/>
-      <c r="J443" s="6"/>
-      <c r="K443" s="6"/>
-      <c r="L443" s="6"/>
-      <c r="M443" s="5"/>
-      <c r="N443" s="5"/>
-      <c r="O443" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5">
+      <c r="B443" s="5"/>
+      <c r="D443" s="5"/>
+      <c r="E443" s="5"/>
+      <c r="F443" s="5"/>
+      <c r="G443" s="5"/>
+      <c r="H443" s="5"/>
+      <c r="I443" s="5"/>
+      <c r="J443" s="5"/>
+      <c r="K443" s="5"/>
+      <c r="L443" s="5"/>
+    </row>
+    <row r="444" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
-      <c r="B444" s="6"/>
-      <c r="C444" s="5"/>
-      <c r="D444" s="6"/>
-      <c r="E444" s="6"/>
-      <c r="F444" s="6"/>
-      <c r="G444" s="6"/>
-      <c r="H444" s="6"/>
-      <c r="I444" s="6"/>
-      <c r="J444" s="6"/>
-      <c r="K444" s="6"/>
-      <c r="L444" s="6"/>
-      <c r="M444" s="5"/>
-      <c r="N444" s="5"/>
-      <c r="O444" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5">
+      <c r="B444" s="5"/>
+      <c r="D444" s="5"/>
+      <c r="E444" s="5"/>
+      <c r="F444" s="5"/>
+      <c r="G444" s="5"/>
+      <c r="H444" s="5"/>
+      <c r="I444" s="5"/>
+      <c r="J444" s="5"/>
+      <c r="K444" s="5"/>
+      <c r="L444" s="5"/>
+    </row>
+    <row r="445" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
-      <c r="B445" s="6"/>
-      <c r="C445" s="5"/>
-      <c r="D445" s="6"/>
-      <c r="E445" s="6"/>
-      <c r="F445" s="6"/>
-      <c r="G445" s="6"/>
-      <c r="H445" s="6"/>
-      <c r="I445" s="6"/>
-      <c r="J445" s="6"/>
-      <c r="K445" s="6"/>
-      <c r="L445" s="6"/>
-      <c r="M445" s="5"/>
-      <c r="N445" s="5"/>
-      <c r="O445" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5">
+      <c r="B445" s="5"/>
+      <c r="D445" s="5"/>
+      <c r="E445" s="5"/>
+      <c r="F445" s="5"/>
+      <c r="G445" s="5"/>
+      <c r="H445" s="5"/>
+      <c r="I445" s="5"/>
+      <c r="J445" s="5"/>
+      <c r="K445" s="5"/>
+      <c r="L445" s="5"/>
+    </row>
+    <row r="446" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
-      <c r="B446" s="6"/>
-      <c r="C446" s="5"/>
-      <c r="D446" s="6"/>
-      <c r="E446" s="6"/>
-      <c r="F446" s="6"/>
-      <c r="G446" s="6"/>
-      <c r="H446" s="6"/>
-      <c r="I446" s="6"/>
-      <c r="J446" s="6"/>
-      <c r="K446" s="6"/>
-      <c r="L446" s="6"/>
-      <c r="M446" s="5"/>
-      <c r="N446" s="5"/>
-      <c r="O446" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5">
+      <c r="B446" s="5"/>
+      <c r="D446" s="5"/>
+      <c r="E446" s="5"/>
+      <c r="F446" s="5"/>
+      <c r="G446" s="5"/>
+      <c r="H446" s="5"/>
+      <c r="I446" s="5"/>
+      <c r="J446" s="5"/>
+      <c r="K446" s="5"/>
+      <c r="L446" s="5"/>
+    </row>
+    <row r="447" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
-      <c r="B447" s="6"/>
-      <c r="C447" s="5"/>
-      <c r="D447" s="6"/>
-      <c r="E447" s="6"/>
-      <c r="F447" s="6"/>
-      <c r="G447" s="6"/>
-      <c r="H447" s="6"/>
-      <c r="I447" s="6"/>
-      <c r="J447" s="6"/>
-      <c r="K447" s="6"/>
-      <c r="L447" s="6"/>
-      <c r="M447" s="5"/>
-      <c r="N447" s="5"/>
-      <c r="O447" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5">
+      <c r="B447" s="5"/>
+      <c r="D447" s="5"/>
+      <c r="E447" s="5"/>
+      <c r="F447" s="5"/>
+      <c r="G447" s="5"/>
+      <c r="H447" s="5"/>
+      <c r="I447" s="5"/>
+      <c r="J447" s="5"/>
+      <c r="K447" s="5"/>
+      <c r="L447" s="5"/>
+    </row>
+    <row r="448" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
-      <c r="B448" s="6"/>
-      <c r="C448" s="5"/>
-      <c r="D448" s="6"/>
-      <c r="E448" s="6"/>
-      <c r="F448" s="6"/>
-      <c r="G448" s="6"/>
-      <c r="H448" s="6"/>
-      <c r="I448" s="6"/>
-      <c r="J448" s="6"/>
-      <c r="K448" s="6"/>
-      <c r="L448" s="6"/>
-      <c r="M448" s="5"/>
-      <c r="N448" s="5"/>
-      <c r="O448" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5">
+      <c r="B448" s="5"/>
+      <c r="D448" s="5"/>
+      <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+      <c r="G448" s="5"/>
+      <c r="H448" s="5"/>
+      <c r="I448" s="5"/>
+      <c r="J448" s="5"/>
+      <c r="K448" s="5"/>
+      <c r="L448" s="5"/>
+    </row>
+    <row r="449" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
-      <c r="B449" s="6"/>
-      <c r="C449" s="5"/>
-      <c r="D449" s="6"/>
-      <c r="E449" s="6"/>
-      <c r="F449" s="6"/>
-      <c r="G449" s="6"/>
-      <c r="H449" s="6"/>
-      <c r="I449" s="6"/>
-      <c r="J449" s="6"/>
-      <c r="K449" s="6"/>
-      <c r="L449" s="6"/>
-      <c r="M449" s="5"/>
-      <c r="N449" s="5"/>
-      <c r="O449" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5">
+      <c r="B449" s="5"/>
+      <c r="D449" s="5"/>
+      <c r="E449" s="5"/>
+      <c r="F449" s="5"/>
+      <c r="G449" s="5"/>
+      <c r="H449" s="5"/>
+      <c r="I449" s="5"/>
+      <c r="J449" s="5"/>
+      <c r="K449" s="5"/>
+      <c r="L449" s="5"/>
+    </row>
+    <row r="450" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
-      <c r="B450" s="6"/>
-      <c r="C450" s="5"/>
-      <c r="D450" s="6"/>
-      <c r="E450" s="6"/>
-      <c r="F450" s="6"/>
-      <c r="G450" s="6"/>
-      <c r="H450" s="6"/>
-      <c r="I450" s="6"/>
-      <c r="J450" s="6"/>
-      <c r="K450" s="6"/>
-      <c r="L450" s="6"/>
-      <c r="M450" s="5"/>
-      <c r="N450" s="5"/>
-      <c r="O450" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5">
+      <c r="B450" s="5"/>
+      <c r="D450" s="5"/>
+      <c r="E450" s="5"/>
+      <c r="F450" s="5"/>
+      <c r="G450" s="5"/>
+      <c r="H450" s="5"/>
+      <c r="I450" s="5"/>
+      <c r="J450" s="5"/>
+      <c r="K450" s="5"/>
+      <c r="L450" s="5"/>
+    </row>
+    <row r="451" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
-      <c r="B451" s="6"/>
-      <c r="C451" s="5"/>
-      <c r="D451" s="6"/>
-      <c r="E451" s="6"/>
-      <c r="F451" s="6"/>
-      <c r="G451" s="6"/>
-      <c r="H451" s="6"/>
-      <c r="I451" s="6"/>
-      <c r="J451" s="6"/>
-      <c r="K451" s="6"/>
-      <c r="L451" s="6"/>
-      <c r="M451" s="5"/>
-      <c r="N451" s="5"/>
-      <c r="O451" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5">
+      <c r="B451" s="5"/>
+      <c r="D451" s="5"/>
+      <c r="E451" s="5"/>
+      <c r="F451" s="5"/>
+      <c r="G451" s="5"/>
+      <c r="H451" s="5"/>
+      <c r="I451" s="5"/>
+      <c r="J451" s="5"/>
+      <c r="K451" s="5"/>
+      <c r="L451" s="5"/>
+    </row>
+    <row r="452" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
-      <c r="B452" s="6"/>
-      <c r="C452" s="5"/>
-      <c r="D452" s="6"/>
-      <c r="E452" s="6"/>
-      <c r="F452" s="6"/>
-      <c r="G452" s="6"/>
-      <c r="H452" s="6"/>
-      <c r="I452" s="6"/>
-      <c r="J452" s="6"/>
-      <c r="K452" s="6"/>
-      <c r="L452" s="6"/>
-      <c r="M452" s="5"/>
-      <c r="N452" s="5"/>
-      <c r="O452" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5">
+      <c r="B452" s="5"/>
+      <c r="D452" s="5"/>
+      <c r="E452" s="5"/>
+      <c r="F452" s="5"/>
+      <c r="G452" s="5"/>
+      <c r="H452" s="5"/>
+      <c r="I452" s="5"/>
+      <c r="J452" s="5"/>
+      <c r="K452" s="5"/>
+      <c r="L452" s="5"/>
+    </row>
+    <row r="453" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
-      <c r="B453" s="6"/>
-      <c r="C453" s="5"/>
-      <c r="D453" s="6"/>
-      <c r="E453" s="6"/>
-      <c r="F453" s="6"/>
-      <c r="G453" s="6"/>
-      <c r="H453" s="6"/>
-      <c r="I453" s="6"/>
-      <c r="J453" s="6"/>
-      <c r="K453" s="6"/>
-      <c r="L453" s="6"/>
-      <c r="M453" s="5"/>
-      <c r="N453" s="5"/>
-      <c r="O453" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="19.5">
+      <c r="B453" s="5"/>
+      <c r="D453" s="5"/>
+      <c r="E453" s="5"/>
+      <c r="F453" s="5"/>
+      <c r="G453" s="5"/>
+      <c r="H453" s="5"/>
+      <c r="I453" s="5"/>
+      <c r="J453" s="5"/>
+      <c r="K453" s="5"/>
+      <c r="L453" s="5"/>
+    </row>
+    <row r="454" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
-      <c r="B454" s="6"/>
-      <c r="C454" s="5"/>
-      <c r="D454" s="6"/>
-      <c r="E454" s="6"/>
-      <c r="F454" s="6"/>
-      <c r="G454" s="6"/>
-      <c r="H454" s="6"/>
-      <c r="I454" s="6"/>
-      <c r="J454" s="6"/>
-      <c r="K454" s="6"/>
-      <c r="L454" s="6"/>
-      <c r="M454" s="5"/>
-      <c r="N454" s="5"/>
-      <c r="O454" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="19.5">
+      <c r="B454" s="5"/>
+      <c r="D454" s="5"/>
+      <c r="E454" s="5"/>
+      <c r="F454" s="5"/>
+      <c r="G454" s="5"/>
+      <c r="H454" s="5"/>
+      <c r="I454" s="5"/>
+      <c r="J454" s="5"/>
+      <c r="K454" s="5"/>
+      <c r="L454" s="5"/>
+    </row>
+    <row r="455" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
-      <c r="B455" s="6"/>
-      <c r="C455" s="5"/>
-      <c r="D455" s="6"/>
-      <c r="E455" s="6"/>
-      <c r="F455" s="6"/>
-      <c r="G455" s="6"/>
-      <c r="H455" s="6"/>
-      <c r="I455" s="6"/>
-      <c r="J455" s="6"/>
-      <c r="K455" s="6"/>
-      <c r="L455" s="6"/>
-      <c r="M455" s="5"/>
-      <c r="N455" s="5"/>
-      <c r="O455" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="19.5">
+      <c r="B455" s="5"/>
+      <c r="D455" s="5"/>
+      <c r="E455" s="5"/>
+      <c r="F455" s="5"/>
+      <c r="G455" s="5"/>
+      <c r="H455" s="5"/>
+      <c r="I455" s="5"/>
+      <c r="J455" s="5"/>
+      <c r="K455" s="5"/>
+      <c r="L455" s="5"/>
+    </row>
+    <row r="456" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
-      <c r="B456" s="6"/>
-      <c r="C456" s="5"/>
-      <c r="D456" s="6"/>
-      <c r="E456" s="6"/>
-      <c r="F456" s="6"/>
-      <c r="G456" s="6"/>
-      <c r="H456" s="6"/>
-      <c r="I456" s="6"/>
-      <c r="J456" s="6"/>
-      <c r="K456" s="6"/>
-      <c r="L456" s="6"/>
-      <c r="M456" s="5"/>
-      <c r="N456" s="5"/>
-      <c r="O456" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="19.5">
+      <c r="B456" s="5"/>
+      <c r="D456" s="5"/>
+      <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
+      <c r="G456" s="5"/>
+      <c r="H456" s="5"/>
+      <c r="I456" s="5"/>
+      <c r="J456" s="5"/>
+      <c r="K456" s="5"/>
+      <c r="L456" s="5"/>
+    </row>
+    <row r="457" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
-      <c r="B457" s="6"/>
-      <c r="C457" s="5"/>
-      <c r="D457" s="6"/>
-      <c r="E457" s="6"/>
-      <c r="F457" s="6"/>
-      <c r="G457" s="6"/>
-      <c r="H457" s="6"/>
-      <c r="I457" s="6"/>
-      <c r="J457" s="6"/>
-      <c r="K457" s="6"/>
-      <c r="L457" s="6"/>
-      <c r="M457" s="5"/>
-      <c r="N457" s="5"/>
-      <c r="O457" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="19.5">
+      <c r="B457" s="5"/>
+      <c r="D457" s="5"/>
+      <c r="E457" s="5"/>
+      <c r="F457" s="5"/>
+      <c r="G457" s="5"/>
+      <c r="H457" s="5"/>
+      <c r="I457" s="5"/>
+      <c r="J457" s="5"/>
+      <c r="K457" s="5"/>
+      <c r="L457" s="5"/>
+    </row>
+    <row r="458" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
-      <c r="B458" s="6"/>
-      <c r="C458" s="5"/>
-      <c r="D458" s="6"/>
-      <c r="E458" s="6"/>
-      <c r="F458" s="6"/>
-      <c r="G458" s="6"/>
-      <c r="H458" s="6"/>
-      <c r="I458" s="6"/>
-      <c r="J458" s="6"/>
-      <c r="K458" s="6"/>
-      <c r="L458" s="6"/>
-      <c r="M458" s="5"/>
-      <c r="N458" s="5"/>
-      <c r="O458" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="19.5">
+      <c r="B458" s="5"/>
+      <c r="D458" s="5"/>
+      <c r="E458" s="5"/>
+      <c r="F458" s="5"/>
+      <c r="G458" s="5"/>
+      <c r="H458" s="5"/>
+      <c r="I458" s="5"/>
+      <c r="J458" s="5"/>
+      <c r="K458" s="5"/>
+      <c r="L458" s="5"/>
+    </row>
+    <row r="459" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
-      <c r="B459" s="6"/>
-      <c r="C459" s="5"/>
-      <c r="D459" s="6"/>
-      <c r="E459" s="6"/>
-      <c r="F459" s="6"/>
-      <c r="G459" s="6"/>
-      <c r="H459" s="6"/>
-      <c r="I459" s="6"/>
-      <c r="J459" s="6"/>
-      <c r="K459" s="6"/>
-      <c r="L459" s="6"/>
-      <c r="M459" s="5"/>
-      <c r="N459" s="5"/>
-      <c r="O459" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="19.5">
+      <c r="B459" s="5"/>
+      <c r="D459" s="5"/>
+      <c r="E459" s="5"/>
+      <c r="F459" s="5"/>
+      <c r="G459" s="5"/>
+      <c r="H459" s="5"/>
+      <c r="I459" s="5"/>
+      <c r="J459" s="5"/>
+      <c r="K459" s="5"/>
+      <c r="L459" s="5"/>
+    </row>
+    <row r="460" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
-      <c r="B460" s="6"/>
-      <c r="C460" s="5"/>
-      <c r="D460" s="6"/>
-      <c r="E460" s="6"/>
-      <c r="F460" s="6"/>
-      <c r="G460" s="6"/>
-      <c r="H460" s="6"/>
-      <c r="I460" s="6"/>
-      <c r="J460" s="6"/>
-      <c r="K460" s="6"/>
-      <c r="L460" s="6"/>
-      <c r="M460" s="5"/>
-      <c r="N460" s="5"/>
-      <c r="O460" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="19.5">
+      <c r="B460" s="5"/>
+      <c r="D460" s="5"/>
+      <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
+      <c r="G460" s="5"/>
+      <c r="H460" s="5"/>
+      <c r="I460" s="5"/>
+      <c r="J460" s="5"/>
+      <c r="K460" s="5"/>
+      <c r="L460" s="5"/>
+    </row>
+    <row r="461" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
-      <c r="B461" s="6"/>
-      <c r="C461" s="5"/>
-      <c r="D461" s="6"/>
-      <c r="E461" s="6"/>
-      <c r="F461" s="6"/>
-      <c r="G461" s="6"/>
-      <c r="H461" s="6"/>
-      <c r="I461" s="6"/>
-      <c r="J461" s="6"/>
-      <c r="K461" s="6"/>
-      <c r="L461" s="6"/>
-      <c r="M461" s="5"/>
-      <c r="N461" s="5"/>
-      <c r="O461" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="19.5">
+      <c r="B461" s="5"/>
+      <c r="D461" s="5"/>
+      <c r="E461" s="5"/>
+      <c r="F461" s="5"/>
+      <c r="G461" s="5"/>
+      <c r="H461" s="5"/>
+      <c r="I461" s="5"/>
+      <c r="J461" s="5"/>
+      <c r="K461" s="5"/>
+      <c r="L461" s="5"/>
+    </row>
+    <row r="462" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
-      <c r="B462" s="6"/>
-      <c r="C462" s="5"/>
-      <c r="D462" s="6"/>
-      <c r="E462" s="6"/>
-      <c r="F462" s="6"/>
-      <c r="G462" s="6"/>
-      <c r="H462" s="6"/>
-      <c r="I462" s="6"/>
-      <c r="J462" s="6"/>
-      <c r="K462" s="6"/>
-      <c r="L462" s="6"/>
-      <c r="M462" s="5"/>
-      <c r="N462" s="5"/>
-      <c r="O462" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="19.5">
+      <c r="B462" s="5"/>
+      <c r="D462" s="5"/>
+      <c r="E462" s="5"/>
+      <c r="F462" s="5"/>
+      <c r="G462" s="5"/>
+      <c r="H462" s="5"/>
+      <c r="I462" s="5"/>
+      <c r="J462" s="5"/>
+      <c r="K462" s="5"/>
+      <c r="L462" s="5"/>
+    </row>
+    <row r="463" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
-      <c r="B463" s="6"/>
-      <c r="C463" s="5"/>
-      <c r="D463" s="6"/>
-      <c r="E463" s="6"/>
-      <c r="F463" s="6"/>
-      <c r="G463" s="6"/>
-      <c r="H463" s="6"/>
-      <c r="I463" s="6"/>
-      <c r="J463" s="6"/>
-      <c r="K463" s="6"/>
-      <c r="L463" s="6"/>
-      <c r="M463" s="5"/>
-      <c r="N463" s="5"/>
-      <c r="O463" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="19.5">
+      <c r="B463" s="5"/>
+      <c r="D463" s="5"/>
+      <c r="E463" s="5"/>
+      <c r="F463" s="5"/>
+      <c r="G463" s="5"/>
+      <c r="H463" s="5"/>
+      <c r="I463" s="5"/>
+      <c r="J463" s="5"/>
+      <c r="K463" s="5"/>
+      <c r="L463" s="5"/>
+    </row>
+    <row r="464" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
-      <c r="B464" s="6"/>
-      <c r="C464" s="5"/>
-      <c r="D464" s="6"/>
-      <c r="E464" s="6"/>
-      <c r="F464" s="6"/>
-      <c r="G464" s="6"/>
-      <c r="H464" s="6"/>
-      <c r="I464" s="6"/>
-      <c r="J464" s="6"/>
-      <c r="K464" s="6"/>
-      <c r="L464" s="6"/>
-      <c r="M464" s="5"/>
-      <c r="N464" s="5"/>
-      <c r="O464" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="19.5">
+      <c r="B464" s="5"/>
+      <c r="D464" s="5"/>
+      <c r="E464" s="5"/>
+      <c r="F464" s="5"/>
+      <c r="G464" s="5"/>
+      <c r="H464" s="5"/>
+      <c r="I464" s="5"/>
+      <c r="J464" s="5"/>
+      <c r="K464" s="5"/>
+      <c r="L464" s="5"/>
+    </row>
+    <row r="465" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
-      <c r="B465" s="6"/>
-      <c r="C465" s="5"/>
-      <c r="D465" s="6"/>
-      <c r="E465" s="6"/>
-      <c r="F465" s="6"/>
-      <c r="G465" s="6"/>
-      <c r="H465" s="6"/>
-      <c r="I465" s="6"/>
-      <c r="J465" s="6"/>
-      <c r="K465" s="6"/>
-      <c r="L465" s="6"/>
-      <c r="M465" s="5"/>
-      <c r="N465" s="5"/>
-      <c r="O465" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="19.5">
+      <c r="B465" s="5"/>
+      <c r="D465" s="5"/>
+      <c r="E465" s="5"/>
+      <c r="F465" s="5"/>
+      <c r="G465" s="5"/>
+      <c r="H465" s="5"/>
+      <c r="I465" s="5"/>
+      <c r="J465" s="5"/>
+      <c r="K465" s="5"/>
+      <c r="L465" s="5"/>
+    </row>
+    <row r="466" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
-      <c r="B466" s="6"/>
-      <c r="C466" s="5"/>
-      <c r="D466" s="6"/>
-      <c r="E466" s="6"/>
-      <c r="F466" s="6"/>
-      <c r="G466" s="6"/>
-      <c r="H466" s="6"/>
-      <c r="I466" s="6"/>
-      <c r="J466" s="6"/>
-      <c r="K466" s="6"/>
-      <c r="L466" s="6"/>
-      <c r="M466" s="5"/>
-      <c r="N466" s="5"/>
-      <c r="O466" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="19.5">
+      <c r="B466" s="5"/>
+      <c r="D466" s="5"/>
+      <c r="E466" s="5"/>
+      <c r="F466" s="5"/>
+      <c r="G466" s="5"/>
+      <c r="H466" s="5"/>
+      <c r="I466" s="5"/>
+      <c r="J466" s="5"/>
+      <c r="K466" s="5"/>
+      <c r="L466" s="5"/>
+    </row>
+    <row r="467" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
-      <c r="B467" s="6"/>
-      <c r="C467" s="5"/>
-      <c r="D467" s="6"/>
-      <c r="E467" s="6"/>
-      <c r="F467" s="6"/>
-      <c r="G467" s="6"/>
-      <c r="H467" s="6"/>
-      <c r="I467" s="6"/>
-      <c r="J467" s="6"/>
-      <c r="K467" s="6"/>
-      <c r="L467" s="6"/>
-      <c r="M467" s="5"/>
-      <c r="N467" s="5"/>
-      <c r="O467" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="19.5">
+      <c r="B467" s="5"/>
+      <c r="D467" s="5"/>
+      <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+      <c r="G467" s="5"/>
+      <c r="H467" s="5"/>
+      <c r="I467" s="5"/>
+      <c r="J467" s="5"/>
+      <c r="K467" s="5"/>
+      <c r="L467" s="5"/>
+    </row>
+    <row r="468" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
-      <c r="B468" s="6"/>
-      <c r="C468" s="5"/>
-      <c r="D468" s="6"/>
-      <c r="E468" s="6"/>
-      <c r="F468" s="6"/>
-      <c r="G468" s="6"/>
-      <c r="H468" s="6"/>
-      <c r="I468" s="6"/>
-      <c r="J468" s="6"/>
-      <c r="K468" s="6"/>
-      <c r="L468" s="6"/>
-      <c r="M468" s="5"/>
-      <c r="N468" s="5"/>
-      <c r="O468" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="19.5">
+      <c r="B468" s="5"/>
+      <c r="D468" s="5"/>
+      <c r="E468" s="5"/>
+      <c r="F468" s="5"/>
+      <c r="G468" s="5"/>
+      <c r="H468" s="5"/>
+      <c r="I468" s="5"/>
+      <c r="J468" s="5"/>
+      <c r="K468" s="5"/>
+      <c r="L468" s="5"/>
+    </row>
+    <row r="469" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
-      <c r="B469" s="6"/>
-      <c r="C469" s="5"/>
-      <c r="D469" s="6"/>
-      <c r="E469" s="6"/>
-      <c r="F469" s="6"/>
-      <c r="G469" s="6"/>
-      <c r="H469" s="6"/>
-      <c r="I469" s="6"/>
-      <c r="J469" s="6"/>
-      <c r="K469" s="6"/>
-      <c r="L469" s="6"/>
-      <c r="M469" s="5"/>
-      <c r="N469" s="5"/>
-      <c r="O469" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="19.5">
+      <c r="B469" s="5"/>
+      <c r="D469" s="5"/>
+      <c r="E469" s="5"/>
+      <c r="F469" s="5"/>
+      <c r="G469" s="5"/>
+      <c r="H469" s="5"/>
+      <c r="I469" s="5"/>
+      <c r="J469" s="5"/>
+      <c r="K469" s="5"/>
+      <c r="L469" s="5"/>
+    </row>
+    <row r="470" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
-      <c r="B470" s="6"/>
-      <c r="C470" s="5"/>
-      <c r="D470" s="6"/>
-      <c r="E470" s="6"/>
-      <c r="F470" s="6"/>
-      <c r="G470" s="6"/>
-      <c r="H470" s="6"/>
-      <c r="I470" s="6"/>
-      <c r="J470" s="6"/>
-      <c r="K470" s="6"/>
-      <c r="L470" s="6"/>
-      <c r="M470" s="5"/>
-      <c r="N470" s="5"/>
-      <c r="O470" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="19.5">
+      <c r="B470" s="5"/>
+      <c r="D470" s="5"/>
+      <c r="E470" s="5"/>
+      <c r="F470" s="5"/>
+      <c r="G470" s="5"/>
+      <c r="H470" s="5"/>
+      <c r="I470" s="5"/>
+      <c r="J470" s="5"/>
+      <c r="K470" s="5"/>
+      <c r="L470" s="5"/>
+    </row>
+    <row r="471" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
-      <c r="B471" s="6"/>
-      <c r="C471" s="5"/>
-      <c r="D471" s="6"/>
-      <c r="E471" s="6"/>
-      <c r="F471" s="6"/>
-      <c r="G471" s="6"/>
-      <c r="H471" s="6"/>
-      <c r="I471" s="6"/>
-      <c r="J471" s="6"/>
-      <c r="K471" s="6"/>
-      <c r="L471" s="6"/>
-      <c r="M471" s="5"/>
-      <c r="N471" s="5"/>
-      <c r="O471" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="19.5">
+      <c r="B471" s="5"/>
+      <c r="D471" s="5"/>
+      <c r="E471" s="5"/>
+      <c r="F471" s="5"/>
+      <c r="G471" s="5"/>
+      <c r="H471" s="5"/>
+      <c r="I471" s="5"/>
+      <c r="J471" s="5"/>
+      <c r="K471" s="5"/>
+      <c r="L471" s="5"/>
+    </row>
+    <row r="472" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
-      <c r="B472" s="6"/>
-      <c r="C472" s="5"/>
-      <c r="D472" s="6"/>
-      <c r="E472" s="6"/>
-      <c r="F472" s="6"/>
-      <c r="G472" s="6"/>
-      <c r="H472" s="6"/>
-      <c r="I472" s="6"/>
-      <c r="J472" s="6"/>
-      <c r="K472" s="6"/>
-      <c r="L472" s="6"/>
-      <c r="M472" s="5"/>
-      <c r="N472" s="5"/>
-      <c r="O472" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="19.5">
+      <c r="B472" s="5"/>
+      <c r="D472" s="5"/>
+      <c r="E472" s="5"/>
+      <c r="F472" s="5"/>
+      <c r="G472" s="5"/>
+      <c r="H472" s="5"/>
+      <c r="I472" s="5"/>
+      <c r="J472" s="5"/>
+      <c r="K472" s="5"/>
+      <c r="L472" s="5"/>
+    </row>
+    <row r="473" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
-      <c r="B473" s="6"/>
-      <c r="C473" s="5"/>
-      <c r="D473" s="6"/>
-      <c r="E473" s="6"/>
-      <c r="F473" s="6"/>
-      <c r="G473" s="6"/>
-      <c r="H473" s="6"/>
-      <c r="I473" s="6"/>
-      <c r="J473" s="6"/>
-      <c r="K473" s="6"/>
-      <c r="L473" s="6"/>
-      <c r="M473" s="5"/>
-      <c r="N473" s="5"/>
-      <c r="O473" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="19.5">
+      <c r="B473" s="5"/>
+      <c r="D473" s="5"/>
+      <c r="E473" s="5"/>
+      <c r="F473" s="5"/>
+      <c r="G473" s="5"/>
+      <c r="H473" s="5"/>
+      <c r="I473" s="5"/>
+      <c r="J473" s="5"/>
+      <c r="K473" s="5"/>
+      <c r="L473" s="5"/>
+    </row>
+    <row r="474" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
-      <c r="B474" s="6"/>
-      <c r="C474" s="5"/>
-      <c r="D474" s="6"/>
-      <c r="E474" s="6"/>
-      <c r="F474" s="6"/>
-      <c r="G474" s="6"/>
-      <c r="H474" s="6"/>
-      <c r="I474" s="6"/>
-      <c r="J474" s="6"/>
-      <c r="K474" s="6"/>
-      <c r="L474" s="6"/>
-      <c r="M474" s="5"/>
-      <c r="N474" s="5"/>
-      <c r="O474" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="19.5">
+      <c r="B474" s="5"/>
+      <c r="D474" s="5"/>
+      <c r="E474" s="5"/>
+      <c r="F474" s="5"/>
+      <c r="G474" s="5"/>
+      <c r="H474" s="5"/>
+      <c r="I474" s="5"/>
+      <c r="J474" s="5"/>
+      <c r="K474" s="5"/>
+      <c r="L474" s="5"/>
+    </row>
+    <row r="475" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
-      <c r="B475" s="6"/>
-      <c r="C475" s="5"/>
-      <c r="D475" s="6"/>
-      <c r="E475" s="6"/>
-      <c r="F475" s="6"/>
-      <c r="G475" s="6"/>
-      <c r="H475" s="6"/>
-      <c r="I475" s="6"/>
-      <c r="J475" s="6"/>
-      <c r="K475" s="6"/>
-      <c r="L475" s="6"/>
-      <c r="M475" s="5"/>
-      <c r="N475" s="5"/>
-      <c r="O475" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="19.5">
+      <c r="B475" s="5"/>
+      <c r="D475" s="5"/>
+      <c r="E475" s="5"/>
+      <c r="F475" s="5"/>
+      <c r="G475" s="5"/>
+      <c r="H475" s="5"/>
+      <c r="I475" s="5"/>
+      <c r="J475" s="5"/>
+      <c r="K475" s="5"/>
+      <c r="L475" s="5"/>
+    </row>
+    <row r="476" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
-      <c r="B476" s="6"/>
-      <c r="C476" s="5"/>
-      <c r="D476" s="6"/>
-      <c r="E476" s="6"/>
-      <c r="F476" s="6"/>
-      <c r="G476" s="6"/>
-      <c r="H476" s="6"/>
-      <c r="I476" s="6"/>
-      <c r="J476" s="6"/>
-      <c r="K476" s="6"/>
-      <c r="L476" s="6"/>
-      <c r="M476" s="5"/>
-      <c r="N476" s="5"/>
-      <c r="O476" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="19.5">
+      <c r="B476" s="5"/>
+      <c r="D476" s="5"/>
+      <c r="E476" s="5"/>
+      <c r="F476" s="5"/>
+      <c r="G476" s="5"/>
+      <c r="H476" s="5"/>
+      <c r="I476" s="5"/>
+      <c r="J476" s="5"/>
+      <c r="K476" s="5"/>
+      <c r="L476" s="5"/>
+    </row>
+    <row r="477" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
-      <c r="B477" s="6"/>
-      <c r="C477" s="5"/>
-      <c r="D477" s="6"/>
-      <c r="E477" s="6"/>
-      <c r="F477" s="6"/>
-      <c r="G477" s="6"/>
-      <c r="H477" s="6"/>
-      <c r="I477" s="6"/>
-      <c r="J477" s="6"/>
-      <c r="K477" s="6"/>
-      <c r="L477" s="6"/>
-      <c r="M477" s="5"/>
-      <c r="N477" s="5"/>
-      <c r="O477" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="19.5">
+      <c r="B477" s="5"/>
+      <c r="D477" s="5"/>
+      <c r="E477" s="5"/>
+      <c r="F477" s="5"/>
+      <c r="G477" s="5"/>
+      <c r="H477" s="5"/>
+      <c r="I477" s="5"/>
+      <c r="J477" s="5"/>
+      <c r="K477" s="5"/>
+      <c r="L477" s="5"/>
+    </row>
+    <row r="478" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
-      <c r="B478" s="6"/>
-      <c r="C478" s="5"/>
-      <c r="D478" s="6"/>
-      <c r="E478" s="6"/>
-      <c r="F478" s="6"/>
-      <c r="G478" s="6"/>
-      <c r="H478" s="6"/>
-      <c r="I478" s="6"/>
-      <c r="J478" s="6"/>
-      <c r="K478" s="6"/>
-      <c r="L478" s="6"/>
-      <c r="M478" s="5"/>
-      <c r="N478" s="5"/>
-      <c r="O478" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="19.5">
+      <c r="B478" s="5"/>
+      <c r="D478" s="5"/>
+      <c r="E478" s="5"/>
+      <c r="F478" s="5"/>
+      <c r="G478" s="5"/>
+      <c r="H478" s="5"/>
+      <c r="I478" s="5"/>
+      <c r="J478" s="5"/>
+      <c r="K478" s="5"/>
+      <c r="L478" s="5"/>
+    </row>
+    <row r="479" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
-      <c r="B479" s="6"/>
-      <c r="C479" s="5"/>
-      <c r="D479" s="6"/>
-      <c r="E479" s="6"/>
-      <c r="F479" s="6"/>
-      <c r="G479" s="6"/>
-      <c r="H479" s="6"/>
-      <c r="I479" s="6"/>
-      <c r="J479" s="6"/>
-      <c r="K479" s="6"/>
-      <c r="L479" s="6"/>
-      <c r="M479" s="5"/>
-      <c r="N479" s="5"/>
-      <c r="O479" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="19.5">
+      <c r="B479" s="5"/>
+      <c r="D479" s="5"/>
+      <c r="E479" s="5"/>
+      <c r="F479" s="5"/>
+      <c r="G479" s="5"/>
+      <c r="H479" s="5"/>
+      <c r="I479" s="5"/>
+      <c r="J479" s="5"/>
+      <c r="K479" s="5"/>
+      <c r="L479" s="5"/>
+    </row>
+    <row r="480" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
-      <c r="B480" s="6"/>
-      <c r="C480" s="5"/>
-      <c r="D480" s="6"/>
-      <c r="E480" s="6"/>
-      <c r="F480" s="6"/>
-      <c r="G480" s="6"/>
-      <c r="H480" s="6"/>
-      <c r="I480" s="6"/>
-      <c r="J480" s="6"/>
-      <c r="K480" s="6"/>
-      <c r="L480" s="6"/>
-      <c r="M480" s="5"/>
-      <c r="N480" s="5"/>
-      <c r="O480" s="5"/>
+      <c r="B480" s="5"/>
+      <c r="D480" s="5"/>
+      <c r="E480" s="5"/>
+      <c r="F480" s="5"/>
+      <c r="G480" s="5"/>
+      <c r="H480" s="5"/>
+      <c r="I480" s="5"/>
+      <c r="J480" s="5"/>
+      <c r="K480" s="5"/>
+      <c r="L480" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/dataset/wordle_data.xlsx
+++ b/src/dataset/wordle_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\03 - NYU Shanghai\8_Spring 2023\_MCM'23\MCM-23_2316597\src\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A97CC3-C972-4A65-812D-7C54A94C7E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129A28A-D2BD-49A3-97B0-D887933CD506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1524,7 +1524,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1619,10 +1619,6 @@
       <c r="L2" s="2">
         <v>2</v>
       </c>
-      <c r="M2">
-        <f>1*F2+2*G2+3*H2+4*I2+5*J2+6*K2+7*L2</f>
-        <v>434</v>
-      </c>
     </row>
     <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
